--- a/SuppXLS/Scen_B_SYS_MaxGrowthRates_DHPlus.xlsx
+++ b/SuppXLS/Scen_B_SYS_MaxGrowthRates_DHPlus.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git_TIMES Models\Irish-TIMES-model\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{382B1DFA-EF0F-4D47-88EB-B748D6F30386}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF5AEF0D-11B2-4F8B-8A29-74A73CE3569B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{39DC52AD-7AD8-48BE-9D85-AA1C40791A2D}"/>
+    <workbookView xWindow="1050" yWindow="-16080" windowWidth="21600" windowHeight="11385" activeTab="4" xr2:uid="{39DC52AD-7AD8-48BE-9D85-AA1C40791A2D}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="6" r:id="rId1"/>
@@ -5801,7 +5801,7 @@
   <dimension ref="A2:N27"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5914,14 +5914,14 @@
       </c>
       <c r="G6" s="26">
         <f t="shared" ref="G6:G9" si="1">1+$C14</f>
-        <v>1.2</v>
+        <v>1.05</v>
       </c>
       <c r="H6" s="2">
         <v>1</v>
       </c>
       <c r="I6" s="16">
         <f t="shared" ref="I6:I11" si="2">-D14</f>
-        <v>-0.4</v>
+        <v>-0.1</v>
       </c>
       <c r="J6" s="2">
         <v>5</v>
@@ -6127,10 +6127,10 @@
         <v>124</v>
       </c>
       <c r="C14" s="11">
-        <v>0.2</v>
+        <v>0.05</v>
       </c>
       <c r="D14">
-        <v>0.4</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
@@ -6345,12 +6345,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9933FEB4-63EA-406B-A848-C3344FC12632}">
   <dimension ref="A2:N41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E34" sqref="E34"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="7.140625" customWidth="1"/>
     <col min="2" max="2" width="32.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18.42578125" bestFit="1" customWidth="1"/>
@@ -6607,7 +6608,7 @@
       </c>
       <c r="L9" s="16">
         <f>-D28</f>
-        <v>0</v>
+        <v>-0.1</v>
       </c>
       <c r="M9" s="2">
         <v>5</v>
@@ -6647,7 +6648,7 @@
       </c>
       <c r="L10" s="16">
         <f>-D29</f>
-        <v>0</v>
+        <v>-0.1</v>
       </c>
       <c r="M10" s="2">
         <v>5</v>
@@ -6687,7 +6688,7 @@
       </c>
       <c r="L11" s="16">
         <f>-D29</f>
-        <v>0</v>
+        <v>-0.1</v>
       </c>
       <c r="M11" s="2">
         <v>5</v>
@@ -6727,7 +6728,7 @@
       </c>
       <c r="L12" s="16">
         <f>-D30</f>
-        <v>0</v>
+        <v>-0.1</v>
       </c>
       <c r="M12" s="2">
         <v>5</v>
@@ -6767,7 +6768,7 @@
       </c>
       <c r="L13" s="16">
         <f>-D30</f>
-        <v>0</v>
+        <v>-0.1</v>
       </c>
       <c r="M13" s="2">
         <v>5</v>
@@ -6847,7 +6848,7 @@
       </c>
       <c r="L15" s="16">
         <f>-D32</f>
-        <v>0</v>
+        <v>-0.1</v>
       </c>
       <c r="M15" s="2">
         <v>5</v>
@@ -6933,8 +6934,8 @@
         <v>5</v>
       </c>
       <c r="N17" s="2" t="str">
-        <f>_xlfn.TEXTJOIN(" ",TRUE,A33, "maximum growth rate of",B33)</f>
-        <v>RSD maximum growth rate of DistrictHeat</v>
+        <f>_xlfn.TEXTJOIN(" ",TRUE,A33, "minimum growth rate of",B33)</f>
+        <v>RSD minimum growth rate of DistrictHeat</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
@@ -6966,8 +6967,8 @@
         <v>1</v>
       </c>
       <c r="L18" s="16">
-        <f t="shared" ref="L18:L20" si="2">-D34</f>
-        <v>0</v>
+        <f t="shared" ref="L18:L19" si="2">-D34</f>
+        <v>-0.1</v>
       </c>
       <c r="M18" s="2">
         <v>5</v>
@@ -7007,7 +7008,7 @@
       </c>
       <c r="L19" s="16">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>-0.1</v>
       </c>
       <c r="M19" s="2">
         <v>5</v>
@@ -7046,8 +7047,8 @@
         <v>1</v>
       </c>
       <c r="L20" s="16">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f>-D35</f>
+        <v>-0.1</v>
       </c>
       <c r="M20" s="2">
         <v>5</v>
@@ -7087,7 +7088,7 @@
       </c>
       <c r="L21" s="16">
         <f>-D36</f>
-        <v>0</v>
+        <v>-0.2</v>
       </c>
       <c r="M21" s="2">
         <v>5</v>
@@ -7119,15 +7120,15 @@
         <v>185</v>
       </c>
       <c r="J22" s="29">
-        <f>1+C36/15</f>
-        <v>1.0066666666666666</v>
+        <f>1+C36/10</f>
+        <v>1.01</v>
       </c>
       <c r="K22" s="2">
         <v>1</v>
       </c>
       <c r="L22" s="16">
         <f>-D36</f>
-        <v>0</v>
+        <v>-0.2</v>
       </c>
       <c r="M22" s="2">
         <v>5</v>
@@ -7192,7 +7193,7 @@
         <v>0.1</v>
       </c>
       <c r="D28">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
@@ -7206,7 +7207,7 @@
         <v>0.1</v>
       </c>
       <c r="D29">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
@@ -7220,7 +7221,7 @@
         <v>0.1</v>
       </c>
       <c r="D30">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
@@ -7248,7 +7249,7 @@
         <v>0.02</v>
       </c>
       <c r="D32">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
@@ -7279,7 +7280,7 @@
         <v>0.05</v>
       </c>
       <c r="D34">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
@@ -7293,7 +7294,7 @@
         <v>0.08</v>
       </c>
       <c r="D35">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
@@ -7307,7 +7308,7 @@
         <v>0.1</v>
       </c>
       <c r="D36">
-        <v>0</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
@@ -7371,7 +7372,7 @@
   <dimension ref="A2:N24"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7506,14 +7507,14 @@
       </c>
       <c r="J6" s="29">
         <f>1+C14</f>
-        <v>1.05</v>
+        <v>1.01</v>
       </c>
       <c r="K6" s="2">
         <v>1</v>
       </c>
       <c r="L6" s="16">
         <f>-D14</f>
-        <v>-0.3</v>
+        <v>-0.1</v>
       </c>
       <c r="M6" s="2">
         <v>5</v>
@@ -7625,14 +7626,15 @@
         <v>15</v>
       </c>
       <c r="J9" s="29">
-        <v>1.1000000000000001</v>
+        <f>1+C17</f>
+        <v>1</v>
       </c>
       <c r="K9" s="2">
         <v>1</v>
       </c>
       <c r="L9" s="16">
         <f>-D17</f>
-        <v>-0.3</v>
+        <v>0</v>
       </c>
       <c r="M9" s="2">
         <v>5</v>
@@ -7658,21 +7660,21 @@
         <v>142</v>
       </c>
       <c r="H10" s="2">
-        <v>2018</v>
+        <v>2021</v>
       </c>
       <c r="I10" s="2" t="s">
         <v>15</v>
       </c>
       <c r="J10" s="29">
         <f>1+C18</f>
-        <v>1.08</v>
+        <v>1.0049999999999999</v>
       </c>
       <c r="K10" s="2">
         <v>1</v>
       </c>
       <c r="L10" s="16">
         <f>-D18</f>
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="M10" s="2">
         <v>5</v>
@@ -7712,10 +7714,10 @@
         <v>137</v>
       </c>
       <c r="C14" s="11">
-        <v>0.05</v>
+        <v>0.01</v>
       </c>
       <c r="D14">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
@@ -7754,10 +7756,10 @@
         <v>191</v>
       </c>
       <c r="C17" s="11">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="D17">
-        <v>0.3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
@@ -7768,10 +7770,10 @@
         <v>192</v>
       </c>
       <c r="C18" s="11">
-        <v>0.08</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="D18">
-        <v>0.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
@@ -9494,6 +9496,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010087B74FDAF7A4FB4D876E5EA45926113E" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="7c45a71fd69a7f965f9452dfe567e395">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="3a32fc56-8470-4d77-ad86-bef2a7229878" xmlns:ns3="af10b6eb-1b35-481e-9f8a-8ff8d968e3bf" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e11456b9df302c9cdeb068d2abd9c51d" ns2:_="" ns3:_="">
     <xsd:import namespace="3a32fc56-8470-4d77-ad86-bef2a7229878"/>
@@ -9704,12 +9712,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -9720,6 +9722,15 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BB3709B4-63F5-4DFC-B992-07B9DE433FAB}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{00FA9C21-6103-4373-B43A-A6097DCED766}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -9738,15 +9749,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BB3709B4-63F5-4DFC-B992-07B9DE433FAB}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{62402F5C-4915-4658-8F60-3A11655231DF}">
   <ds:schemaRefs>

--- a/SuppXLS/Scen_B_SYS_MaxGrowthRates_DHPlus.xlsx
+++ b/SuppXLS/Scen_B_SYS_MaxGrowthRates_DHPlus.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git_TIMES Models\Irish-TIMES-model\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF5AEF0D-11B2-4F8B-8A29-74A73CE3569B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C17FF17-2EA4-4F58-96A1-8F2FF62B93D4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1050" yWindow="-16080" windowWidth="21600" windowHeight="11385" activeTab="4" xr2:uid="{39DC52AD-7AD8-48BE-9D85-AA1C40791A2D}"/>
+    <workbookView xWindow="-60" yWindow="-16320" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{39DC52AD-7AD8-48BE-9D85-AA1C40791A2D}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="6" r:id="rId1"/>
@@ -171,7 +171,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="494" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="500" uniqueCount="224">
   <si>
     <t>~UC_Sets: T_E:</t>
   </si>
@@ -860,6 +860,9 @@
   </si>
   <si>
     <t>SRVHET*</t>
+  </si>
+  <si>
+    <t>SRVELC</t>
   </si>
 </sst>
 </file>
@@ -6346,7 +6349,7 @@
   <dimension ref="A2:N41"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6921,7 +6924,7 @@
       </c>
       <c r="J17" s="29">
         <f>1+C33/E33</f>
-        <v>1.04</v>
+        <v>1.1599999999999999</v>
       </c>
       <c r="K17" s="2">
         <v>1</v>
@@ -7266,7 +7269,7 @@
         <v>-0.3</v>
       </c>
       <c r="E33">
-        <v>5</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
@@ -7372,7 +7375,7 @@
   <dimension ref="A2:N24"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="N12" sqref="N12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7685,18 +7688,44 @@
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
+      <c r="B11" s="2" t="str">
+        <f>_xlfn.TEXTJOIN("_",TRUE,"UC",A19,"MaxGrowth",B19)</f>
+        <v>UC_SRV_MaxGrowth_Electricity</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>144</v>
+      </c>
       <c r="D11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
-      <c r="J11" s="29"/>
-      <c r="K11" s="2"/>
-      <c r="L11" s="16"/>
-      <c r="M11" s="2"/>
-      <c r="N11" s="2"/>
+      <c r="F11" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="H11" s="2">
+        <v>2021</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J11" s="29">
+        <f>1+C19</f>
+        <v>1.05</v>
+      </c>
+      <c r="K11" s="2">
+        <v>1</v>
+      </c>
+      <c r="L11" s="16">
+        <f>-D19</f>
+        <v>-0.3</v>
+      </c>
+      <c r="M11" s="2">
+        <v>5</v>
+      </c>
+      <c r="N11" s="2" t="str">
+        <f>_xlfn.TEXTJOIN(" ",TRUE,A19, "maximum growth rate of",B19)</f>
+        <v>SRV maximum growth rate of Electricity</v>
+      </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
@@ -7774,6 +7803,20 @@
       </c>
       <c r="D18">
         <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>139</v>
+      </c>
+      <c r="B19" t="s">
+        <v>199</v>
+      </c>
+      <c r="C19" s="11">
+        <v>0.05</v>
+      </c>
+      <c r="D19">
+        <v>0.3</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
@@ -9496,9 +9539,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -9713,19 +9759,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BB3709B4-63F5-4DFC-B992-07B9DE433FAB}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{62402F5C-4915-4658-8F60-3A11655231DF}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -9750,9 +9792,10 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{62402F5C-4915-4658-8F60-3A11655231DF}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BB3709B4-63F5-4DFC-B992-07B9DE433FAB}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/SuppXLS/Scen_B_SYS_MaxGrowthRates_DHPlus.xlsx
+++ b/SuppXLS/Scen_B_SYS_MaxGrowthRates_DHPlus.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git_TIMES Models\Irish-TIMES-model\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C17FF17-2EA4-4F58-96A1-8F2FF62B93D4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EB8B3B7-4106-42D2-BD2B-595C7E2A3F4D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-60" yWindow="-16320" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{39DC52AD-7AD8-48BE-9D85-AA1C40791A2D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{39DC52AD-7AD8-48BE-9D85-AA1C40791A2D}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="6" r:id="rId1"/>
@@ -6349,7 +6349,7 @@
   <dimension ref="A2:N41"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+      <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6884,7 +6884,7 @@
       </c>
       <c r="J16" s="29">
         <f>1+C33</f>
-        <v>1.2</v>
+        <v>1.4</v>
       </c>
       <c r="K16" s="2">
         <v>1</v>
@@ -7263,13 +7263,13 @@
         <v>191</v>
       </c>
       <c r="C33" s="11">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="D33">
         <v>-0.3</v>
       </c>
       <c r="E33">
-        <v>1.25</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
@@ -7375,7 +7375,7 @@
   <dimension ref="A2:N24"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N12" sqref="N12"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7489,7 +7489,7 @@
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="str">
-        <f>_xlfn.TEXTJOIN("_",TRUE,"UC",A14,"MaxGrowth",B14)</f>
+        <f t="shared" ref="B6:B11" si="0">_xlfn.TEXTJOIN("_",TRUE,"UC",A14,"MaxGrowth",B14)</f>
         <v>UC_SRV_MaxGrowth_Biomass</v>
       </c>
       <c r="C6" s="2" t="s">
@@ -7509,27 +7509,27 @@
         <v>15</v>
       </c>
       <c r="J6" s="29">
-        <f>1+C14</f>
+        <f t="shared" ref="J6:J11" si="1">1+C14</f>
         <v>1.01</v>
       </c>
       <c r="K6" s="2">
         <v>1</v>
       </c>
       <c r="L6" s="16">
-        <f>-D14</f>
+        <f t="shared" ref="L6:L11" si="2">-D14</f>
         <v>-0.1</v>
       </c>
       <c r="M6" s="2">
         <v>5</v>
       </c>
       <c r="N6" s="2" t="str">
-        <f>_xlfn.TEXTJOIN(" ",TRUE,A14, "maximum growth rate of",B14)</f>
+        <f t="shared" ref="N6:N11" si="3">_xlfn.TEXTJOIN(" ",TRUE,A14, "maximum growth rate of",B14)</f>
         <v>SRV maximum growth rate of Biomass</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B7" s="2" t="str">
-        <f>_xlfn.TEXTJOIN("_",TRUE,"UC",A15,"MaxGrowth",B15)</f>
+        <f t="shared" si="0"/>
         <v>UC_SRV_MaxGrowth_Biogas</v>
       </c>
       <c r="C7" s="2" t="s">
@@ -7549,27 +7549,27 @@
         <v>15</v>
       </c>
       <c r="J7" s="29">
-        <f>1+C15</f>
+        <f t="shared" si="1"/>
         <v>1.05</v>
       </c>
       <c r="K7" s="2">
         <v>1</v>
       </c>
       <c r="L7" s="16">
-        <f>-D15</f>
+        <f t="shared" si="2"/>
         <v>-0.3</v>
       </c>
       <c r="M7" s="2">
         <v>5</v>
       </c>
       <c r="N7" s="2" t="str">
-        <f>_xlfn.TEXTJOIN(" ",TRUE,A15, "maximum growth rate of",B15)</f>
+        <f t="shared" si="3"/>
         <v>SRV maximum growth rate of Biogas</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B8" s="2" t="str">
-        <f>_xlfn.TEXTJOIN("_",TRUE,"UC",A16,"MaxGrowth",B16)</f>
+        <f t="shared" si="0"/>
         <v>UC_SRV_MaxGrowth_AmbientHeat</v>
       </c>
       <c r="C8" s="2" t="s">
@@ -7589,28 +7589,28 @@
         <v>15</v>
       </c>
       <c r="J8" s="29">
-        <f>1+C16</f>
+        <f t="shared" si="1"/>
         <v>1.05</v>
       </c>
       <c r="K8" s="2">
         <v>1</v>
       </c>
       <c r="L8" s="16">
-        <f>-D16</f>
+        <f t="shared" si="2"/>
         <v>-0.3</v>
       </c>
       <c r="M8" s="2">
         <v>5</v>
       </c>
       <c r="N8" s="2" t="str">
-        <f>_xlfn.TEXTJOIN(" ",TRUE,A16, "maximum growth rate of",B16)</f>
+        <f t="shared" si="3"/>
         <v>SRV maximum growth rate of AmbientHeat</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B9" s="2" t="str">
-        <f>_xlfn.TEXTJOIN("_",TRUE,"UC",A17,"MaxGrowth",B17)</f>
-        <v>UC_SRV_MaxGrowth_DistrictHeat</v>
+        <f>_xlfn.TEXTJOIN("_",TRUE,"*UC",A17,"MaxGrowth",B17)</f>
+        <v>*UC_SRV_MaxGrowth_DistrictHeat</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>144</v>
@@ -7629,27 +7629,27 @@
         <v>15</v>
       </c>
       <c r="J9" s="29">
-        <f>1+C17</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="K9" s="2">
         <v>1</v>
       </c>
       <c r="L9" s="16">
-        <f>-D17</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M9" s="2">
         <v>5</v>
       </c>
       <c r="N9" s="2" t="str">
-        <f>_xlfn.TEXTJOIN(" ",TRUE,A17, "maximum growth rate of",B17)</f>
+        <f t="shared" si="3"/>
         <v>SRV maximum growth rate of DistrictHeat</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B10" s="2" t="str">
-        <f>_xlfn.TEXTJOIN("_",TRUE,"UC",A18,"MaxGrowth",B18)</f>
+        <f t="shared" si="0"/>
         <v>UC_SRV_MaxGrowth_Gas</v>
       </c>
       <c r="C10" s="2" t="s">
@@ -7669,27 +7669,27 @@
         <v>15</v>
       </c>
       <c r="J10" s="29">
-        <f>1+C18</f>
+        <f t="shared" si="1"/>
         <v>1.0049999999999999</v>
       </c>
       <c r="K10" s="2">
         <v>1</v>
       </c>
       <c r="L10" s="16">
-        <f>-D18</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M10" s="2">
         <v>5</v>
       </c>
       <c r="N10" s="2" t="str">
-        <f>_xlfn.TEXTJOIN(" ",TRUE,A18, "maximum growth rate of",B18)</f>
+        <f t="shared" si="3"/>
         <v>SRV maximum growth rate of Gas</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B11" s="2" t="str">
-        <f>_xlfn.TEXTJOIN("_",TRUE,"UC",A19,"MaxGrowth",B19)</f>
+        <f t="shared" si="0"/>
         <v>UC_SRV_MaxGrowth_Electricity</v>
       </c>
       <c r="C11" s="2" t="s">
@@ -7709,21 +7709,21 @@
         <v>15</v>
       </c>
       <c r="J11" s="29">
-        <f>1+C19</f>
+        <f t="shared" si="1"/>
         <v>1.05</v>
       </c>
       <c r="K11" s="2">
         <v>1</v>
       </c>
       <c r="L11" s="16">
-        <f>-D19</f>
+        <f t="shared" si="2"/>
         <v>-0.3</v>
       </c>
       <c r="M11" s="2">
         <v>5</v>
       </c>
       <c r="N11" s="2" t="str">
-        <f>_xlfn.TEXTJOIN(" ",TRUE,A19, "maximum growth rate of",B19)</f>
+        <f t="shared" si="3"/>
         <v>SRV maximum growth rate of Electricity</v>
       </c>
     </row>
@@ -9539,12 +9539,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -9759,15 +9756,19 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{62402F5C-4915-4658-8F60-3A11655231DF}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BB3709B4-63F5-4DFC-B992-07B9DE433FAB}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -9792,10 +9793,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BB3709B4-63F5-4DFC-B992-07B9DE433FAB}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{62402F5C-4915-4658-8F60-3A11655231DF}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/SuppXLS/Scen_B_SYS_MaxGrowthRates_DHPlus.xlsx
+++ b/SuppXLS/Scen_B_SYS_MaxGrowthRates_DHPlus.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git_TIMES Models\Irish-TIMES-model\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EB8B3B7-4106-42D2-BD2B-595C7E2A3F4D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84BF0151-11B8-4530-BDFB-39A6970663CC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{39DC52AD-7AD8-48BE-9D85-AA1C40791A2D}"/>
   </bookViews>
@@ -6349,7 +6349,7 @@
   <dimension ref="A2:N41"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L16" sqref="L16"/>
+      <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7084,7 +7084,7 @@
       </c>
       <c r="J21" s="29">
         <f>1+C36</f>
-        <v>1.1000000000000001</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="K21" s="2">
         <v>1</v>
@@ -7124,7 +7124,7 @@
       </c>
       <c r="J22" s="29">
         <f>1+C36/10</f>
-        <v>1.01</v>
+        <v>1.0149999999999999</v>
       </c>
       <c r="K22" s="2">
         <v>1</v>
@@ -7308,7 +7308,7 @@
         <v>203</v>
       </c>
       <c r="C36" s="11">
-        <v>0.1</v>
+        <v>0.15</v>
       </c>
       <c r="D36">
         <v>0.2</v>
@@ -9539,9 +9539,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -9756,19 +9759,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BB3709B4-63F5-4DFC-B992-07B9DE433FAB}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{62402F5C-4915-4658-8F60-3A11655231DF}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -9793,9 +9792,10 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{62402F5C-4915-4658-8F60-3A11655231DF}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BB3709B4-63F5-4DFC-B992-07B9DE433FAB}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/SuppXLS/Scen_B_SYS_MaxGrowthRates_DHPlus.xlsx
+++ b/SuppXLS/Scen_B_SYS_MaxGrowthRates_DHPlus.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git_TIMES Models\Irish-TIMES-model\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84BF0151-11B8-4530-BDFB-39A6970663CC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2A1EE22-E90C-4E4F-B3BD-2D4E75727A61}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{39DC52AD-7AD8-48BE-9D85-AA1C40791A2D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{39DC52AD-7AD8-48BE-9D85-AA1C40791A2D}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="6" r:id="rId1"/>
@@ -21,6 +21,9 @@
     <sheet name="SRV" sheetId="5" r:id="rId6"/>
     <sheet name="TRA" sheetId="1" r:id="rId7"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId8"/>
+  </externalReferences>
   <definedNames>
     <definedName name="__123Graph_AEUMILKPN" localSheetId="0" hidden="1">#REF!</definedName>
     <definedName name="__123Graph_AEUMILKPN" localSheetId="3" hidden="1">#REF!</definedName>
@@ -171,7 +174,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="500" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="526" uniqueCount="230">
   <si>
     <t>~UC_Sets: T_E:</t>
   </si>
@@ -864,16 +867,35 @@
   <si>
     <t>SRVELC</t>
   </si>
+  <si>
+    <t>DH_IND*</t>
+  </si>
+  <si>
+    <t>DH_SOL*</t>
+  </si>
+  <si>
+    <t>DH_IND</t>
+  </si>
+  <si>
+    <t>DH_SOL</t>
+  </si>
+  <si>
+    <t>SRVSOL</t>
+  </si>
+  <si>
+    <t>SRVLPG</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="166" formatCode="0.000"/>
     <numFmt numFmtId="167" formatCode="0.0"/>
+    <numFmt numFmtId="168" formatCode="0.0%"/>
   </numFmts>
   <fonts count="20" x14ac:knownFonts="1">
     <font>
@@ -1156,7 +1178,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1258,6 +1280,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -1655,6 +1678,118 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Cover"/>
+      <sheetName val="Regions"/>
+      <sheetName val="SUP"/>
+      <sheetName val="PWR"/>
+      <sheetName val="RSD"/>
+      <sheetName val="SRV"/>
+      <sheetName val="TRA"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1">
+        <row r="3">
+          <cell r="C3" t="str">
+            <v>IE</v>
+          </cell>
+          <cell r="D3" t="str">
+            <v>National</v>
+          </cell>
+          <cell r="E3" t="str">
+            <v>IE-CW</v>
+          </cell>
+          <cell r="F3" t="str">
+            <v>IE-D</v>
+          </cell>
+          <cell r="G3" t="str">
+            <v>IE-KE</v>
+          </cell>
+          <cell r="H3" t="str">
+            <v>IE-KK</v>
+          </cell>
+          <cell r="I3" t="str">
+            <v>IE-LS</v>
+          </cell>
+          <cell r="J3" t="str">
+            <v>IE-LD</v>
+          </cell>
+          <cell r="K3" t="str">
+            <v>IE-LH</v>
+          </cell>
+          <cell r="L3" t="str">
+            <v>IE-MH</v>
+          </cell>
+          <cell r="M3" t="str">
+            <v>IE-OY</v>
+          </cell>
+          <cell r="N3" t="str">
+            <v>IE-WH</v>
+          </cell>
+          <cell r="O3" t="str">
+            <v>IE-WX</v>
+          </cell>
+          <cell r="P3" t="str">
+            <v>IE-WW</v>
+          </cell>
+          <cell r="Q3" t="str">
+            <v>IE-CE</v>
+          </cell>
+          <cell r="R3" t="str">
+            <v>IE-CO</v>
+          </cell>
+          <cell r="S3" t="str">
+            <v>IE-KY</v>
+          </cell>
+          <cell r="T3" t="str">
+            <v>IE-LK</v>
+          </cell>
+          <cell r="U3" t="str">
+            <v>IE-TA</v>
+          </cell>
+          <cell r="V3" t="str">
+            <v>IE-WD</v>
+          </cell>
+          <cell r="W3" t="str">
+            <v>IE-G</v>
+          </cell>
+          <cell r="X3" t="str">
+            <v>IE-LM</v>
+          </cell>
+          <cell r="Y3" t="str">
+            <v>IE-MO</v>
+          </cell>
+          <cell r="Z3" t="str">
+            <v>IE-RN</v>
+          </cell>
+          <cell r="AA3" t="str">
+            <v>IE-SO</v>
+          </cell>
+          <cell r="AB3" t="str">
+            <v>IE-CN</v>
+          </cell>
+          <cell r="AC3" t="str">
+            <v>IE-DL</v>
+          </cell>
+          <cell r="AD3" t="str">
+            <v>IE-MN</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -5801,10 +5936,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43B92B0C-7472-4C75-A119-CE0EE6C8A8E0}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A2:N27"/>
+  <dimension ref="A2:N29"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5819,7 +5954,7 @@
   <sheetData>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="str">
-        <f>"~UC_Sets: R_E: " &amp; _xlfn.TEXTJOIN(",",TRUE,Regions!C3:D3)</f>
+        <f>"~UC_Sets: R_E: " &amp; _xlfn.TEXTJOIN(",",TRUE,[1]Regions!C3:D3)</f>
         <v>~UC_Sets: R_E: IE,National</v>
       </c>
       <c r="C2" s="2"/>
@@ -5900,7 +6035,7 @@
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="str">
-        <f t="shared" ref="B6:B9" si="0">_xlfn.TEXTJOIN("_",TRUE,"UC",A14,"MaxGrowth",B14)</f>
+        <f t="shared" ref="B6:B13" si="0">_xlfn.TEXTJOIN("_",TRUE,"UC",A16,"MaxGrowth",B16)</f>
         <v>UC_PWR_MaxGrowth_CCS</v>
       </c>
       <c r="C6" s="2" t="s">
@@ -5916,21 +6051,21 @@
         <v>15</v>
       </c>
       <c r="G6" s="26">
-        <f t="shared" ref="G6:G9" si="1">1+$C14</f>
+        <f t="shared" ref="G6:G13" si="1">1+$C16</f>
         <v>1.05</v>
       </c>
       <c r="H6" s="2">
         <v>1</v>
       </c>
       <c r="I6" s="16">
-        <f t="shared" ref="I6:I11" si="2">-D14</f>
+        <f t="shared" ref="I6:I13" si="2">-D16</f>
         <v>-0.1</v>
       </c>
       <c r="J6" s="2">
         <v>5</v>
       </c>
       <c r="K6" s="2" t="str">
-        <f t="shared" ref="K6:K11" si="3">_xlfn.TEXTJOIN(" ",TRUE,A14, "maximum growth rate of",B14)</f>
+        <f t="shared" ref="K6:K13" si="3">_xlfn.TEXTJOIN(" ",TRUE,A16, "maximum growth rate of",B16)</f>
         <v>PWR maximum growth rate of CCS</v>
       </c>
     </row>
@@ -6044,7 +6179,7 @@
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B10" s="2" t="str">
-        <f t="shared" ref="B10:B11" si="4">_xlfn.TEXTJOIN("_",TRUE,"UC",A18,"MaxGrowth",B18)</f>
+        <f t="shared" si="0"/>
         <v>UC_PWR_MaxGrowth_PV</v>
       </c>
       <c r="C10" s="2" t="s">
@@ -6060,7 +6195,7 @@
         <v>15</v>
       </c>
       <c r="G10" s="26">
-        <f t="shared" ref="G10:G11" si="5">1+$C18</f>
+        <f t="shared" si="1"/>
         <v>1.2</v>
       </c>
       <c r="H10" s="2">
@@ -6080,7 +6215,7 @@
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B11" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>UC_PWR_MaxGrowth_CSP</v>
       </c>
       <c r="C11" s="2" t="s">
@@ -6096,7 +6231,7 @@
         <v>15</v>
       </c>
       <c r="G11" s="26">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>1.2</v>
       </c>
       <c r="H11" s="2">
@@ -6114,40 +6249,84 @@
         <v>PWR maximum growth rate of CSP</v>
       </c>
     </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B12" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>UC_PWR_MaxGrowth_DH_IND</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="E12">
+        <v>2018</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G12" s="26">
+        <f t="shared" si="1"/>
+        <v>1.02</v>
+      </c>
+      <c r="H12" s="2">
+        <v>1</v>
+      </c>
+      <c r="I12" s="16">
+        <f t="shared" si="2"/>
+        <v>-0.1</v>
+      </c>
+      <c r="J12" s="2">
+        <v>5</v>
+      </c>
+      <c r="K12" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>PWR maximum growth rate of DH_IND</v>
+      </c>
+    </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="C13" t="s">
+      <c r="B13" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>UC_PWR_MaxGrowth_DH_SOL</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="E13">
+        <v>2018</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G13" s="26">
+        <f t="shared" si="1"/>
+        <v>1.02</v>
+      </c>
+      <c r="H13" s="2">
+        <v>1</v>
+      </c>
+      <c r="I13" s="16">
+        <f t="shared" si="2"/>
+        <v>-0.1</v>
+      </c>
+      <c r="J13" s="2">
+        <v>5</v>
+      </c>
+      <c r="K13" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>PWR maximum growth rate of DH_SOL</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="C15" t="s">
         <v>117</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D15" t="s">
         <v>119</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>128</v>
-      </c>
-      <c r="B14" t="s">
-        <v>124</v>
-      </c>
-      <c r="C14" s="11">
-        <v>0.05</v>
-      </c>
-      <c r="D14">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>128</v>
-      </c>
-      <c r="B15" t="s">
-        <v>125</v>
-      </c>
-      <c r="C15" s="11">
-        <v>0.2</v>
-      </c>
-      <c r="D15">
-        <v>0.4</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
@@ -6155,10 +6334,10 @@
         <v>128</v>
       </c>
       <c r="B16" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C16" s="11">
-        <v>0.2</v>
+        <v>0.05</v>
       </c>
       <c r="D16">
         <v>0.1</v>
@@ -6169,13 +6348,13 @@
         <v>128</v>
       </c>
       <c r="B17" t="s">
-        <v>160</v>
+        <v>125</v>
       </c>
       <c r="C17" s="11">
         <v>0.2</v>
       </c>
       <c r="D17">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
@@ -6183,13 +6362,13 @@
         <v>128</v>
       </c>
       <c r="B18" t="s">
-        <v>156</v>
+        <v>126</v>
       </c>
       <c r="C18" s="11">
         <v>0.2</v>
       </c>
       <c r="D18">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
@@ -6197,7 +6376,7 @@
         <v>128</v>
       </c>
       <c r="B19" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="C19" s="11">
         <v>0.2</v>
@@ -6206,136 +6385,192 @@
         <v>0.5</v>
       </c>
     </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>128</v>
+      </c>
+      <c r="B20" t="s">
+        <v>156</v>
+      </c>
+      <c r="C20" s="11">
+        <v>0.2</v>
+      </c>
+      <c r="D20">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>128</v>
+      </c>
+      <c r="B21" t="s">
+        <v>157</v>
+      </c>
+      <c r="C21" s="11">
+        <v>0.2</v>
+      </c>
+      <c r="D21">
+        <v>0.5</v>
+      </c>
+    </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2" t="s">
+      <c r="A22" t="s">
+        <v>128</v>
+      </c>
+      <c r="B22" t="s">
+        <v>226</v>
+      </c>
+      <c r="C22" s="11">
+        <v>0.02</v>
+      </c>
+      <c r="D22">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>128</v>
+      </c>
+      <c r="B23" t="s">
+        <v>227</v>
+      </c>
+      <c r="C23" s="11">
+        <v>0.02</v>
+      </c>
+      <c r="D23">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G22" s="2"/>
-      <c r="H22" s="2"/>
-      <c r="I22" s="2"/>
-      <c r="J22" s="2"/>
-      <c r="K22" s="2"/>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B23" s="4" t="s">
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
+      <c r="J24" s="2"/>
+      <c r="K24" s="2"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B25" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C23" s="14" t="s">
+      <c r="C25" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="D23" s="14" t="s">
+      <c r="D25" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="E23" s="15" t="s">
+      <c r="E25" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="F23" s="15" t="s">
+      <c r="F25" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="G23" s="4" t="s">
+      <c r="G25" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="H23" s="4" t="s">
+      <c r="H25" s="4" t="s">
         <v>182</v>
       </c>
-      <c r="I23" s="4" t="s">
+      <c r="I25" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="J23" s="4" t="s">
+      <c r="J25" s="4" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B24" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="E24" s="2">
-        <v>2019</v>
-      </c>
-      <c r="F24" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="G24" s="26">
-        <f>1+$C29</f>
-        <v>1</v>
-      </c>
-      <c r="H24" s="16">
-        <v>0.6</v>
-      </c>
-      <c r="I24" s="2">
-        <v>3</v>
-      </c>
-      <c r="J24" s="2" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="E25" s="2">
-        <v>2020</v>
-      </c>
-      <c r="F25" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="G25" s="26">
-        <f>1+$C30</f>
-        <v>1</v>
-      </c>
-      <c r="H25" s="16">
-        <v>0.5</v>
-      </c>
-      <c r="I25" s="2"/>
-      <c r="J25" s="2"/>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B26" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="E26">
-        <v>2026</v>
+        <v>154</v>
+      </c>
+      <c r="E26" s="2">
+        <v>2019</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>185</v>
       </c>
       <c r="G26" s="26">
-        <f>1+$C30</f>
+        <f>1+$C31</f>
         <v>1</v>
       </c>
       <c r="H26" s="16">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="I26" s="2">
         <v>3</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D27" s="2"/>
-      <c r="E27">
-        <v>2027</v>
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="E27" s="2">
+        <v>2020</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>185</v>
       </c>
+      <c r="G27" s="26">
+        <f>1+$C32</f>
+        <v>1</v>
+      </c>
       <c r="H27" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="I27" s="2"/>
+      <c r="J27" s="2"/>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B28" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="E28">
+        <v>2026</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="G28" s="26">
+        <f>1+$C32</f>
+        <v>1</v>
+      </c>
+      <c r="H28" s="16">
+        <v>1</v>
+      </c>
+      <c r="I28" s="2">
+        <v>3</v>
+      </c>
+      <c r="J28" s="2" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D29" s="2"/>
+      <c r="E29">
+        <v>2027</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="H29" s="16">
         <v>2</v>
       </c>
     </row>
@@ -6348,13 +6583,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9933FEB4-63EA-406B-A848-C3344FC12632}">
   <dimension ref="A2:N41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C37" sqref="C37"/>
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.140625" customWidth="1"/>
     <col min="2" max="2" width="32.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18.42578125" bestFit="1" customWidth="1"/>
@@ -6370,7 +6604,7 @@
   <sheetData>
     <row r="2" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="str">
-        <f>"~UC_Sets: R_E: " &amp; _xlfn.TEXTJOIN(",",TRUE,Regions!C3,Regions!E3:AD3)</f>
+        <f>"~UC_Sets: R_E: " &amp; _xlfn.TEXTJOIN(",",TRUE,[1]Regions!C3,[1]Regions!E3:AD3)</f>
         <v>~UC_Sets: R_E: IE,IE-CW,IE-D,IE-KE,IE-KK,IE-LS,IE-LD,IE-LH,IE-MH,IE-OY,IE-WH,IE-WX,IE-WW,IE-CE,IE-CO,IE-KY,IE-LK,IE-TA,IE-WD,IE-G,IE-LM,IE-MO,IE-RN,IE-SO,IE-CN,IE-DL,IE-MN</v>
       </c>
       <c r="C2" s="2"/>
@@ -6484,7 +6718,7 @@
       </c>
       <c r="J6" s="29">
         <f>1+C26</f>
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="K6" s="2">
         <v>1</v>
@@ -6524,7 +6758,7 @@
       </c>
       <c r="J7" s="29">
         <f>1+C26</f>
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="K7" s="2">
         <v>1</v>
@@ -6564,7 +6798,7 @@
       </c>
       <c r="J8" s="29">
         <f>1+C27</f>
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="K8" s="2">
         <v>1</v>
@@ -6764,7 +6998,7 @@
       </c>
       <c r="J13" s="29">
         <f>1+C30</f>
-        <v>1.1000000000000001</v>
+        <v>1.08</v>
       </c>
       <c r="K13" s="2">
         <v>1</v>
@@ -6884,14 +7118,14 @@
       </c>
       <c r="J16" s="29">
         <f>1+C33</f>
-        <v>1.4</v>
+        <v>1.2</v>
       </c>
       <c r="K16" s="2">
         <v>1</v>
       </c>
       <c r="L16" s="16">
         <f>-D33</f>
-        <v>0.3</v>
+        <v>-0.3</v>
       </c>
       <c r="M16" s="2">
         <v>5</v>
@@ -6923,15 +7157,15 @@
         <v>185</v>
       </c>
       <c r="J17" s="29">
-        <f>1+C33/E33</f>
-        <v>1.1599999999999999</v>
+        <f>1+C33/2</f>
+        <v>1.1000000000000001</v>
       </c>
       <c r="K17" s="2">
         <v>1</v>
       </c>
       <c r="L17" s="16">
-        <f>-D33</f>
-        <v>0.3</v>
+        <f>-D34</f>
+        <v>-0.1</v>
       </c>
       <c r="M17" s="2">
         <v>5</v>
@@ -6964,7 +7198,7 @@
       </c>
       <c r="J18" s="29">
         <f t="shared" ref="J18:J19" si="1">1+C34</f>
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="K18" s="2">
         <v>1</v>
@@ -7165,7 +7399,7 @@
         <v>196</v>
       </c>
       <c r="C26" s="11">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="D26">
         <v>0</v>
@@ -7179,7 +7413,7 @@
         <v>137</v>
       </c>
       <c r="C27" s="11">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="D27">
         <v>0</v>
@@ -7221,7 +7455,7 @@
         <v>199</v>
       </c>
       <c r="C30" s="11">
-        <v>0.1</v>
+        <v>0.08</v>
       </c>
       <c r="D30">
         <v>0.1</v>
@@ -7263,13 +7497,10 @@
         <v>191</v>
       </c>
       <c r="C33" s="11">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="D33">
-        <v>-0.3</v>
-      </c>
-      <c r="E33">
-        <v>2.5</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
@@ -7280,7 +7511,7 @@
         <v>201</v>
       </c>
       <c r="C34" s="11">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="D34">
         <v>0.1</v>
@@ -7334,11 +7565,11 @@
         <v>7</v>
       </c>
       <c r="F40" s="48" t="str">
-        <f>IF(Regions!C$3&lt;&gt;"",Regions!C$3,"*")</f>
+        <f>IF([1]Regions!C$3&lt;&gt;"",[1]Regions!C$3,"*")</f>
         <v>IE</v>
       </c>
       <c r="G40" s="48" t="str">
-        <f>IF(Regions!C$3&lt;&gt;"",Regions!D$3,"*")</f>
+        <f>IF([1]Regions!C$3&lt;&gt;"",[1]Regions!D$3,"*")</f>
         <v>National</v>
       </c>
       <c r="H40" s="49" t="s">
@@ -7372,10 +7603,10 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F5F46D0-BFBE-459D-AD94-C3EBC85EC70F}">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A2:N24"/>
+  <dimension ref="A2:N28"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7394,9 +7625,9 @@
     <col min="14" max="14" width="40" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="str">
-        <f>"~UC_Sets: R_E: " &amp; _xlfn.TEXTJOIN(",",TRUE,Regions!C3:D3)</f>
+        <f>"~UC_Sets: R_E: " &amp; _xlfn.TEXTJOIN(",",TRUE,[1]Regions!C3:D3)</f>
         <v>~UC_Sets: R_E: IE,National</v>
       </c>
       <c r="C2" s="2"/>
@@ -7412,7 +7643,7 @@
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
@@ -7429,7 +7660,7 @@
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
@@ -7446,7 +7677,7 @@
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B5" s="4" t="s">
         <v>1</v>
       </c>
@@ -7487,9 +7718,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="str">
-        <f t="shared" ref="B6:B11" si="0">_xlfn.TEXTJOIN("_",TRUE,"UC",A14,"MaxGrowth",B14)</f>
+        <f t="shared" ref="B6:B11" si="0">_xlfn.TEXTJOIN("_",TRUE,"UC",A17,"MaxGrowth",B17)</f>
         <v>UC_SRV_MaxGrowth_Biomass</v>
       </c>
       <c r="C6" s="2" t="s">
@@ -7509,25 +7740,25 @@
         <v>15</v>
       </c>
       <c r="J6" s="29">
-        <f t="shared" ref="J6:J11" si="1">1+C14</f>
-        <v>1.01</v>
+        <f>1+C17</f>
+        <v>1.02</v>
       </c>
       <c r="K6" s="2">
         <v>1</v>
       </c>
       <c r="L6" s="16">
-        <f t="shared" ref="L6:L11" si="2">-D14</f>
+        <f t="shared" ref="L6:L11" si="1">-D17</f>
         <v>-0.1</v>
       </c>
       <c r="M6" s="2">
         <v>5</v>
       </c>
       <c r="N6" s="2" t="str">
-        <f t="shared" ref="N6:N11" si="3">_xlfn.TEXTJOIN(" ",TRUE,A14, "maximum growth rate of",B14)</f>
+        <f t="shared" ref="N6:N11" si="2">_xlfn.TEXTJOIN(" ",TRUE,A17, "maximum growth rate of",B17)</f>
         <v>SRV maximum growth rate of Biomass</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B7" s="2" t="str">
         <f t="shared" si="0"/>
         <v>UC_SRV_MaxGrowth_Biogas</v>
@@ -7549,25 +7780,25 @@
         <v>15</v>
       </c>
       <c r="J7" s="29">
-        <f t="shared" si="1"/>
-        <v>1.05</v>
+        <f>1+C18</f>
+        <v>1.02</v>
       </c>
       <c r="K7" s="2">
         <v>1</v>
       </c>
       <c r="L7" s="16">
-        <f t="shared" si="2"/>
-        <v>-0.3</v>
+        <f t="shared" si="1"/>
+        <v>-0.1</v>
       </c>
       <c r="M7" s="2">
         <v>5</v>
       </c>
       <c r="N7" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>SRV maximum growth rate of Biogas</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B8" s="2" t="str">
         <f t="shared" si="0"/>
         <v>UC_SRV_MaxGrowth_AmbientHeat</v>
@@ -7589,28 +7820,28 @@
         <v>15</v>
       </c>
       <c r="J8" s="29">
-        <f t="shared" si="1"/>
-        <v>1.05</v>
+        <f>1+C19</f>
+        <v>1.08</v>
       </c>
       <c r="K8" s="2">
         <v>1</v>
       </c>
       <c r="L8" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>-0.3</v>
       </c>
       <c r="M8" s="2">
         <v>5</v>
       </c>
       <c r="N8" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>SRV maximum growth rate of AmbientHeat</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B9" s="2" t="str">
-        <f>_xlfn.TEXTJOIN("_",TRUE,"*UC",A17,"MaxGrowth",B17)</f>
-        <v>*UC_SRV_MaxGrowth_DistrictHeat</v>
+        <f t="shared" si="0"/>
+        <v>UC_SRV_MaxGrowth_DistrictHeat</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>144</v>
@@ -7629,25 +7860,24 @@
         <v>15</v>
       </c>
       <c r="J9" s="29">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="K9" s="2">
         <v>1</v>
       </c>
       <c r="L9" s="16">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>-0.3</v>
       </c>
       <c r="M9" s="2">
         <v>5</v>
       </c>
       <c r="N9" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>SRV maximum growth rate of DistrictHeat</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B10" s="2" t="str">
         <f t="shared" si="0"/>
         <v>UC_SRV_MaxGrowth_Gas</v>
@@ -7669,25 +7899,25 @@
         <v>15</v>
       </c>
       <c r="J10" s="29">
-        <f t="shared" si="1"/>
-        <v>1.0049999999999999</v>
+        <f>1+C21</f>
+        <v>1.0149999999999999</v>
       </c>
       <c r="K10" s="2">
         <v>1</v>
       </c>
       <c r="L10" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="M10" s="2">
         <v>5</v>
       </c>
       <c r="N10" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>SRV maximum growth rate of Gas</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B11" s="2" t="str">
         <f t="shared" si="0"/>
         <v>UC_SRV_MaxGrowth_Electricity</v>
@@ -7709,72 +7939,163 @@
         <v>15</v>
       </c>
       <c r="J11" s="29">
-        <f t="shared" si="1"/>
-        <v>1.05</v>
+        <f>1+C22</f>
+        <v>1.08</v>
       </c>
       <c r="K11" s="2">
         <v>1</v>
       </c>
       <c r="L11" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>-0.3</v>
       </c>
       <c r="M11" s="2">
         <v>5</v>
       </c>
       <c r="N11" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>SRV maximum growth rate of Electricity</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="C13" t="s">
+    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B12" s="2" t="str">
+        <f>_xlfn.TEXTJOIN("_",TRUE,"UC",A23,"MaxGrowth",B23)</f>
+        <v>UC_SRV_MaxGrowth_Solar</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="D12" s="2"/>
+      <c r="F12" t="s">
+        <v>228</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="H12" s="2">
+        <v>2021</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J12" s="29">
+        <f>1+C23</f>
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="K12" s="2">
+        <v>1</v>
+      </c>
+      <c r="L12" s="16">
+        <f>-D23</f>
+        <v>-0.2</v>
+      </c>
+      <c r="M12" s="2">
+        <v>5</v>
+      </c>
+      <c r="N12" s="2" t="str">
+        <f>_xlfn.TEXTJOIN(" ",TRUE,A23, "maximum growth rate of",B23)</f>
+        <v>SRV maximum growth rate of Solar</v>
+      </c>
+    </row>
+    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B13" s="2" t="str">
+        <f>_xlfn.TEXTJOIN("_",TRUE,"UC",A23,"MinGrowth",B23)</f>
+        <v>UC_SRV_MinGrowth_Solar</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="D13" s="2"/>
+      <c r="F13" t="s">
+        <v>228</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="H13" s="2">
+        <v>2021</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="J13" s="29">
+        <f>1+C23/10</f>
+        <v>1.0149999999999999</v>
+      </c>
+      <c r="K13" s="2">
+        <v>1</v>
+      </c>
+      <c r="L13" s="16">
+        <f>-D23</f>
+        <v>-0.2</v>
+      </c>
+      <c r="M13" s="2">
+        <v>5</v>
+      </c>
+      <c r="N13" s="2" t="str">
+        <f>_xlfn.TEXTJOIN(" ",TRUE,A23, "minimum growth rate of",B23)</f>
+        <v>SRV minimum growth rate of Solar</v>
+      </c>
+    </row>
+    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B14" s="2" t="str">
+        <f>_xlfn.TEXTJOIN("_",TRUE,"UC",A24,"MinGrowth",B24)</f>
+        <v>UC_SRV_MinGrowth_LPG</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="D14" s="2"/>
+      <c r="F14" t="s">
+        <v>229</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="H14" s="2">
+        <v>2021</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J14" s="29">
+        <f>1+C24</f>
+        <v>1.04</v>
+      </c>
+      <c r="K14" s="2">
+        <v>1</v>
+      </c>
+      <c r="L14" s="16">
+        <f>-D24</f>
+        <v>-0.1</v>
+      </c>
+      <c r="M14" s="2">
+        <v>5</v>
+      </c>
+      <c r="N14" s="2" t="str">
+        <f>_xlfn.TEXTJOIN(" ",TRUE,A24, "maximum growth rate of",B24)</f>
+        <v>SRV maximum growth rate of LPG</v>
+      </c>
+    </row>
+    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="29"/>
+      <c r="K15" s="2"/>
+      <c r="L15" s="16"/>
+      <c r="M15" s="2"/>
+      <c r="N15" s="2"/>
+    </row>
+    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="C16" t="s">
         <v>117</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D16" t="s">
         <v>189</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>139</v>
-      </c>
-      <c r="B14" t="s">
-        <v>137</v>
-      </c>
-      <c r="C14" s="11">
-        <v>0.01</v>
-      </c>
-      <c r="D14">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>139</v>
-      </c>
-      <c r="B15" t="s">
-        <v>138</v>
-      </c>
-      <c r="C15" s="11">
-        <v>0.05</v>
-      </c>
-      <c r="D15">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>139</v>
-      </c>
-      <c r="B16" t="s">
-        <v>190</v>
-      </c>
-      <c r="C16" s="11">
-        <v>0.05</v>
-      </c>
-      <c r="D16">
-        <v>0.3</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -7782,13 +8103,13 @@
         <v>139</v>
       </c>
       <c r="B17" t="s">
-        <v>191</v>
-      </c>
-      <c r="C17" s="11">
-        <v>0</v>
+        <v>137</v>
+      </c>
+      <c r="C17" s="54">
+        <v>0.02</v>
       </c>
       <c r="D17">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
@@ -7796,13 +8117,13 @@
         <v>139</v>
       </c>
       <c r="B18" t="s">
-        <v>192</v>
-      </c>
-      <c r="C18" s="11">
-        <v>5.0000000000000001E-3</v>
+        <v>138</v>
+      </c>
+      <c r="C18" s="54">
+        <v>0.02</v>
       </c>
       <c r="D18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
@@ -7810,61 +8131,131 @@
         <v>139</v>
       </c>
       <c r="B19" t="s">
-        <v>199</v>
-      </c>
-      <c r="C19" s="11">
-        <v>0.05</v>
+        <v>190</v>
+      </c>
+      <c r="C19" s="54">
+        <v>0.08</v>
       </c>
       <c r="D19">
         <v>0.3</v>
       </c>
     </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>139</v>
+      </c>
+      <c r="B20" t="s">
+        <v>191</v>
+      </c>
+      <c r="C20" s="54">
+        <v>0.1</v>
+      </c>
+      <c r="D20">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>139</v>
+      </c>
+      <c r="B21" t="s">
+        <v>192</v>
+      </c>
+      <c r="C21" s="54">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+    </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B22" s="45" t="s">
+      <c r="A22" t="s">
+        <v>139</v>
+      </c>
+      <c r="B22" t="s">
+        <v>199</v>
+      </c>
+      <c r="C22" s="54">
+        <v>0.08</v>
+      </c>
+      <c r="D22">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>139</v>
+      </c>
+      <c r="B23" t="s">
+        <v>203</v>
+      </c>
+      <c r="C23" s="54">
+        <v>0.15</v>
+      </c>
+      <c r="D23">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>139</v>
+      </c>
+      <c r="B24" t="s">
+        <v>201</v>
+      </c>
+      <c r="C24" s="54">
+        <v>0.04</v>
+      </c>
+      <c r="D24">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B26" s="45" t="s">
         <v>213</v>
       </c>
-      <c r="H22" s="46"/>
-    </row>
-    <row r="23" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="47" t="s">
+      <c r="H26" s="46"/>
+    </row>
+    <row r="27" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="47" t="s">
         <v>214</v>
       </c>
-      <c r="C23" s="47" t="s">
+      <c r="C27" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="D23" s="47" t="s">
+      <c r="D27" s="47" t="s">
         <v>215</v>
       </c>
-      <c r="E23" s="47" t="s">
+      <c r="E27" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="F23" s="48" t="str">
-        <f>IF(Regions!C$3&lt;&gt;"",Regions!C$3,"*")</f>
+      <c r="F27" s="48" t="str">
+        <f>IF([1]Regions!C$3&lt;&gt;"",[1]Regions!C$3,"*")</f>
         <v>IE</v>
       </c>
-      <c r="G23" s="48" t="str">
-        <f>IF(Regions!C$3&lt;&gt;"",Regions!D$3,"*")</f>
+      <c r="G27" s="48" t="str">
+        <f>IF([1]Regions!C$3&lt;&gt;"",[1]Regions!D$3,"*")</f>
         <v>National</v>
       </c>
-      <c r="H23" s="49" t="s">
+      <c r="H27" s="49" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D24" t="s">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D28" t="s">
         <v>217</v>
       </c>
-      <c r="E24">
+      <c r="E28">
         <v>2018</v>
       </c>
-      <c r="F24">
+      <c r="F28">
         <v>2222</v>
       </c>
-      <c r="G24">
-        <f>F24</f>
+      <c r="G28">
+        <f>F28</f>
         <v>2222</v>
       </c>
-      <c r="H24" t="str">
+      <c r="H28" t="str">
         <f xml:space="preserve"> _xlfn.TEXTJOIN(",",TRUE,F6:F10)</f>
         <v>SRVBIO,SRVBGS,SRVAHT,SRVAHT2,SRVHET*,SRVGAS</v>
       </c>
@@ -9539,12 +9930,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -9759,15 +10147,19 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{62402F5C-4915-4658-8F60-3A11655231DF}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BB3709B4-63F5-4DFC-B992-07B9DE433FAB}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -9792,10 +10184,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BB3709B4-63F5-4DFC-B992-07B9DE433FAB}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{62402F5C-4915-4658-8F60-3A11655231DF}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/SuppXLS/Scen_B_SYS_MaxGrowthRates_DHPlus.xlsx
+++ b/SuppXLS/Scen_B_SYS_MaxGrowthRates_DHPlus.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git_TIMES Models\Irish-TIMES-model\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2A1EE22-E90C-4E4F-B3BD-2D4E75727A61}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6972146A-D4EE-497F-B1B5-45666CDE9531}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{39DC52AD-7AD8-48BE-9D85-AA1C40791A2D}"/>
+    <workbookView xWindow="-60" yWindow="-16320" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{39DC52AD-7AD8-48BE-9D85-AA1C40791A2D}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="6" r:id="rId1"/>
@@ -1268,6 +1268,7 @@
     <xf numFmtId="0" fontId="3" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="15" fillId="7" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1280,7 +1281,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -2528,12 +2528,12 @@
       <c r="Z15" s="31"/>
     </row>
     <row r="16" spans="1:26" ht="102.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="51" t="s">
+      <c r="A16" s="52" t="s">
         <v>161</v>
       </c>
-      <c r="B16" s="51"/>
-      <c r="C16" s="51"/>
-      <c r="D16" s="51"/>
+      <c r="B16" s="52"/>
+      <c r="C16" s="52"/>
+      <c r="D16" s="52"/>
       <c r="E16" s="32"/>
       <c r="F16" s="32"/>
       <c r="G16" s="33"/>
@@ -2617,11 +2617,11 @@
       <c r="A19" s="37" t="s">
         <v>162</v>
       </c>
-      <c r="B19" s="50" t="s">
+      <c r="B19" s="51" t="s">
         <v>173</v>
       </c>
-      <c r="C19" s="50"/>
-      <c r="D19" s="50"/>
+      <c r="C19" s="51"/>
+      <c r="D19" s="51"/>
       <c r="E19" s="38"/>
       <c r="F19" s="38"/>
       <c r="G19" s="39"/>
@@ -2649,11 +2649,11 @@
       <c r="A20" s="37" t="s">
         <v>163</v>
       </c>
-      <c r="B20" s="50" t="s">
+      <c r="B20" s="51" t="s">
         <v>176</v>
       </c>
-      <c r="C20" s="50"/>
-      <c r="D20" s="50"/>
+      <c r="C20" s="51"/>
+      <c r="D20" s="51"/>
       <c r="E20" s="38"/>
       <c r="F20" s="38"/>
       <c r="G20" s="39"/>
@@ -2741,11 +2741,11 @@
       <c r="A23" s="37" t="s">
         <v>165</v>
       </c>
-      <c r="B23" s="50" t="s">
+      <c r="B23" s="51" t="s">
         <v>178</v>
       </c>
-      <c r="C23" s="50"/>
-      <c r="D23" s="50"/>
+      <c r="C23" s="51"/>
+      <c r="D23" s="51"/>
       <c r="E23" s="31"/>
       <c r="F23" s="31"/>
       <c r="G23" s="31"/>
@@ -2771,11 +2771,11 @@
     </row>
     <row r="24" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="37"/>
-      <c r="B24" s="50" t="s">
+      <c r="B24" s="51" t="s">
         <v>174</v>
       </c>
-      <c r="C24" s="50"/>
-      <c r="D24" s="50"/>
+      <c r="C24" s="51"/>
+      <c r="D24" s="51"/>
       <c r="E24" s="31"/>
       <c r="F24" s="31"/>
       <c r="G24" s="31"/>
@@ -2833,11 +2833,11 @@
       <c r="A26" s="37" t="s">
         <v>166</v>
       </c>
-      <c r="B26" s="50" t="s">
+      <c r="B26" s="51" t="s">
         <v>175</v>
       </c>
-      <c r="C26" s="50"/>
-      <c r="D26" s="50"/>
+      <c r="C26" s="51"/>
+      <c r="D26" s="51"/>
       <c r="E26" s="31"/>
       <c r="F26" s="31"/>
       <c r="G26" s="31"/>
@@ -2953,11 +2953,11 @@
       <c r="A30" s="37" t="s">
         <v>168</v>
       </c>
-      <c r="B30" s="52" t="s">
+      <c r="B30" s="53" t="s">
         <v>169</v>
       </c>
-      <c r="C30" s="50"/>
-      <c r="D30" s="50"/>
+      <c r="C30" s="51"/>
+      <c r="D30" s="51"/>
       <c r="E30" s="42"/>
       <c r="F30" s="42"/>
       <c r="G30" s="31"/>
@@ -2985,11 +2985,11 @@
       <c r="A31" s="37" t="s">
         <v>170</v>
       </c>
-      <c r="B31" s="50" t="s">
+      <c r="B31" s="51" t="s">
         <v>171</v>
       </c>
-      <c r="C31" s="50"/>
-      <c r="D31" s="50"/>
+      <c r="C31" s="51"/>
+      <c r="D31" s="51"/>
       <c r="E31" s="42"/>
       <c r="F31" s="42"/>
       <c r="G31" s="31"/>
@@ -7606,7 +7606,7 @@
   <dimension ref="A2:N28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7860,7 +7860,8 @@
         <v>15</v>
       </c>
       <c r="J9" s="29">
-        <v>1.1000000000000001</v>
+        <f>1+C20</f>
+        <v>1.2</v>
       </c>
       <c r="K9" s="2">
         <v>1</v>
@@ -8105,7 +8106,7 @@
       <c r="B17" t="s">
         <v>137</v>
       </c>
-      <c r="C17" s="54">
+      <c r="C17" s="50">
         <v>0.02</v>
       </c>
       <c r="D17">
@@ -8119,7 +8120,7 @@
       <c r="B18" t="s">
         <v>138</v>
       </c>
-      <c r="C18" s="54">
+      <c r="C18" s="50">
         <v>0.02</v>
       </c>
       <c r="D18">
@@ -8133,7 +8134,7 @@
       <c r="B19" t="s">
         <v>190</v>
       </c>
-      <c r="C19" s="54">
+      <c r="C19" s="50">
         <v>0.08</v>
       </c>
       <c r="D19">
@@ -8147,8 +8148,8 @@
       <c r="B20" t="s">
         <v>191</v>
       </c>
-      <c r="C20" s="54">
-        <v>0.1</v>
+      <c r="C20" s="50">
+        <v>0.2</v>
       </c>
       <c r="D20">
         <v>0.3</v>
@@ -8161,7 +8162,7 @@
       <c r="B21" t="s">
         <v>192</v>
       </c>
-      <c r="C21" s="54">
+      <c r="C21" s="50">
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="D21">
@@ -8175,7 +8176,7 @@
       <c r="B22" t="s">
         <v>199</v>
       </c>
-      <c r="C22" s="54">
+      <c r="C22" s="50">
         <v>0.08</v>
       </c>
       <c r="D22">
@@ -8189,7 +8190,7 @@
       <c r="B23" t="s">
         <v>203</v>
       </c>
-      <c r="C23" s="54">
+      <c r="C23" s="50">
         <v>0.15</v>
       </c>
       <c r="D23">
@@ -8203,7 +8204,7 @@
       <c r="B24" t="s">
         <v>201</v>
       </c>
-      <c r="C24" s="54">
+      <c r="C24" s="50">
         <v>0.04</v>
       </c>
       <c r="D24">
@@ -9199,7 +9200,7 @@
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A30" s="53" t="s">
+      <c r="A30" s="54" t="s">
         <v>27</v>
       </c>
       <c r="B30" t="s">
@@ -9229,7 +9230,7 @@
       </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A31" s="53"/>
+      <c r="A31" s="54"/>
       <c r="B31" t="s">
         <v>25</v>
       </c>
@@ -9257,7 +9258,7 @@
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A32" s="53"/>
+      <c r="A32" s="54"/>
       <c r="B32" t="s">
         <v>24</v>
       </c>
@@ -9285,7 +9286,7 @@
       </c>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A33" s="53"/>
+      <c r="A33" s="54"/>
       <c r="B33" t="s">
         <v>23</v>
       </c>
@@ -9313,7 +9314,7 @@
       </c>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A34" s="53"/>
+      <c r="A34" s="54"/>
       <c r="B34" t="s">
         <v>22</v>
       </c>
@@ -9341,7 +9342,7 @@
       </c>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A35" s="53"/>
+      <c r="A35" s="54"/>
       <c r="B35" t="s">
         <v>21</v>
       </c>

--- a/SuppXLS/Scen_B_SYS_MaxGrowthRates_DHPlus.xlsx
+++ b/SuppXLS/Scen_B_SYS_MaxGrowthRates_DHPlus.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git_TIMES Models\Irish-TIMES-model\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6972146A-D4EE-497F-B1B5-45666CDE9531}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37213EB6-E917-49B3-8399-094E2B0CE11C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-60" yWindow="-16320" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{39DC52AD-7AD8-48BE-9D85-AA1C40791A2D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{39DC52AD-7AD8-48BE-9D85-AA1C40791A2D}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="6" r:id="rId1"/>
@@ -174,7 +174,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="526" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="518" uniqueCount="229">
   <si>
     <t>~UC_Sets: T_E:</t>
   </si>
@@ -860,9 +860,6 @@
   </si>
   <si>
     <t>RSDHET*</t>
-  </si>
-  <si>
-    <t>SRVHET*</t>
   </si>
   <si>
     <t>SRVELC</t>
@@ -6258,7 +6255,7 @@
         <v>13</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E12">
         <v>2018</v>
@@ -6294,7 +6291,7 @@
         <v>13</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E13">
         <v>2018</v>
@@ -6418,7 +6415,7 @@
         <v>128</v>
       </c>
       <c r="B22" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C22" s="11">
         <v>0.02</v>
@@ -6432,7 +6429,7 @@
         <v>128</v>
       </c>
       <c r="B23" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C23" s="11">
         <v>0.02</v>
@@ -6581,10 +6578,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9933FEB4-63EA-406B-A848-C3344FC12632}">
-  <dimension ref="A2:N41"/>
+  <dimension ref="A2:N40"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6697,7 +6694,7 @@
     </row>
     <row r="6" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="str">
-        <f>_xlfn.TEXTJOIN("_",TRUE,"UC",A25,"MaxGrowth",B25)</f>
+        <f>_xlfn.TEXTJOIN("_",TRUE,"UC",A24,"MaxGrowth",B24)</f>
         <v>UC_RSD_MaxGrowth_AmbientHeat</v>
       </c>
       <c r="C6" s="2" t="s">
@@ -6717,27 +6714,27 @@
         <v>15</v>
       </c>
       <c r="J6" s="29">
-        <f>1+C26</f>
+        <f>1+C25</f>
         <v>1.02</v>
       </c>
       <c r="K6" s="2">
         <v>1</v>
       </c>
       <c r="L6" s="16">
-        <f>-D26</f>
+        <f>-D25</f>
         <v>0</v>
       </c>
       <c r="M6" s="2">
         <v>5</v>
       </c>
       <c r="N6" s="2" t="str">
-        <f>_xlfn.TEXTJOIN(" ",TRUE,A26, "maximum growth rate of",B26)</f>
+        <f>_xlfn.TEXTJOIN(" ",TRUE,A25, "maximum growth rate of",B25)</f>
         <v>RSD maximum growth rate of Biodiesel</v>
       </c>
     </row>
     <row r="7" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B7" s="2" t="str">
-        <f>_xlfn.TEXTJOIN("_",TRUE,"UC",A26,"MaxGrowth",B26)</f>
+        <f>_xlfn.TEXTJOIN("_",TRUE,"UC",A25,"MaxGrowth",B25)</f>
         <v>UC_RSD_MaxGrowth_Biodiesel</v>
       </c>
       <c r="C7" s="2" t="s">
@@ -6757,27 +6754,27 @@
         <v>15</v>
       </c>
       <c r="J7" s="29">
-        <f>1+C26</f>
+        <f>1+C25</f>
         <v>1.02</v>
       </c>
       <c r="K7" s="2">
         <v>1</v>
       </c>
       <c r="L7" s="16">
-        <f>-D27</f>
+        <f>-D26</f>
         <v>0</v>
       </c>
       <c r="M7" s="2">
         <v>5</v>
       </c>
       <c r="N7" s="2" t="str">
-        <f>_xlfn.TEXTJOIN(" ",TRUE,A27, "maximum growth rate of",B27)</f>
+        <f>_xlfn.TEXTJOIN(" ",TRUE,A26, "maximum growth rate of",B26)</f>
         <v>RSD maximum growth rate of Biomass</v>
       </c>
     </row>
     <row r="8" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B8" s="2" t="str">
-        <f>_xlfn.TEXTJOIN("_",TRUE,"UC",A27,"MaxGrowth",B27)</f>
+        <f>_xlfn.TEXTJOIN("_",TRUE,"UC",A26,"MaxGrowth",B26)</f>
         <v>UC_RSD_MaxGrowth_Biomass</v>
       </c>
       <c r="C8" s="2" t="s">
@@ -6797,27 +6794,27 @@
         <v>15</v>
       </c>
       <c r="J8" s="29">
-        <f>1+C27</f>
+        <f>1+C26</f>
         <v>1.02</v>
       </c>
       <c r="K8" s="2">
         <v>1</v>
       </c>
       <c r="L8" s="16">
-        <f>-D27</f>
+        <f>-D26</f>
         <v>0</v>
       </c>
       <c r="M8" s="2">
         <v>5</v>
       </c>
       <c r="N8" s="2" t="str">
-        <f>_xlfn.TEXTJOIN(" ",TRUE,A27, "maximum growth rate of",B27)</f>
+        <f>_xlfn.TEXTJOIN(" ",TRUE,A26, "maximum growth rate of",B26)</f>
         <v>RSD maximum growth rate of Biomass</v>
       </c>
     </row>
     <row r="9" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B9" s="2" t="str">
-        <f>_xlfn.TEXTJOIN("_",TRUE,"UC",A28,"MaxGrowth",B28)</f>
+        <f>_xlfn.TEXTJOIN("_",TRUE,"UC",A27,"MaxGrowth",B27)</f>
         <v>UC_RSD_MaxGrowth_Coal</v>
       </c>
       <c r="C9" s="2" t="s">
@@ -6837,27 +6834,27 @@
         <v>15</v>
       </c>
       <c r="J9" s="29">
-        <f>1+C28</f>
+        <f>1+C27</f>
         <v>1.1000000000000001</v>
       </c>
       <c r="K9" s="2">
         <v>1</v>
       </c>
       <c r="L9" s="16">
-        <f>-D28</f>
+        <f>-D27</f>
         <v>-0.1</v>
       </c>
       <c r="M9" s="2">
         <v>5</v>
       </c>
       <c r="N9" s="2" t="str">
-        <f>_xlfn.TEXTJOIN(" ",TRUE,A28, "maximum growth rate of",B28)</f>
+        <f>_xlfn.TEXTJOIN(" ",TRUE,A27, "maximum growth rate of",B27)</f>
         <v>RSD maximum growth rate of Coal</v>
       </c>
     </row>
     <row r="10" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B10" s="2" t="str">
-        <f>_xlfn.TEXTJOIN("_",TRUE,"UC",A28,"MaxGrowth",B28)</f>
+        <f>_xlfn.TEXTJOIN("_",TRUE,"UC",A27,"MaxGrowth",B27)</f>
         <v>UC_RSD_MaxGrowth_Coal</v>
       </c>
       <c r="C10" s="2" t="s">
@@ -6877,27 +6874,27 @@
         <v>185</v>
       </c>
       <c r="J10" s="29">
-        <f>1-C28*2</f>
+        <f>1-C27*2</f>
         <v>0.8</v>
       </c>
       <c r="K10" s="2">
         <v>1</v>
       </c>
       <c r="L10" s="16">
-        <f>-D29</f>
+        <f>-D28</f>
         <v>-0.1</v>
       </c>
       <c r="M10" s="2">
         <v>5</v>
       </c>
       <c r="N10" s="2" t="str">
-        <f>_xlfn.TEXTJOIN(" ",TRUE,A29, "maximum degrowth rate of",B28)</f>
+        <f>_xlfn.TEXTJOIN(" ",TRUE,A28, "maximum degrowth rate of",B27)</f>
         <v>RSD maximum degrowth rate of Coal</v>
       </c>
     </row>
     <row r="11" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B11" s="2" t="str">
-        <f>_xlfn.TEXTJOIN("_",TRUE,"UC",A29,"MaxGrowth",B29)</f>
+        <f>_xlfn.TEXTJOIN("_",TRUE,"UC",A28,"MaxGrowth",B28)</f>
         <v>UC_RSD_MaxGrowth_Peat</v>
       </c>
       <c r="C11" s="2" t="s">
@@ -6917,27 +6914,27 @@
         <v>15</v>
       </c>
       <c r="J11" s="29">
-        <f>1+C29</f>
+        <f>1+C28</f>
         <v>1.1000000000000001</v>
       </c>
       <c r="K11" s="2">
         <v>1</v>
       </c>
       <c r="L11" s="16">
-        <f>-D29</f>
+        <f>-D28</f>
         <v>-0.1</v>
       </c>
       <c r="M11" s="2">
         <v>5</v>
       </c>
       <c r="N11" s="2" t="str">
-        <f>_xlfn.TEXTJOIN(" ",TRUE,A29, "maximum growth rate of",B29)</f>
+        <f>_xlfn.TEXTJOIN(" ",TRUE,A28, "maximum growth rate of",B28)</f>
         <v>RSD maximum growth rate of Peat</v>
       </c>
     </row>
     <row r="12" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B12" s="2" t="str">
-        <f>_xlfn.TEXTJOIN("_",TRUE,"UC",A30,"MaxGrowth",B29)</f>
+        <f>_xlfn.TEXTJOIN("_",TRUE,"UC",A29,"MaxGrowth",B28)</f>
         <v>UC_RSD_MaxGrowth_Peat</v>
       </c>
       <c r="C12" s="2" t="s">
@@ -6957,27 +6954,27 @@
         <v>185</v>
       </c>
       <c r="J12" s="29">
-        <f>1-C29*2</f>
+        <f>1-C28*2</f>
         <v>0.8</v>
       </c>
       <c r="K12" s="2">
         <v>1</v>
       </c>
       <c r="L12" s="16">
-        <f>-D30</f>
+        <f>-D29</f>
         <v>-0.1</v>
       </c>
       <c r="M12" s="2">
         <v>5</v>
       </c>
       <c r="N12" s="2" t="str">
-        <f>_xlfn.TEXTJOIN(" ",TRUE,A30, "maximum degrowth rate of",B29)</f>
+        <f>_xlfn.TEXTJOIN(" ",TRUE,A29, "maximum degrowth rate of",B28)</f>
         <v>RSD maximum degrowth rate of Peat</v>
       </c>
     </row>
     <row r="13" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B13" s="2" t="str">
-        <f>_xlfn.TEXTJOIN("_",TRUE,"UC",A30,"MaxGrowth",B30)</f>
+        <f>_xlfn.TEXTJOIN("_",TRUE,"UC",A29,"MaxGrowth",B29)</f>
         <v>UC_RSD_MaxGrowth_Electricity</v>
       </c>
       <c r="C13" s="2" t="s">
@@ -6997,27 +6994,27 @@
         <v>15</v>
       </c>
       <c r="J13" s="29">
-        <f>1+C30</f>
+        <f>1+C29</f>
         <v>1.08</v>
       </c>
       <c r="K13" s="2">
         <v>1</v>
       </c>
       <c r="L13" s="16">
-        <f>-D30</f>
+        <f>-D29</f>
         <v>-0.1</v>
       </c>
       <c r="M13" s="2">
         <v>5</v>
       </c>
       <c r="N13" s="2" t="str">
-        <f>_xlfn.TEXTJOIN(" ",TRUE,A30, "maximum growth rate of",B30)</f>
+        <f>_xlfn.TEXTJOIN(" ",TRUE,A29, "maximum growth rate of",B29)</f>
         <v>RSD maximum growth rate of Electricity</v>
       </c>
     </row>
     <row r="14" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B14" s="2" t="str">
-        <f>_xlfn.TEXTJOIN("_",TRUE,"UC",A31,"MaxGrowth",B31)</f>
+        <f>_xlfn.TEXTJOIN("_",TRUE,"UC",A30,"MaxGrowth",B30)</f>
         <v>UC_RSD_MaxGrowth_Ethanol</v>
       </c>
       <c r="C14" s="2" t="s">
@@ -7037,27 +7034,27 @@
         <v>15</v>
       </c>
       <c r="J14" s="29">
-        <f>1+C31</f>
+        <f>1+C30</f>
         <v>1.1000000000000001</v>
       </c>
       <c r="K14" s="2">
         <v>1</v>
       </c>
       <c r="L14" s="16">
-        <f>-D31</f>
+        <f>-D30</f>
         <v>0</v>
       </c>
       <c r="M14" s="2">
         <v>5</v>
       </c>
       <c r="N14" s="2" t="str">
-        <f>_xlfn.TEXTJOIN(" ",TRUE,A31, "maximum growth rate of",B31)</f>
+        <f>_xlfn.TEXTJOIN(" ",TRUE,A30, "maximum growth rate of",B30)</f>
         <v>RSD maximum growth rate of Ethanol</v>
       </c>
     </row>
     <row r="15" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B15" s="2" t="str">
-        <f>_xlfn.TEXTJOIN("_",TRUE,"UC",A32,"MaxGrowth",B32)</f>
+        <f>_xlfn.TEXTJOIN("_",TRUE,"UC",A31,"MaxGrowth",B31)</f>
         <v>UC_RSD_MaxGrowth_Gas</v>
       </c>
       <c r="C15" s="2" t="s">
@@ -7077,28 +7074,28 @@
         <v>15</v>
       </c>
       <c r="J15" s="29">
-        <f>1+C32</f>
+        <f>1+C31</f>
         <v>1.02</v>
       </c>
       <c r="K15" s="2">
         <v>1</v>
       </c>
       <c r="L15" s="16">
-        <f>-D32</f>
+        <f>-D31</f>
         <v>-0.1</v>
       </c>
       <c r="M15" s="2">
         <v>5</v>
       </c>
       <c r="N15" s="2" t="str">
-        <f>_xlfn.TEXTJOIN(" ",TRUE,A32, "maximum growth rate of",B32)</f>
+        <f>_xlfn.TEXTJOIN(" ",TRUE,A31, "maximum growth rate of",B31)</f>
         <v>RSD maximum growth rate of Gas</v>
       </c>
     </row>
     <row r="16" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B16" s="2" t="str">
-        <f>_xlfn.TEXTJOIN("_",TRUE,"UC",A33,"MaxGrowth",B33)</f>
-        <v>UC_RSD_MaxGrowth_DistrictHeat</v>
+        <f>_xlfn.TEXTJOIN("_",TRUE,"UC",A32,"MinGrowth",B32)</f>
+        <v>UC_RSD_MinGrowth_DistrictHeat</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>144</v>
@@ -7114,38 +7111,38 @@
         <v>2021</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>15</v>
+        <v>185</v>
       </c>
       <c r="J16" s="29">
-        <f>1+C33</f>
-        <v>1.2</v>
+        <f>1+C32</f>
+        <v>1.06</v>
       </c>
       <c r="K16" s="2">
         <v>1</v>
       </c>
       <c r="L16" s="16">
         <f>-D33</f>
-        <v>-0.3</v>
+        <v>-0.1</v>
       </c>
       <c r="M16" s="2">
         <v>5</v>
       </c>
       <c r="N16" s="2" t="str">
-        <f>_xlfn.TEXTJOIN(" ",TRUE,A33, "maximum growth rate of",B33)</f>
-        <v>RSD maximum growth rate of DistrictHeat</v>
+        <f>_xlfn.TEXTJOIN(" ",TRUE,A32, "minimum growth rate of",B32)</f>
+        <v>RSD minimum growth rate of DistrictHeat</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B17" s="2" t="str">
-        <f>_xlfn.TEXTJOIN("_",TRUE,"UC",A33,"MinGrowth",B33)</f>
-        <v>UC_RSD_MinGrowth_DistrictHeat</v>
+        <f t="shared" ref="B17:B18" si="0">_xlfn.TEXTJOIN("_",TRUE,"UC",A33,"MaxGrowth",B33)</f>
+        <v>UC_RSD_MaxGrowth_LPG</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>144</v>
       </c>
       <c r="D17" s="2"/>
       <c r="F17" t="s">
-        <v>221</v>
+        <v>210</v>
       </c>
       <c r="G17" s="2" t="s">
         <v>142</v>
@@ -7154,38 +7151,38 @@
         <v>2021</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>185</v>
+        <v>15</v>
       </c>
       <c r="J17" s="29">
-        <f>1+C33/2</f>
-        <v>1.1000000000000001</v>
+        <f t="shared" ref="J17:J18" si="1">1+C33</f>
+        <v>1.04</v>
       </c>
       <c r="K17" s="2">
         <v>1</v>
       </c>
       <c r="L17" s="16">
-        <f>-D34</f>
+        <f t="shared" ref="L17:L18" si="2">-D33</f>
         <v>-0.1</v>
       </c>
       <c r="M17" s="2">
         <v>5</v>
       </c>
       <c r="N17" s="2" t="str">
-        <f>_xlfn.TEXTJOIN(" ",TRUE,A33, "minimum growth rate of",B33)</f>
-        <v>RSD minimum growth rate of DistrictHeat</v>
+        <f t="shared" ref="N17:N18" si="3">_xlfn.TEXTJOIN(" ",TRUE,A33, "maximum growth rate of",B33)</f>
+        <v>RSD maximum growth rate of LPG</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B18" s="2" t="str">
-        <f t="shared" ref="B18:B19" si="0">_xlfn.TEXTJOIN("_",TRUE,"UC",A34,"MaxGrowth",B34)</f>
-        <v>UC_RSD_MaxGrowth_LPG</v>
+        <f t="shared" si="0"/>
+        <v>UC_RSD_MaxGrowth_Kerosene</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>144</v>
       </c>
       <c r="D18" s="2"/>
       <c r="F18" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="G18" s="2" t="s">
         <v>142</v>
@@ -7197,28 +7194,28 @@
         <v>15</v>
       </c>
       <c r="J18" s="29">
-        <f t="shared" ref="J18:J19" si="1">1+C34</f>
-        <v>1.04</v>
+        <f t="shared" si="1"/>
+        <v>1.08</v>
       </c>
       <c r="K18" s="2">
         <v>1</v>
       </c>
       <c r="L18" s="16">
-        <f t="shared" ref="L18:L19" si="2">-D34</f>
+        <f t="shared" si="2"/>
         <v>-0.1</v>
       </c>
       <c r="M18" s="2">
         <v>5</v>
       </c>
       <c r="N18" s="2" t="str">
-        <f t="shared" ref="N18:N19" si="3">_xlfn.TEXTJOIN(" ",TRUE,A34, "maximum growth rate of",B34)</f>
-        <v>RSD maximum growth rate of LPG</v>
+        <f t="shared" si="3"/>
+        <v>RSD maximum growth rate of Kerosene</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B19" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>UC_RSD_MaxGrowth_Kerosene</v>
+        <f>_xlfn.TEXTJOIN("_",TRUE,"UC",A34,"MaxDegrowth",B34)</f>
+        <v>UC_RSD_MaxDegrowth_Kerosene</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>144</v>
@@ -7234,38 +7231,38 @@
         <v>2021</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>15</v>
+        <v>185</v>
       </c>
       <c r="J19" s="29">
-        <f t="shared" si="1"/>
-        <v>1.08</v>
+        <f>1-C34*2</f>
+        <v>0.84</v>
       </c>
       <c r="K19" s="2">
         <v>1</v>
       </c>
       <c r="L19" s="16">
-        <f t="shared" si="2"/>
+        <f>-D34</f>
         <v>-0.1</v>
       </c>
       <c r="M19" s="2">
         <v>5</v>
       </c>
       <c r="N19" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>RSD maximum growth rate of Kerosene</v>
+        <f>_xlfn.TEXTJOIN(" ",TRUE,A34, "maximum degrowth rate of",B34)</f>
+        <v>RSD maximum degrowth rate of Kerosene</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B20" s="2" t="str">
-        <f>_xlfn.TEXTJOIN("_",TRUE,"UC",A35,"MaxDegrowth",B35)</f>
-        <v>UC_RSD_MaxDegrowth_Kerosene</v>
+        <f>_xlfn.TEXTJOIN("_",TRUE,"UC",A35,"MaxGrowth",B35)</f>
+        <v>UC_RSD_MaxGrowth_Solar</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>144</v>
       </c>
       <c r="D20" s="2"/>
       <c r="F20" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="G20" s="2" t="s">
         <v>142</v>
@@ -7274,31 +7271,31 @@
         <v>2021</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>185</v>
+        <v>15</v>
       </c>
       <c r="J20" s="29">
-        <f>1-C35*2</f>
-        <v>0.84</v>
+        <f>1+C35</f>
+        <v>1.1499999999999999</v>
       </c>
       <c r="K20" s="2">
         <v>1</v>
       </c>
       <c r="L20" s="16">
         <f>-D35</f>
-        <v>-0.1</v>
+        <v>-0.2</v>
       </c>
       <c r="M20" s="2">
         <v>5</v>
       </c>
       <c r="N20" s="2" t="str">
-        <f>_xlfn.TEXTJOIN(" ",TRUE,A35, "maximum degrowth rate of",B35)</f>
-        <v>RSD maximum degrowth rate of Kerosene</v>
+        <f>_xlfn.TEXTJOIN(" ",TRUE,A35, "maximum growth rate of",B35)</f>
+        <v>RSD maximum growth rate of Solar</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B21" s="2" t="str">
-        <f>_xlfn.TEXTJOIN("_",TRUE,"UC",A36,"MaxGrowth",B36)</f>
-        <v>UC_RSD_MaxGrowth_Solar</v>
+        <f>_xlfn.TEXTJOIN("_",TRUE,"UC",A35,"MinGrowth",B35)</f>
+        <v>UC_RSD_MinGrowth_Solar</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>144</v>
@@ -7314,73 +7311,41 @@
         <v>2021</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>15</v>
+        <v>185</v>
       </c>
       <c r="J21" s="29">
-        <f>1+C36</f>
-        <v>1.1499999999999999</v>
+        <f>1+C35/10</f>
+        <v>1.0149999999999999</v>
       </c>
       <c r="K21" s="2">
         <v>1</v>
       </c>
       <c r="L21" s="16">
-        <f>-D36</f>
+        <f>-D35</f>
         <v>-0.2</v>
       </c>
       <c r="M21" s="2">
         <v>5</v>
       </c>
       <c r="N21" s="2" t="str">
-        <f>_xlfn.TEXTJOIN(" ",TRUE,A36, "maximum growth rate of",B36)</f>
-        <v>RSD maximum growth rate of Solar</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B22" s="2" t="str">
-        <f>_xlfn.TEXTJOIN("_",TRUE,"UC",A36,"MinGrowth",B36)</f>
-        <v>UC_RSD_MinGrowth_Solar</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="D22" s="2"/>
-      <c r="F22" t="s">
-        <v>212</v>
-      </c>
-      <c r="G22" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="H22" s="2">
-        <v>2021</v>
-      </c>
-      <c r="I22" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="J22" s="29">
-        <f>1+C36/10</f>
-        <v>1.0149999999999999</v>
-      </c>
-      <c r="K22" s="2">
-        <v>1</v>
-      </c>
-      <c r="L22" s="16">
-        <f>-D36</f>
-        <v>-0.2</v>
-      </c>
-      <c r="M22" s="2">
-        <v>5</v>
-      </c>
-      <c r="N22" s="2" t="str">
-        <f>_xlfn.TEXTJOIN(" ",TRUE,A36, "minimum growth rate of",B36)</f>
+        <f>_xlfn.TEXTJOIN(" ",TRUE,A35, "minimum growth rate of",B35)</f>
         <v>RSD minimum growth rate of Solar</v>
       </c>
     </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="C23" t="s">
+        <v>117</v>
+      </c>
+      <c r="D23" t="s">
+        <v>189</v>
+      </c>
+    </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="C24" t="s">
-        <v>117</v>
-      </c>
-      <c r="D24" t="s">
-        <v>189</v>
+      <c r="A24" t="s">
+        <v>194</v>
+      </c>
+      <c r="B24" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
@@ -7388,7 +7353,13 @@
         <v>194</v>
       </c>
       <c r="B25" t="s">
-        <v>190</v>
+        <v>196</v>
+      </c>
+      <c r="C25" s="11">
+        <v>0.02</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
@@ -7396,7 +7367,7 @@
         <v>194</v>
       </c>
       <c r="B26" t="s">
-        <v>196</v>
+        <v>137</v>
       </c>
       <c r="C26" s="11">
         <v>0.02</v>
@@ -7410,13 +7381,13 @@
         <v>194</v>
       </c>
       <c r="B27" t="s">
-        <v>137</v>
+        <v>197</v>
       </c>
       <c r="C27" s="11">
-        <v>0.02</v>
+        <v>0.1</v>
       </c>
       <c r="D27">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
@@ -7424,7 +7395,7 @@
         <v>194</v>
       </c>
       <c r="B28" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C28" s="11">
         <v>0.1</v>
@@ -7438,10 +7409,10 @@
         <v>194</v>
       </c>
       <c r="B29" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C29" s="11">
-        <v>0.1</v>
+        <v>0.08</v>
       </c>
       <c r="D29">
         <v>0.1</v>
@@ -7452,13 +7423,13 @@
         <v>194</v>
       </c>
       <c r="B30" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C30" s="11">
-        <v>0.08</v>
+        <v>0.1</v>
       </c>
       <c r="D30">
-        <v>0.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
@@ -7466,13 +7437,13 @@
         <v>194</v>
       </c>
       <c r="B31" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="C31" s="11">
+        <v>0.02</v>
+      </c>
+      <c r="D31">
         <v>0.1</v>
-      </c>
-      <c r="D31">
-        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
@@ -7480,13 +7451,13 @@
         <v>194</v>
       </c>
       <c r="B32" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C32" s="11">
-        <v>0.02</v>
+        <v>0.06</v>
       </c>
       <c r="D32">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
@@ -7494,13 +7465,13 @@
         <v>194</v>
       </c>
       <c r="B33" t="s">
-        <v>191</v>
+        <v>201</v>
       </c>
       <c r="C33" s="11">
-        <v>0.2</v>
+        <v>0.04</v>
       </c>
       <c r="D33">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
@@ -7508,10 +7479,10 @@
         <v>194</v>
       </c>
       <c r="B34" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C34" s="11">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="D34">
         <v>0.1</v>
@@ -7522,77 +7493,63 @@
         <v>194</v>
       </c>
       <c r="B35" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C35" s="11">
-        <v>0.08</v>
+        <v>0.15</v>
       </c>
       <c r="D35">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>194</v>
-      </c>
-      <c r="B36" t="s">
-        <v>203</v>
-      </c>
-      <c r="C36" s="11">
-        <v>0.15</v>
-      </c>
-      <c r="D36">
         <v>0.2</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B39" s="45" t="s">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B38" s="45" t="s">
         <v>213</v>
       </c>
-      <c r="H39" s="46"/>
-    </row>
-    <row r="40" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="47" t="s">
+      <c r="H38" s="46"/>
+    </row>
+    <row r="39" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B39" s="47" t="s">
         <v>214</v>
       </c>
-      <c r="C40" s="47" t="s">
+      <c r="C39" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="D40" s="47" t="s">
+      <c r="D39" s="47" t="s">
         <v>215</v>
       </c>
-      <c r="E40" s="47" t="s">
+      <c r="E39" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="F40" s="48" t="str">
+      <c r="F39" s="48" t="str">
         <f>IF([1]Regions!C$3&lt;&gt;"",[1]Regions!C$3,"*")</f>
         <v>IE</v>
       </c>
-      <c r="G40" s="48" t="str">
+      <c r="G39" s="48" t="str">
         <f>IF([1]Regions!C$3&lt;&gt;"",[1]Regions!D$3,"*")</f>
         <v>National</v>
       </c>
-      <c r="H40" s="49" t="s">
+      <c r="H39" s="49" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D41" t="s">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D40" t="s">
         <v>217</v>
       </c>
-      <c r="E41">
+      <c r="E40">
         <v>2018</v>
       </c>
-      <c r="F41">
+      <c r="F40">
         <v>2222</v>
       </c>
-      <c r="G41">
-        <f>F41</f>
+      <c r="G40">
+        <f>F40</f>
         <v>2222</v>
       </c>
-      <c r="H41" t="str">
-        <f xml:space="preserve"> _xlfn.TEXTJOIN(",",TRUE,F6:F22)</f>
-        <v>RSDAHT,RSDAHT2,RSDBDL,RSDWOO,RSDCOA,RSDCOA,RSDPEA,RSDPEA,RSDELC,RSDETH,RSDGAS,RSDHET*,RSDHET*,RSDLPG,RSDKER,RSDKER,RSDSOL,RSDSOL</v>
+      <c r="H40" t="str">
+        <f xml:space="preserve"> _xlfn.TEXTJOIN(",",TRUE,F6:F21)</f>
+        <v>RSDAHT,RSDAHT2,RSDBDL,RSDWOO,RSDCOA,RSDCOA,RSDPEA,RSDPEA,RSDELC,RSDETH,RSDGAS,RSDHET*,RSDLPG,RSDKER,RSDKER,RSDSOL,RSDSOL</v>
       </c>
     </row>
   </sheetData>
@@ -7603,10 +7560,10 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F5F46D0-BFBE-459D-AD94-C3EBC85EC70F}">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A2:N28"/>
+  <dimension ref="A2:N27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9:XFD9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7625,7 +7582,7 @@
     <col min="14" max="14" width="40" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="str">
         <f>"~UC_Sets: R_E: " &amp; _xlfn.TEXTJOIN(",",TRUE,[1]Regions!C3:D3)</f>
         <v>~UC_Sets: R_E: IE,National</v>
@@ -7643,7 +7600,7 @@
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
     </row>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
@@ -7660,7 +7617,7 @@
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
     </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
@@ -7677,7 +7634,7 @@
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
     </row>
-    <row r="5" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B5" s="4" t="s">
         <v>1</v>
       </c>
@@ -7718,9 +7675,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="str">
-        <f t="shared" ref="B6:B11" si="0">_xlfn.TEXTJOIN("_",TRUE,"UC",A17,"MaxGrowth",B17)</f>
+        <f>_xlfn.TEXTJOIN("_",TRUE,"UC",A16,"MaxGrowth",B16)</f>
         <v>UC_SRV_MaxGrowth_Biomass</v>
       </c>
       <c r="C6" s="2" t="s">
@@ -7740,27 +7697,27 @@
         <v>15</v>
       </c>
       <c r="J6" s="29">
-        <f>1+C17</f>
+        <f>1+C16</f>
         <v>1.02</v>
       </c>
       <c r="K6" s="2">
         <v>1</v>
       </c>
       <c r="L6" s="16">
-        <f t="shared" ref="L6:L11" si="1">-D17</f>
+        <f>-D16</f>
         <v>-0.1</v>
       </c>
       <c r="M6" s="2">
         <v>5</v>
       </c>
       <c r="N6" s="2" t="str">
-        <f t="shared" ref="N6:N11" si="2">_xlfn.TEXTJOIN(" ",TRUE,A17, "maximum growth rate of",B17)</f>
+        <f>_xlfn.TEXTJOIN(" ",TRUE,A16, "maximum growth rate of",B16)</f>
         <v>SRV maximum growth rate of Biomass</v>
       </c>
     </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B7" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.TEXTJOIN("_",TRUE,"UC",A17,"MaxGrowth",B17)</f>
         <v>UC_SRV_MaxGrowth_Biogas</v>
       </c>
       <c r="C7" s="2" t="s">
@@ -7780,27 +7737,27 @@
         <v>15</v>
       </c>
       <c r="J7" s="29">
-        <f>1+C18</f>
+        <f>1+C17</f>
         <v>1.02</v>
       </c>
       <c r="K7" s="2">
         <v>1</v>
       </c>
       <c r="L7" s="16">
-        <f t="shared" si="1"/>
+        <f>-D17</f>
         <v>-0.1</v>
       </c>
       <c r="M7" s="2">
         <v>5</v>
       </c>
       <c r="N7" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f>_xlfn.TEXTJOIN(" ",TRUE,A17, "maximum growth rate of",B17)</f>
         <v>SRV maximum growth rate of Biogas</v>
       </c>
     </row>
-    <row r="8" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B8" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.TEXTJOIN("_",TRUE,"UC",A18,"MaxGrowth",B18)</f>
         <v>UC_SRV_MaxGrowth_AmbientHeat</v>
       </c>
       <c r="C8" s="2" t="s">
@@ -7820,35 +7777,35 @@
         <v>15</v>
       </c>
       <c r="J8" s="29">
-        <f>1+C19</f>
+        <f>1+C18</f>
         <v>1.08</v>
       </c>
       <c r="K8" s="2">
         <v>1</v>
       </c>
       <c r="L8" s="16">
-        <f t="shared" si="1"/>
+        <f>-D18</f>
         <v>-0.3</v>
       </c>
       <c r="M8" s="2">
         <v>5</v>
       </c>
       <c r="N8" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f>_xlfn.TEXTJOIN(" ",TRUE,A18, "maximum growth rate of",B18)</f>
         <v>SRV maximum growth rate of AmbientHeat</v>
       </c>
     </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B9" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>UC_SRV_MaxGrowth_DistrictHeat</v>
+        <f t="shared" ref="B9:B10" si="0">_xlfn.TEXTJOIN("_",TRUE,"UC",A20,"MaxGrowth",B20)</f>
+        <v>UC_SRV_MaxGrowth_Gas</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>144</v>
       </c>
       <c r="D9" s="2"/>
       <c r="F9" s="2" t="s">
-        <v>222</v>
+        <v>193</v>
       </c>
       <c r="G9" s="2" t="s">
         <v>142</v>
@@ -7860,35 +7817,35 @@
         <v>15</v>
       </c>
       <c r="J9" s="29">
-        <f>1+C20</f>
-        <v>1.2</v>
+        <f t="shared" ref="J9:J11" si="1">1+C20</f>
+        <v>1.0149999999999999</v>
       </c>
       <c r="K9" s="2">
         <v>1</v>
       </c>
       <c r="L9" s="16">
-        <f t="shared" si="1"/>
-        <v>-0.3</v>
+        <f t="shared" ref="L9:L10" si="2">-D20</f>
+        <v>0</v>
       </c>
       <c r="M9" s="2">
         <v>5</v>
       </c>
       <c r="N9" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>SRV maximum growth rate of DistrictHeat</v>
-      </c>
-    </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
+        <f t="shared" ref="N9:N10" si="3">_xlfn.TEXTJOIN(" ",TRUE,A20, "maximum growth rate of",B20)</f>
+        <v>SRV maximum growth rate of Gas</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B10" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>UC_SRV_MaxGrowth_Gas</v>
+        <v>UC_SRV_MaxGrowth_Electricity</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>144</v>
       </c>
       <c r="D10" s="2"/>
       <c r="F10" s="2" t="s">
-        <v>193</v>
+        <v>222</v>
       </c>
       <c r="G10" s="2" t="s">
         <v>142</v>
@@ -7900,35 +7857,35 @@
         <v>15</v>
       </c>
       <c r="J10" s="29">
-        <f>1+C21</f>
-        <v>1.0149999999999999</v>
+        <f t="shared" si="1"/>
+        <v>1.08</v>
       </c>
       <c r="K10" s="2">
         <v>1</v>
       </c>
       <c r="L10" s="16">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>-0.3</v>
       </c>
       <c r="M10" s="2">
         <v>5</v>
       </c>
       <c r="N10" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>SRV maximum growth rate of Gas</v>
-      </c>
-    </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>SRV maximum growth rate of Electricity</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B11" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>UC_SRV_MaxGrowth_Electricity</v>
+        <f>_xlfn.TEXTJOIN("_",TRUE,"UC",A22,"MaxGrowth",B22)</f>
+        <v>UC_SRV_MaxGrowth_Solar</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>144</v>
       </c>
       <c r="D11" s="2"/>
-      <c r="F11" s="2" t="s">
-        <v>223</v>
+      <c r="F11" t="s">
+        <v>227</v>
       </c>
       <c r="G11" s="2" t="s">
         <v>142</v>
@@ -7940,35 +7897,35 @@
         <v>15</v>
       </c>
       <c r="J11" s="29">
-        <f>1+C22</f>
-        <v>1.08</v>
+        <f t="shared" si="1"/>
+        <v>1.1499999999999999</v>
       </c>
       <c r="K11" s="2">
         <v>1</v>
       </c>
       <c r="L11" s="16">
-        <f t="shared" si="1"/>
-        <v>-0.3</v>
+        <f>-D22</f>
+        <v>-0.2</v>
       </c>
       <c r="M11" s="2">
         <v>5</v>
       </c>
       <c r="N11" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>SRV maximum growth rate of Electricity</v>
-      </c>
-    </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
+        <f>_xlfn.TEXTJOIN(" ",TRUE,A22, "maximum growth rate of",B22)</f>
+        <v>SRV maximum growth rate of Solar</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B12" s="2" t="str">
-        <f>_xlfn.TEXTJOIN("_",TRUE,"UC",A23,"MaxGrowth",B23)</f>
-        <v>UC_SRV_MaxGrowth_Solar</v>
+        <f>_xlfn.TEXTJOIN("_",TRUE,"UC",A22,"MinGrowth",B22)</f>
+        <v>UC_SRV_MinGrowth_Solar</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>144</v>
       </c>
       <c r="D12" s="2"/>
       <c r="F12" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G12" s="2" t="s">
         <v>142</v>
@@ -7977,31 +7934,31 @@
         <v>2021</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>15</v>
+        <v>185</v>
       </c>
       <c r="J12" s="29">
-        <f>1+C23</f>
-        <v>1.1499999999999999</v>
+        <f>1+C22/10</f>
+        <v>1.0149999999999999</v>
       </c>
       <c r="K12" s="2">
         <v>1</v>
       </c>
       <c r="L12" s="16">
-        <f>-D23</f>
+        <f>-D22</f>
         <v>-0.2</v>
       </c>
       <c r="M12" s="2">
         <v>5</v>
       </c>
       <c r="N12" s="2" t="str">
-        <f>_xlfn.TEXTJOIN(" ",TRUE,A23, "maximum growth rate of",B23)</f>
-        <v>SRV maximum growth rate of Solar</v>
-      </c>
-    </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
+        <f>_xlfn.TEXTJOIN(" ",TRUE,A22, "minimum growth rate of",B22)</f>
+        <v>SRV minimum growth rate of Solar</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B13" s="2" t="str">
         <f>_xlfn.TEXTJOIN("_",TRUE,"UC",A23,"MinGrowth",B23)</f>
-        <v>UC_SRV_MinGrowth_Solar</v>
+        <v>UC_SRV_MinGrowth_LPG</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>144</v>
@@ -8017,86 +7974,60 @@
         <v>2021</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>185</v>
+        <v>15</v>
       </c>
       <c r="J13" s="29">
-        <f>1+C23/10</f>
-        <v>1.0149999999999999</v>
+        <f>1+C23</f>
+        <v>1.04</v>
       </c>
       <c r="K13" s="2">
         <v>1</v>
       </c>
       <c r="L13" s="16">
         <f>-D23</f>
-        <v>-0.2</v>
+        <v>-0.1</v>
       </c>
       <c r="M13" s="2">
         <v>5</v>
       </c>
       <c r="N13" s="2" t="str">
-        <f>_xlfn.TEXTJOIN(" ",TRUE,A23, "minimum growth rate of",B23)</f>
-        <v>SRV minimum growth rate of Solar</v>
-      </c>
-    </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B14" s="2" t="str">
-        <f>_xlfn.TEXTJOIN("_",TRUE,"UC",A24,"MinGrowth",B24)</f>
-        <v>UC_SRV_MinGrowth_LPG</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>144</v>
-      </c>
+        <f>_xlfn.TEXTJOIN(" ",TRUE,A23, "maximum growth rate of",B23)</f>
+        <v>SRV maximum growth rate of LPG</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
       <c r="D14" s="2"/>
-      <c r="F14" t="s">
-        <v>229</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="H14" s="2">
-        <v>2021</v>
-      </c>
-      <c r="I14" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="J14" s="29">
-        <f>1+C24</f>
-        <v>1.04</v>
-      </c>
-      <c r="K14" s="2">
-        <v>1</v>
-      </c>
-      <c r="L14" s="16">
-        <f>-D24</f>
-        <v>-0.1</v>
-      </c>
-      <c r="M14" s="2">
-        <v>5</v>
-      </c>
-      <c r="N14" s="2" t="str">
-        <f>_xlfn.TEXTJOIN(" ",TRUE,A24, "maximum growth rate of",B24)</f>
-        <v>SRV maximum growth rate of LPG</v>
-      </c>
-    </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
-      <c r="J15" s="29"/>
-      <c r="K15" s="2"/>
-      <c r="L15" s="16"/>
-      <c r="M15" s="2"/>
-      <c r="N15" s="2"/>
-    </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="C16" t="s">
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="29"/>
+      <c r="K14" s="2"/>
+      <c r="L14" s="16"/>
+      <c r="M14" s="2"/>
+      <c r="N14" s="2"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="C15" t="s">
         <v>117</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D15" t="s">
         <v>189</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>139</v>
+      </c>
+      <c r="B16" t="s">
+        <v>137</v>
+      </c>
+      <c r="C16" s="50">
+        <v>0.02</v>
+      </c>
+      <c r="D16">
+        <v>0.1</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -8104,7 +8035,7 @@
         <v>139</v>
       </c>
       <c r="B17" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C17" s="50">
         <v>0.02</v>
@@ -8118,13 +8049,13 @@
         <v>139</v>
       </c>
       <c r="B18" t="s">
-        <v>138</v>
+        <v>190</v>
       </c>
       <c r="C18" s="50">
-        <v>0.02</v>
+        <v>0.08</v>
       </c>
       <c r="D18">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
@@ -8132,10 +8063,10 @@
         <v>139</v>
       </c>
       <c r="B19" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C19" s="50">
-        <v>0.08</v>
+        <v>0.2</v>
       </c>
       <c r="D19">
         <v>0.3</v>
@@ -8146,13 +8077,13 @@
         <v>139</v>
       </c>
       <c r="B20" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C20" s="50">
-        <v>0.2</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="D20">
-        <v>0.3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
@@ -8160,13 +8091,13 @@
         <v>139</v>
       </c>
       <c r="B21" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="C21" s="50">
-        <v>1.4999999999999999E-2</v>
+        <v>0.08</v>
       </c>
       <c r="D21">
-        <v>0</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
@@ -8174,13 +8105,13 @@
         <v>139</v>
       </c>
       <c r="B22" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="C22" s="50">
-        <v>0.08</v>
+        <v>0.15</v>
       </c>
       <c r="D22">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
@@ -8188,77 +8119,63 @@
         <v>139</v>
       </c>
       <c r="B23" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C23" s="50">
-        <v>0.15</v>
+        <v>0.04</v>
       </c>
       <c r="D23">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>139</v>
-      </c>
-      <c r="B24" t="s">
-        <v>201</v>
-      </c>
-      <c r="C24" s="50">
-        <v>0.04</v>
-      </c>
-      <c r="D24">
         <v>0.1</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B26" s="45" t="s">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B25" s="45" t="s">
         <v>213</v>
       </c>
-      <c r="H26" s="46"/>
-    </row>
-    <row r="27" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="47" t="s">
+      <c r="H25" s="46"/>
+    </row>
+    <row r="26" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="47" t="s">
         <v>214</v>
       </c>
-      <c r="C27" s="47" t="s">
+      <c r="C26" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="D27" s="47" t="s">
+      <c r="D26" s="47" t="s">
         <v>215</v>
       </c>
-      <c r="E27" s="47" t="s">
+      <c r="E26" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="F27" s="48" t="str">
+      <c r="F26" s="48" t="str">
         <f>IF([1]Regions!C$3&lt;&gt;"",[1]Regions!C$3,"*")</f>
         <v>IE</v>
       </c>
-      <c r="G27" s="48" t="str">
+      <c r="G26" s="48" t="str">
         <f>IF([1]Regions!C$3&lt;&gt;"",[1]Regions!D$3,"*")</f>
         <v>National</v>
       </c>
-      <c r="H27" s="49" t="s">
+      <c r="H26" s="49" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D28" t="s">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D27" t="s">
         <v>217</v>
       </c>
-      <c r="E28">
+      <c r="E27">
         <v>2018</v>
       </c>
-      <c r="F28">
+      <c r="F27">
         <v>2222</v>
       </c>
-      <c r="G28">
-        <f>F28</f>
+      <c r="G27">
+        <f>F27</f>
         <v>2222</v>
       </c>
-      <c r="H28" t="str">
-        <f xml:space="preserve"> _xlfn.TEXTJOIN(",",TRUE,F6:F10)</f>
-        <v>SRVBIO,SRVBGS,SRVAHT,SRVAHT2,SRVHET*,SRVGAS</v>
+      <c r="H27" t="str">
+        <f xml:space="preserve"> _xlfn.TEXTJOIN(",",TRUE,F6:F9)</f>
+        <v>SRVBIO,SRVBGS,SRVAHT,SRVAHT2,SRVGAS</v>
       </c>
     </row>
   </sheetData>
@@ -9931,12 +9848,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010087B74FDAF7A4FB4D876E5EA45926113E" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="7c45a71fd69a7f965f9452dfe567e395">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="3a32fc56-8470-4d77-ad86-bef2a7229878" xmlns:ns3="af10b6eb-1b35-481e-9f8a-8ff8d968e3bf" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e11456b9df302c9cdeb068d2abd9c51d" ns2:_="" ns3:_="">
     <xsd:import namespace="3a32fc56-8470-4d77-ad86-bef2a7229878"/>
@@ -10147,6 +10058,12 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -10157,15 +10074,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BB3709B4-63F5-4DFC-B992-07B9DE433FAB}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{00FA9C21-6103-4373-B43A-A6097DCED766}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -10184,6 +10092,15 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BB3709B4-63F5-4DFC-B992-07B9DE433FAB}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{62402F5C-4915-4658-8F60-3A11655231DF}">
   <ds:schemaRefs>

--- a/SuppXLS/Scen_B_SYS_MaxGrowthRates_DHPlus.xlsx
+++ b/SuppXLS/Scen_B_SYS_MaxGrowthRates_DHPlus.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git_TIMES Models\Irish-TIMES-model\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37213EB6-E917-49B3-8399-094E2B0CE11C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5552AE7F-2691-43CC-AE46-F1477688A9B6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{39DC52AD-7AD8-48BE-9D85-AA1C40791A2D}"/>
   </bookViews>
@@ -6580,8 +6580,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9933FEB4-63EA-406B-A848-C3344FC12632}">
   <dimension ref="A2:N40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G31" sqref="G31"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7115,7 +7115,7 @@
       </c>
       <c r="J16" s="29">
         <f>1+C32</f>
-        <v>1.06</v>
+        <v>1.03</v>
       </c>
       <c r="K16" s="2">
         <v>1</v>
@@ -7454,7 +7454,7 @@
         <v>191</v>
       </c>
       <c r="C32" s="11">
-        <v>0.06</v>
+        <v>0.03</v>
       </c>
       <c r="D32">
         <v>0.3</v>
@@ -9848,6 +9848,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010087B74FDAF7A4FB4D876E5EA45926113E" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="7c45a71fd69a7f965f9452dfe567e395">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="3a32fc56-8470-4d77-ad86-bef2a7229878" xmlns:ns3="af10b6eb-1b35-481e-9f8a-8ff8d968e3bf" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e11456b9df302c9cdeb068d2abd9c51d" ns2:_="" ns3:_="">
     <xsd:import namespace="3a32fc56-8470-4d77-ad86-bef2a7229878"/>
@@ -10058,12 +10064,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -10074,6 +10074,15 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BB3709B4-63F5-4DFC-B992-07B9DE433FAB}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{00FA9C21-6103-4373-B43A-A6097DCED766}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -10092,15 +10101,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BB3709B4-63F5-4DFC-B992-07B9DE433FAB}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{62402F5C-4915-4658-8F60-3A11655231DF}">
   <ds:schemaRefs>

--- a/SuppXLS/Scen_B_SYS_MaxGrowthRates_DHPlus.xlsx
+++ b/SuppXLS/Scen_B_SYS_MaxGrowthRates_DHPlus.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git_TIMES Models\Irish-TIMES-model\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5552AE7F-2691-43CC-AE46-F1477688A9B6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3042CFA-72F4-4C3A-AF28-780D55A3B3E0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{39DC52AD-7AD8-48BE-9D85-AA1C40791A2D}"/>
+    <workbookView xWindow="-60" yWindow="-16320" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{39DC52AD-7AD8-48BE-9D85-AA1C40791A2D}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="6" r:id="rId1"/>
@@ -174,7 +174,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="518" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="516" uniqueCount="229">
   <si>
     <t>~UC_Sets: T_E:</t>
   </si>
@@ -5936,7 +5936,7 @@
   <dimension ref="A2:N29"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6265,7 +6265,7 @@
       </c>
       <c r="G12" s="26">
         <f t="shared" si="1"/>
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="H12" s="2">
         <v>1</v>
@@ -6301,7 +6301,7 @@
       </c>
       <c r="G13" s="26">
         <f t="shared" si="1"/>
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="H13" s="2">
         <v>1</v>
@@ -6418,7 +6418,7 @@
         <v>225</v>
       </c>
       <c r="C22" s="11">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="D22">
         <v>0.1</v>
@@ -6432,7 +6432,7 @@
         <v>226</v>
       </c>
       <c r="C23" s="11">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="D23">
         <v>0.1</v>
@@ -6580,8 +6580,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9933FEB4-63EA-406B-A848-C3344FC12632}">
   <dimension ref="A2:N40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6714,15 +6714,15 @@
         <v>15</v>
       </c>
       <c r="J6" s="29">
-        <f>1+C25</f>
-        <v>1.02</v>
+        <f>1+C24</f>
+        <v>1.2</v>
       </c>
       <c r="K6" s="2">
         <v>1</v>
       </c>
       <c r="L6" s="16">
-        <f>-D25</f>
-        <v>0</v>
+        <f>-D24</f>
+        <v>-0.3</v>
       </c>
       <c r="M6" s="2">
         <v>5</v>
@@ -6835,14 +6835,14 @@
       </c>
       <c r="J9" s="29">
         <f>1+C27</f>
-        <v>1.1000000000000001</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="K9" s="2">
         <v>1</v>
       </c>
       <c r="L9" s="16">
         <f>-D27</f>
-        <v>-0.1</v>
+        <v>-0.3</v>
       </c>
       <c r="M9" s="2">
         <v>5</v>
@@ -6854,8 +6854,8 @@
     </row>
     <row r="10" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B10" s="2" t="str">
-        <f>_xlfn.TEXTJOIN("_",TRUE,"UC",A27,"MaxGrowth",B27)</f>
-        <v>UC_RSD_MaxGrowth_Coal</v>
+        <f>_xlfn.TEXTJOIN("_",TRUE,"UC",A27,"MaxDeGrowth",B27)</f>
+        <v>UC_RSD_MaxDeGrowth_Coal</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>144</v>
@@ -6875,14 +6875,14 @@
       </c>
       <c r="J10" s="29">
         <f>1-C27*2</f>
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="K10" s="2">
         <v>1</v>
       </c>
       <c r="L10" s="16">
         <f>-D28</f>
-        <v>-0.1</v>
+        <v>-0.3</v>
       </c>
       <c r="M10" s="2">
         <v>5</v>
@@ -6915,14 +6915,14 @@
       </c>
       <c r="J11" s="29">
         <f>1+C28</f>
-        <v>1.1000000000000001</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="K11" s="2">
         <v>1</v>
       </c>
       <c r="L11" s="16">
         <f>-D28</f>
-        <v>-0.1</v>
+        <v>-0.3</v>
       </c>
       <c r="M11" s="2">
         <v>5</v>
@@ -6934,8 +6934,8 @@
     </row>
     <row r="12" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B12" s="2" t="str">
-        <f>_xlfn.TEXTJOIN("_",TRUE,"UC",A29,"MaxGrowth",B28)</f>
-        <v>UC_RSD_MaxGrowth_Peat</v>
+        <f>_xlfn.TEXTJOIN("_",TRUE,"UC",A29,"MaxDeGrowth",B28)</f>
+        <v>UC_RSD_MaxDeGrowth_Peat</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>144</v>
@@ -6955,7 +6955,7 @@
       </c>
       <c r="J12" s="29">
         <f>1-C28*2</f>
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="K12" s="2">
         <v>1</v>
@@ -6995,7 +6995,7 @@
       </c>
       <c r="J13" s="29">
         <f>1+C29</f>
-        <v>1.08</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="K13" s="2">
         <v>1</v>
@@ -7075,7 +7075,7 @@
       </c>
       <c r="J15" s="29">
         <f>1+C31</f>
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="K15" s="2">
         <v>1</v>
@@ -7195,7 +7195,7 @@
       </c>
       <c r="J18" s="29">
         <f t="shared" si="1"/>
-        <v>1.08</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="K18" s="2">
         <v>1</v>
@@ -7235,7 +7235,7 @@
       </c>
       <c r="J19" s="29">
         <f>1-C34*2</f>
-        <v>0.84</v>
+        <v>0.7</v>
       </c>
       <c r="K19" s="2">
         <v>1</v>
@@ -7347,6 +7347,12 @@
       <c r="B24" t="s">
         <v>190</v>
       </c>
+      <c r="C24" s="11">
+        <v>0.2</v>
+      </c>
+      <c r="D24">
+        <v>0.3</v>
+      </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
@@ -7384,10 +7390,10 @@
         <v>197</v>
       </c>
       <c r="C27" s="11">
-        <v>0.1</v>
+        <v>0.15</v>
       </c>
       <c r="D27">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
@@ -7398,10 +7404,10 @@
         <v>198</v>
       </c>
       <c r="C28" s="11">
-        <v>0.1</v>
+        <v>0.15</v>
       </c>
       <c r="D28">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
@@ -7412,7 +7418,7 @@
         <v>199</v>
       </c>
       <c r="C29" s="11">
-        <v>0.08</v>
+        <v>0.15</v>
       </c>
       <c r="D29">
         <v>0.1</v>
@@ -7440,7 +7446,7 @@
         <v>192</v>
       </c>
       <c r="C31" s="11">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="D31">
         <v>0.1</v>
@@ -7482,7 +7488,7 @@
         <v>202</v>
       </c>
       <c r="C34" s="11">
-        <v>0.08</v>
+        <v>0.15</v>
       </c>
       <c r="D34">
         <v>0.1</v>
@@ -7560,10 +7566,10 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F5F46D0-BFBE-459D-AD94-C3EBC85EC70F}">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A2:N27"/>
+  <dimension ref="A2:N26"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:XFD9"/>
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7778,7 +7784,7 @@
       </c>
       <c r="J8" s="29">
         <f>1+C18</f>
-        <v>1.08</v>
+        <v>1.2</v>
       </c>
       <c r="K8" s="2">
         <v>1</v>
@@ -7797,7 +7803,7 @@
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B9" s="2" t="str">
-        <f t="shared" ref="B9:B10" si="0">_xlfn.TEXTJOIN("_",TRUE,"UC",A20,"MaxGrowth",B20)</f>
+        <f t="shared" ref="B9:B10" si="0">_xlfn.TEXTJOIN("_",TRUE,"UC",A19,"MaxGrowth",B19)</f>
         <v>UC_SRV_MaxGrowth_Gas</v>
       </c>
       <c r="C9" s="2" t="s">
@@ -7817,21 +7823,21 @@
         <v>15</v>
       </c>
       <c r="J9" s="29">
-        <f t="shared" ref="J9:J11" si="1">1+C20</f>
-        <v>1.0149999999999999</v>
+        <f t="shared" ref="J9:J11" si="1">1+C19</f>
+        <v>1.03</v>
       </c>
       <c r="K9" s="2">
         <v>1</v>
       </c>
       <c r="L9" s="16">
-        <f t="shared" ref="L9:L10" si="2">-D20</f>
+        <f t="shared" ref="L9:L10" si="2">-D19</f>
         <v>0</v>
       </c>
       <c r="M9" s="2">
         <v>5</v>
       </c>
       <c r="N9" s="2" t="str">
-        <f t="shared" ref="N9:N10" si="3">_xlfn.TEXTJOIN(" ",TRUE,A20, "maximum growth rate of",B20)</f>
+        <f t="shared" ref="N9:N10" si="3">_xlfn.TEXTJOIN(" ",TRUE,A19, "maximum growth rate of",B19)</f>
         <v>SRV maximum growth rate of Gas</v>
       </c>
     </row>
@@ -7858,7 +7864,7 @@
       </c>
       <c r="J10" s="29">
         <f t="shared" si="1"/>
-        <v>1.08</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="K10" s="2">
         <v>1</v>
@@ -7877,7 +7883,7 @@
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B11" s="2" t="str">
-        <f>_xlfn.TEXTJOIN("_",TRUE,"UC",A22,"MaxGrowth",B22)</f>
+        <f>_xlfn.TEXTJOIN("_",TRUE,"UC",A21,"MaxGrowth",B21)</f>
         <v>UC_SRV_MaxGrowth_Solar</v>
       </c>
       <c r="C11" s="2" t="s">
@@ -7904,20 +7910,20 @@
         <v>1</v>
       </c>
       <c r="L11" s="16">
-        <f>-D22</f>
+        <f>-D21</f>
         <v>-0.2</v>
       </c>
       <c r="M11" s="2">
         <v>5</v>
       </c>
       <c r="N11" s="2" t="str">
-        <f>_xlfn.TEXTJOIN(" ",TRUE,A22, "maximum growth rate of",B22)</f>
+        <f>_xlfn.TEXTJOIN(" ",TRUE,A21, "maximum growth rate of",B21)</f>
         <v>SRV maximum growth rate of Solar</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B12" s="2" t="str">
-        <f>_xlfn.TEXTJOIN("_",TRUE,"UC",A22,"MinGrowth",B22)</f>
+        <f>_xlfn.TEXTJOIN("_",TRUE,"UC",A21,"MinGrowth",B21)</f>
         <v>UC_SRV_MinGrowth_Solar</v>
       </c>
       <c r="C12" s="2" t="s">
@@ -7937,27 +7943,27 @@
         <v>185</v>
       </c>
       <c r="J12" s="29">
-        <f>1+C22/10</f>
+        <f>1+C21/10</f>
         <v>1.0149999999999999</v>
       </c>
       <c r="K12" s="2">
         <v>1</v>
       </c>
       <c r="L12" s="16">
-        <f>-D22</f>
+        <f>-D21</f>
         <v>-0.2</v>
       </c>
       <c r="M12" s="2">
         <v>5</v>
       </c>
       <c r="N12" s="2" t="str">
-        <f>_xlfn.TEXTJOIN(" ",TRUE,A22, "minimum growth rate of",B22)</f>
+        <f>_xlfn.TEXTJOIN(" ",TRUE,A21, "minimum growth rate of",B21)</f>
         <v>SRV minimum growth rate of Solar</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B13" s="2" t="str">
-        <f>_xlfn.TEXTJOIN("_",TRUE,"UC",A23,"MinGrowth",B23)</f>
+        <f>_xlfn.TEXTJOIN("_",TRUE,"UC",A22,"MinGrowth",B22)</f>
         <v>UC_SRV_MinGrowth_LPG</v>
       </c>
       <c r="C13" s="2" t="s">
@@ -7977,21 +7983,21 @@
         <v>15</v>
       </c>
       <c r="J13" s="29">
-        <f>1+C23</f>
+        <f>1+C22</f>
         <v>1.04</v>
       </c>
       <c r="K13" s="2">
         <v>1</v>
       </c>
       <c r="L13" s="16">
-        <f>-D23</f>
+        <f>-D22</f>
         <v>-0.1</v>
       </c>
       <c r="M13" s="2">
         <v>5</v>
       </c>
       <c r="N13" s="2" t="str">
-        <f>_xlfn.TEXTJOIN(" ",TRUE,A23, "maximum growth rate of",B23)</f>
+        <f>_xlfn.TEXTJOIN(" ",TRUE,A22, "maximum growth rate of",B22)</f>
         <v>SRV maximum growth rate of LPG</v>
       </c>
     </row>
@@ -8052,7 +8058,7 @@
         <v>190</v>
       </c>
       <c r="C18" s="50">
-        <v>0.08</v>
+        <v>0.2</v>
       </c>
       <c r="D18">
         <v>0.3</v>
@@ -8063,13 +8069,13 @@
         <v>139</v>
       </c>
       <c r="B19" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C19" s="50">
-        <v>0.2</v>
+        <v>0.03</v>
       </c>
       <c r="D19">
-        <v>0.3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
@@ -8077,13 +8083,13 @@
         <v>139</v>
       </c>
       <c r="B20" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="C20" s="50">
-        <v>1.4999999999999999E-2</v>
+        <v>0.15</v>
       </c>
       <c r="D20">
-        <v>0</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
@@ -8091,13 +8097,13 @@
         <v>139</v>
       </c>
       <c r="B21" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="C21" s="50">
-        <v>0.08</v>
+        <v>0.15</v>
       </c>
       <c r="D21">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
@@ -8105,75 +8111,61 @@
         <v>139</v>
       </c>
       <c r="B22" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C22" s="50">
-        <v>0.15</v>
+        <v>0.04</v>
       </c>
       <c r="D22">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>139</v>
-      </c>
-      <c r="B23" t="s">
-        <v>201</v>
-      </c>
-      <c r="C23" s="50">
-        <v>0.04</v>
-      </c>
-      <c r="D23">
         <v>0.1</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B25" s="45" t="s">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B24" s="45" t="s">
         <v>213</v>
       </c>
-      <c r="H25" s="46"/>
-    </row>
-    <row r="26" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="47" t="s">
+      <c r="H24" s="46"/>
+    </row>
+    <row r="25" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="47" t="s">
         <v>214</v>
       </c>
-      <c r="C26" s="47" t="s">
+      <c r="C25" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="D26" s="47" t="s">
+      <c r="D25" s="47" t="s">
         <v>215</v>
       </c>
-      <c r="E26" s="47" t="s">
+      <c r="E25" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="F26" s="48" t="str">
+      <c r="F25" s="48" t="str">
         <f>IF([1]Regions!C$3&lt;&gt;"",[1]Regions!C$3,"*")</f>
         <v>IE</v>
       </c>
-      <c r="G26" s="48" t="str">
+      <c r="G25" s="48" t="str">
         <f>IF([1]Regions!C$3&lt;&gt;"",[1]Regions!D$3,"*")</f>
         <v>National</v>
       </c>
-      <c r="H26" s="49" t="s">
+      <c r="H25" s="49" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D27" t="s">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D26" t="s">
         <v>217</v>
       </c>
-      <c r="E27">
+      <c r="E26">
         <v>2018</v>
       </c>
-      <c r="F27">
+      <c r="F26">
         <v>2222</v>
       </c>
-      <c r="G27">
-        <f>F27</f>
+      <c r="G26">
+        <f>F26</f>
         <v>2222</v>
       </c>
-      <c r="H27" t="str">
+      <c r="H26" t="str">
         <f xml:space="preserve"> _xlfn.TEXTJOIN(",",TRUE,F6:F9)</f>
         <v>SRVBIO,SRVBGS,SRVAHT,SRVAHT2,SRVGAS</v>
       </c>
@@ -9848,12 +9840,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010087B74FDAF7A4FB4D876E5EA45926113E" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="7c45a71fd69a7f965f9452dfe567e395">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="3a32fc56-8470-4d77-ad86-bef2a7229878" xmlns:ns3="af10b6eb-1b35-481e-9f8a-8ff8d968e3bf" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e11456b9df302c9cdeb068d2abd9c51d" ns2:_="" ns3:_="">
     <xsd:import namespace="3a32fc56-8470-4d77-ad86-bef2a7229878"/>
@@ -10064,7 +10050,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -10073,16 +10059,13 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BB3709B4-63F5-4DFC-B992-07B9DE433FAB}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{00FA9C21-6103-4373-B43A-A6097DCED766}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -10101,10 +10084,19 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{62402F5C-4915-4658-8F60-3A11655231DF}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BB3709B4-63F5-4DFC-B992-07B9DE433FAB}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/SuppXLS/Scen_B_SYS_MaxGrowthRates_DHPlus.xlsx
+++ b/SuppXLS/Scen_B_SYS_MaxGrowthRates_DHPlus.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git_TIMES Models\Irish-TIMES-model\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3042CFA-72F4-4C3A-AF28-780D55A3B3E0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{832552AC-F698-4AC8-BBF4-110480EFE2F0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-60" yWindow="-16320" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{39DC52AD-7AD8-48BE-9D85-AA1C40791A2D}"/>
   </bookViews>
@@ -6581,7 +6581,7 @@
   <dimension ref="A2:N40"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6835,7 +6835,7 @@
       </c>
       <c r="J9" s="29">
         <f>1+C27</f>
-        <v>1.1499999999999999</v>
+        <v>1.01</v>
       </c>
       <c r="K9" s="2">
         <v>1</v>
@@ -6874,7 +6874,7 @@
         <v>185</v>
       </c>
       <c r="J10" s="29">
-        <f>1-C27*2</f>
+        <f>1-C27*30</f>
         <v>0.7</v>
       </c>
       <c r="K10" s="2">
@@ -6915,7 +6915,7 @@
       </c>
       <c r="J11" s="29">
         <f>1+C28</f>
-        <v>1.1499999999999999</v>
+        <v>1.01</v>
       </c>
       <c r="K11" s="2">
         <v>1</v>
@@ -6954,7 +6954,7 @@
         <v>185</v>
       </c>
       <c r="J12" s="29">
-        <f>1-C28*2</f>
+        <f>1-C28*30</f>
         <v>0.7</v>
       </c>
       <c r="K12" s="2">
@@ -7390,7 +7390,7 @@
         <v>197</v>
       </c>
       <c r="C27" s="11">
-        <v>0.15</v>
+        <v>0.01</v>
       </c>
       <c r="D27">
         <v>0.3</v>
@@ -7404,7 +7404,7 @@
         <v>198</v>
       </c>
       <c r="C28" s="11">
-        <v>0.15</v>
+        <v>0.01</v>
       </c>
       <c r="D28">
         <v>0.3</v>
@@ -9840,6 +9840,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010087B74FDAF7A4FB4D876E5EA45926113E" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="7c45a71fd69a7f965f9452dfe567e395">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="3a32fc56-8470-4d77-ad86-bef2a7229878" xmlns:ns3="af10b6eb-1b35-481e-9f8a-8ff8d968e3bf" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e11456b9df302c9cdeb068d2abd9c51d" ns2:_="" ns3:_="">
     <xsd:import namespace="3a32fc56-8470-4d77-ad86-bef2a7229878"/>
@@ -10050,15 +10059,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -10066,6 +10066,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{62402F5C-4915-4658-8F60-3A11655231DF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{00FA9C21-6103-4373-B43A-A6097DCED766}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -10084,14 +10092,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{62402F5C-4915-4658-8F60-3A11655231DF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BB3709B4-63F5-4DFC-B992-07B9DE433FAB}">
   <ds:schemaRefs>

--- a/SuppXLS/Scen_B_SYS_MaxGrowthRates_DHPlus.xlsx
+++ b/SuppXLS/Scen_B_SYS_MaxGrowthRates_DHPlus.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git_TIMES Models\Irish-TIMES-model\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{832552AC-F698-4AC8-BBF4-110480EFE2F0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74E80BF9-3E1E-4382-9EB0-7004FD28D0F0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-60" yWindow="-16320" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{39DC52AD-7AD8-48BE-9D85-AA1C40791A2D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{39DC52AD-7AD8-48BE-9D85-AA1C40791A2D}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="6" r:id="rId1"/>
@@ -5935,7 +5935,7 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A2:N29"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
@@ -6265,7 +6265,7 @@
       </c>
       <c r="G12" s="26">
         <f t="shared" si="1"/>
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="H12" s="2">
         <v>1</v>
@@ -6301,7 +6301,7 @@
       </c>
       <c r="G13" s="26">
         <f t="shared" si="1"/>
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="H13" s="2">
         <v>1</v>
@@ -6418,7 +6418,7 @@
         <v>225</v>
       </c>
       <c r="C22" s="11">
-        <v>0.03</v>
+        <v>0.05</v>
       </c>
       <c r="D22">
         <v>0.1</v>
@@ -6432,7 +6432,7 @@
         <v>226</v>
       </c>
       <c r="C23" s="11">
-        <v>0.03</v>
+        <v>0.05</v>
       </c>
       <c r="D23">
         <v>0.1</v>
@@ -6580,8 +6580,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9933FEB4-63EA-406B-A848-C3344FC12632}">
   <dimension ref="A2:N40"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6715,7 +6715,7 @@
       </c>
       <c r="J6" s="29">
         <f>1+C24</f>
-        <v>1.2</v>
+        <v>1.25</v>
       </c>
       <c r="K6" s="2">
         <v>1</v>
@@ -6995,7 +6995,7 @@
       </c>
       <c r="J13" s="29">
         <f>1+C29</f>
-        <v>1.1499999999999999</v>
+        <v>1.2</v>
       </c>
       <c r="K13" s="2">
         <v>1</v>
@@ -7075,7 +7075,7 @@
       </c>
       <c r="J15" s="29">
         <f>1+C31</f>
-        <v>1.03</v>
+        <v>1.0249999999999999</v>
       </c>
       <c r="K15" s="2">
         <v>1</v>
@@ -7155,7 +7155,7 @@
       </c>
       <c r="J17" s="29">
         <f t="shared" ref="J17:J18" si="1">1+C33</f>
-        <v>1.04</v>
+        <v>1.0249999999999999</v>
       </c>
       <c r="K17" s="2">
         <v>1</v>
@@ -7195,7 +7195,7 @@
       </c>
       <c r="J18" s="29">
         <f t="shared" si="1"/>
-        <v>1.1499999999999999</v>
+        <v>1.01</v>
       </c>
       <c r="K18" s="2">
         <v>1</v>
@@ -7234,7 +7234,7 @@
         <v>185</v>
       </c>
       <c r="J19" s="29">
-        <f>1-C34*2</f>
+        <f>1-C34*30</f>
         <v>0.7</v>
       </c>
       <c r="K19" s="2">
@@ -7347,8 +7347,8 @@
       <c r="B24" t="s">
         <v>190</v>
       </c>
-      <c r="C24" s="11">
-        <v>0.2</v>
+      <c r="C24" s="50">
+        <v>0.25</v>
       </c>
       <c r="D24">
         <v>0.3</v>
@@ -7361,7 +7361,7 @@
       <c r="B25" t="s">
         <v>196</v>
       </c>
-      <c r="C25" s="11">
+      <c r="C25" s="50">
         <v>0.02</v>
       </c>
       <c r="D25">
@@ -7375,7 +7375,7 @@
       <c r="B26" t="s">
         <v>137</v>
       </c>
-      <c r="C26" s="11">
+      <c r="C26" s="50">
         <v>0.02</v>
       </c>
       <c r="D26">
@@ -7389,7 +7389,7 @@
       <c r="B27" t="s">
         <v>197</v>
       </c>
-      <c r="C27" s="11">
+      <c r="C27" s="50">
         <v>0.01</v>
       </c>
       <c r="D27">
@@ -7403,7 +7403,7 @@
       <c r="B28" t="s">
         <v>198</v>
       </c>
-      <c r="C28" s="11">
+      <c r="C28" s="50">
         <v>0.01</v>
       </c>
       <c r="D28">
@@ -7417,8 +7417,8 @@
       <c r="B29" t="s">
         <v>199</v>
       </c>
-      <c r="C29" s="11">
-        <v>0.15</v>
+      <c r="C29" s="50">
+        <v>0.2</v>
       </c>
       <c r="D29">
         <v>0.1</v>
@@ -7431,7 +7431,7 @@
       <c r="B30" t="s">
         <v>200</v>
       </c>
-      <c r="C30" s="11">
+      <c r="C30" s="50">
         <v>0.1</v>
       </c>
       <c r="D30">
@@ -7445,8 +7445,8 @@
       <c r="B31" t="s">
         <v>192</v>
       </c>
-      <c r="C31" s="11">
-        <v>0.03</v>
+      <c r="C31" s="50">
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="D31">
         <v>0.1</v>
@@ -7459,7 +7459,7 @@
       <c r="B32" t="s">
         <v>191</v>
       </c>
-      <c r="C32" s="11">
+      <c r="C32" s="50">
         <v>0.03</v>
       </c>
       <c r="D32">
@@ -7473,8 +7473,8 @@
       <c r="B33" t="s">
         <v>201</v>
       </c>
-      <c r="C33" s="11">
-        <v>0.04</v>
+      <c r="C33" s="50">
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="D33">
         <v>0.1</v>
@@ -7487,8 +7487,8 @@
       <c r="B34" t="s">
         <v>202</v>
       </c>
-      <c r="C34" s="11">
-        <v>0.15</v>
+      <c r="C34" s="50">
+        <v>0.01</v>
       </c>
       <c r="D34">
         <v>0.1</v>
@@ -7501,7 +7501,7 @@
       <c r="B35" t="s">
         <v>203</v>
       </c>
-      <c r="C35" s="11">
+      <c r="C35" s="50">
         <v>0.15</v>
       </c>
       <c r="D35">
@@ -7569,7 +7569,7 @@
   <dimension ref="A2:N26"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+      <selection activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7784,7 +7784,7 @@
       </c>
       <c r="J8" s="29">
         <f>1+C18</f>
-        <v>1.2</v>
+        <v>1.25</v>
       </c>
       <c r="K8" s="2">
         <v>1</v>
@@ -7984,7 +7984,7 @@
       </c>
       <c r="J13" s="29">
         <f>1+C22</f>
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="K13" s="2">
         <v>1</v>
@@ -8058,7 +8058,7 @@
         <v>190</v>
       </c>
       <c r="C18" s="50">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="D18">
         <v>0.3</v>
@@ -8114,7 +8114,7 @@
         <v>201</v>
       </c>
       <c r="C22" s="50">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="D22">
         <v>0.1</v>

--- a/SuppXLS/Scen_B_SYS_MaxGrowthRates_DHPlus.xlsx
+++ b/SuppXLS/Scen_B_SYS_MaxGrowthRates_DHPlus.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git_TIMES Models\Irish-TIMES-model\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74E80BF9-3E1E-4382-9EB0-7004FD28D0F0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8ADFFF6-F5B3-419C-B2CE-40C72019578B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{39DC52AD-7AD8-48BE-9D85-AA1C40791A2D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{39DC52AD-7AD8-48BE-9D85-AA1C40791A2D}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="6" r:id="rId1"/>
@@ -5935,7 +5935,7 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A2:N29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
@@ -6580,8 +6580,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9933FEB4-63EA-406B-A848-C3344FC12632}">
   <dimension ref="A2:N40"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16:XFD16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7115,7 +7115,7 @@
       </c>
       <c r="J16" s="29">
         <f>1+C32</f>
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="K16" s="2">
         <v>1</v>
@@ -7460,7 +7460,7 @@
         <v>191</v>
       </c>
       <c r="C32" s="50">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="D32">
         <v>0.3</v>
@@ -8180,8 +8180,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A2:P53"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8408,7 +8408,7 @@
         <v>1</v>
       </c>
       <c r="L8" s="16">
-        <f t="shared" si="2"/>
+        <f>-$B$53*L29/1000</f>
         <v>-18.168149999999997</v>
       </c>
       <c r="M8" s="2">
@@ -9840,15 +9840,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010087B74FDAF7A4FB4D876E5EA45926113E" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="7c45a71fd69a7f965f9452dfe567e395">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="3a32fc56-8470-4d77-ad86-bef2a7229878" xmlns:ns3="af10b6eb-1b35-481e-9f8a-8ff8d968e3bf" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e11456b9df302c9cdeb068d2abd9c51d" ns2:_="" ns3:_="">
     <xsd:import namespace="3a32fc56-8470-4d77-ad86-bef2a7229878"/>
@@ -10059,6 +10050,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -10066,14 +10066,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{62402F5C-4915-4658-8F60-3A11655231DF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{00FA9C21-6103-4373-B43A-A6097DCED766}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -10092,6 +10084,14 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{62402F5C-4915-4658-8F60-3A11655231DF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BB3709B4-63F5-4DFC-B992-07B9DE433FAB}">
   <ds:schemaRefs>

--- a/SuppXLS/Scen_B_SYS_MaxGrowthRates_DHPlus.xlsx
+++ b/SuppXLS/Scen_B_SYS_MaxGrowthRates_DHPlus.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git_TIMES Models\Irish-TIMES-model\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8ADFFF6-F5B3-419C-B2CE-40C72019578B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{350AA591-65CB-439E-ADEC-2ADA173156F0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{39DC52AD-7AD8-48BE-9D85-AA1C40791A2D}"/>
   </bookViews>
@@ -6581,7 +6581,7 @@
   <dimension ref="A2:N40"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16:XFD16"/>
+      <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7115,7 +7115,7 @@
       </c>
       <c r="J16" s="29">
         <f>1+C32</f>
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="K16" s="2">
         <v>1</v>
@@ -7460,7 +7460,7 @@
         <v>191</v>
       </c>
       <c r="C32" s="50">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="D32">
         <v>0.3</v>
@@ -8326,7 +8326,7 @@
         <v>1</v>
       </c>
       <c r="L6" s="16">
-        <f t="shared" ref="L6:L8" si="2">-$B$53*L27/1000</f>
+        <f t="shared" ref="L6:L7" si="2">-$B$53*L27/1000</f>
         <v>-18.168149999999997</v>
       </c>
       <c r="M6" s="2">
@@ -9840,6 +9840,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010087B74FDAF7A4FB4D876E5EA45926113E" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="7c45a71fd69a7f965f9452dfe567e395">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="3a32fc56-8470-4d77-ad86-bef2a7229878" xmlns:ns3="af10b6eb-1b35-481e-9f8a-8ff8d968e3bf" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e11456b9df302c9cdeb068d2abd9c51d" ns2:_="" ns3:_="">
     <xsd:import namespace="3a32fc56-8470-4d77-ad86-bef2a7229878"/>
@@ -10050,15 +10059,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -10066,6 +10066,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{62402F5C-4915-4658-8F60-3A11655231DF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{00FA9C21-6103-4373-B43A-A6097DCED766}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -10084,14 +10092,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{62402F5C-4915-4658-8F60-3A11655231DF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BB3709B4-63F5-4DFC-B992-07B9DE433FAB}">
   <ds:schemaRefs>

--- a/SuppXLS/Scen_B_SYS_MaxGrowthRates_DHPlus.xlsx
+++ b/SuppXLS/Scen_B_SYS_MaxGrowthRates_DHPlus.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git_TIMES Models\Irish-TIMES-model\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{350AA591-65CB-439E-ADEC-2ADA173156F0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53F6EAB3-07C2-4C9F-8072-35DE2629E5B9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{39DC52AD-7AD8-48BE-9D85-AA1C40791A2D}"/>
+    <workbookView xWindow="-60" yWindow="-16320" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{39DC52AD-7AD8-48BE-9D85-AA1C40791A2D}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="6" r:id="rId1"/>
@@ -6581,7 +6581,7 @@
   <dimension ref="A2:N40"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H29" sqref="H29"/>
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7115,7 +7115,7 @@
       </c>
       <c r="J16" s="29">
         <f>1+C32</f>
-        <v>1.05</v>
+        <v>1.08</v>
       </c>
       <c r="K16" s="2">
         <v>1</v>
@@ -7460,7 +7460,7 @@
         <v>191</v>
       </c>
       <c r="C32" s="50">
-        <v>0.05</v>
+        <v>0.08</v>
       </c>
       <c r="D32">
         <v>0.3</v>

--- a/SuppXLS/Scen_B_SYS_MaxGrowthRates_DHPlus.xlsx
+++ b/SuppXLS/Scen_B_SYS_MaxGrowthRates_DHPlus.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git_TIMES Models\Irish-TIMES-model\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53F6EAB3-07C2-4C9F-8072-35DE2629E5B9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E11E4963-9563-435F-96A4-E2B05B2456CE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-60" yWindow="-16320" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{39DC52AD-7AD8-48BE-9D85-AA1C40791A2D}"/>
   </bookViews>
@@ -6581,7 +6581,7 @@
   <dimension ref="A2:N40"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7115,7 +7115,7 @@
       </c>
       <c r="J16" s="29">
         <f>1+C32</f>
-        <v>1.08</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="K16" s="2">
         <v>1</v>
@@ -7460,7 +7460,7 @@
         <v>191</v>
       </c>
       <c r="C32" s="50">
-        <v>0.08</v>
+        <v>0.1</v>
       </c>
       <c r="D32">
         <v>0.3</v>
@@ -9840,15 +9840,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010087B74FDAF7A4FB4D876E5EA45926113E" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="7c45a71fd69a7f965f9452dfe567e395">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="3a32fc56-8470-4d77-ad86-bef2a7229878" xmlns:ns3="af10b6eb-1b35-481e-9f8a-8ff8d968e3bf" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e11456b9df302c9cdeb068d2abd9c51d" ns2:_="" ns3:_="">
     <xsd:import namespace="3a32fc56-8470-4d77-ad86-bef2a7229878"/>
@@ -10059,6 +10050,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -10066,14 +10066,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{62402F5C-4915-4658-8F60-3A11655231DF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{00FA9C21-6103-4373-B43A-A6097DCED766}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -10092,6 +10084,14 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{62402F5C-4915-4658-8F60-3A11655231DF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BB3709B4-63F5-4DFC-B992-07B9DE433FAB}">
   <ds:schemaRefs>

--- a/SuppXLS/Scen_B_SYS_MaxGrowthRates_DHPlus.xlsx
+++ b/SuppXLS/Scen_B_SYS_MaxGrowthRates_DHPlus.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git_TIMES Models\Irish-TIMES-model\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E11E4963-9563-435F-96A4-E2B05B2456CE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC856A30-0016-4A59-8DA8-5FDC22690C76}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-60" yWindow="-16320" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{39DC52AD-7AD8-48BE-9D85-AA1C40791A2D}"/>
   </bookViews>
@@ -6581,7 +6581,7 @@
   <dimension ref="A2:N40"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7115,7 +7115,7 @@
       </c>
       <c r="J16" s="29">
         <f>1+C32</f>
-        <v>1.1000000000000001</v>
+        <v>1.0900000000000001</v>
       </c>
       <c r="K16" s="2">
         <v>1</v>
@@ -7460,7 +7460,7 @@
         <v>191</v>
       </c>
       <c r="C32" s="50">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="D32">
         <v>0.3</v>
@@ -9840,6 +9840,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010087B74FDAF7A4FB4D876E5EA45926113E" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="7c45a71fd69a7f965f9452dfe567e395">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="3a32fc56-8470-4d77-ad86-bef2a7229878" xmlns:ns3="af10b6eb-1b35-481e-9f8a-8ff8d968e3bf" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e11456b9df302c9cdeb068d2abd9c51d" ns2:_="" ns3:_="">
     <xsd:import namespace="3a32fc56-8470-4d77-ad86-bef2a7229878"/>
@@ -10050,15 +10059,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -10066,6 +10066,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{62402F5C-4915-4658-8F60-3A11655231DF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{00FA9C21-6103-4373-B43A-A6097DCED766}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -10084,14 +10092,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{62402F5C-4915-4658-8F60-3A11655231DF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BB3709B4-63F5-4DFC-B992-07B9DE433FAB}">
   <ds:schemaRefs>

--- a/SuppXLS/Scen_B_SYS_MaxGrowthRates_DHPlus.xlsx
+++ b/SuppXLS/Scen_B_SYS_MaxGrowthRates_DHPlus.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git_TIMES Models\Irish-TIMES-model\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC856A30-0016-4A59-8DA8-5FDC22690C76}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C34C8CB-3D18-4242-875F-C0AF0A4C3DED}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-60" yWindow="-16320" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{39DC52AD-7AD8-48BE-9D85-AA1C40791A2D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{39DC52AD-7AD8-48BE-9D85-AA1C40791A2D}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="6" r:id="rId1"/>
@@ -6581,7 +6581,7 @@
   <dimension ref="A2:N40"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7115,7 +7115,7 @@
       </c>
       <c r="J16" s="29">
         <f>1+C32</f>
-        <v>1.0900000000000001</v>
+        <v>1.095</v>
       </c>
       <c r="K16" s="2">
         <v>1</v>
@@ -7460,7 +7460,7 @@
         <v>191</v>
       </c>
       <c r="C32" s="50">
-        <v>0.09</v>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="D32">
         <v>0.3</v>
@@ -9840,15 +9840,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010087B74FDAF7A4FB4D876E5EA45926113E" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="7c45a71fd69a7f965f9452dfe567e395">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="3a32fc56-8470-4d77-ad86-bef2a7229878" xmlns:ns3="af10b6eb-1b35-481e-9f8a-8ff8d968e3bf" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e11456b9df302c9cdeb068d2abd9c51d" ns2:_="" ns3:_="">
     <xsd:import namespace="3a32fc56-8470-4d77-ad86-bef2a7229878"/>
@@ -10059,6 +10050,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -10066,14 +10066,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{62402F5C-4915-4658-8F60-3A11655231DF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{00FA9C21-6103-4373-B43A-A6097DCED766}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -10092,6 +10084,14 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{62402F5C-4915-4658-8F60-3A11655231DF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BB3709B4-63F5-4DFC-B992-07B9DE433FAB}">
   <ds:schemaRefs>

--- a/SuppXLS/Scen_B_SYS_MaxGrowthRates_DHPlus.xlsx
+++ b/SuppXLS/Scen_B_SYS_MaxGrowthRates_DHPlus.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git_TIMES Models\Irish-TIMES-model\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C34C8CB-3D18-4242-875F-C0AF0A4C3DED}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E0ECCE4-8775-441E-91D2-A2B92DCE0DA3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{39DC52AD-7AD8-48BE-9D85-AA1C40791A2D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{39DC52AD-7AD8-48BE-9D85-AA1C40791A2D}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="6" r:id="rId1"/>
@@ -174,7 +174,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="516" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="229">
   <si>
     <t>~UC_Sets: T_E:</t>
   </si>
@@ -6049,7 +6049,7 @@
       </c>
       <c r="G6" s="26">
         <f t="shared" ref="G6:G13" si="1">1+$C16</f>
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="H6" s="2">
         <v>1</v>
@@ -6265,7 +6265,7 @@
       </c>
       <c r="G12" s="26">
         <f t="shared" si="1"/>
-        <v>1.05</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="H12" s="2">
         <v>1</v>
@@ -6301,7 +6301,7 @@
       </c>
       <c r="G13" s="26">
         <f t="shared" si="1"/>
-        <v>1.05</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="H13" s="2">
         <v>1</v>
@@ -6334,7 +6334,7 @@
         <v>124</v>
       </c>
       <c r="C16" s="11">
-        <v>0.05</v>
+        <v>0.02</v>
       </c>
       <c r="D16">
         <v>0.1</v>
@@ -6418,7 +6418,7 @@
         <v>225</v>
       </c>
       <c r="C22" s="11">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="D22">
         <v>0.1</v>
@@ -6432,7 +6432,7 @@
         <v>226</v>
       </c>
       <c r="C23" s="11">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="D23">
         <v>0.1</v>
@@ -6578,10 +6578,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9933FEB4-63EA-406B-A848-C3344FC12632}">
-  <dimension ref="A2:N40"/>
+  <dimension ref="A2:N37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6694,7 +6694,7 @@
     </row>
     <row r="6" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="str">
-        <f>_xlfn.TEXTJOIN("_",TRUE,"UC",A24,"MaxGrowth",B24)</f>
+        <f>_xlfn.TEXTJOIN("_",TRUE,"UC",A21,"MaxGrowth",B21)</f>
         <v>UC_RSD_MaxGrowth_AmbientHeat</v>
       </c>
       <c r="C6" s="2" t="s">
@@ -6714,27 +6714,27 @@
         <v>15</v>
       </c>
       <c r="J6" s="29">
-        <f>1+C24</f>
-        <v>1.25</v>
+        <f>1+C21</f>
+        <v>1.5</v>
       </c>
       <c r="K6" s="2">
         <v>1</v>
       </c>
       <c r="L6" s="16">
-        <f>-D24</f>
+        <f>-D21</f>
         <v>-0.3</v>
       </c>
       <c r="M6" s="2">
         <v>5</v>
       </c>
       <c r="N6" s="2" t="str">
-        <f>_xlfn.TEXTJOIN(" ",TRUE,A25, "maximum growth rate of",B25)</f>
+        <f>_xlfn.TEXTJOIN(" ",TRUE,A22, "maximum growth rate of",B22)</f>
         <v>RSD maximum growth rate of Biodiesel</v>
       </c>
     </row>
     <row r="7" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B7" s="2" t="str">
-        <f>_xlfn.TEXTJOIN("_",TRUE,"UC",A25,"MaxGrowth",B25)</f>
+        <f>_xlfn.TEXTJOIN("_",TRUE,"UC",A22,"MaxGrowth",B22)</f>
         <v>UC_RSD_MaxGrowth_Biodiesel</v>
       </c>
       <c r="C7" s="2" t="s">
@@ -6754,27 +6754,27 @@
         <v>15</v>
       </c>
       <c r="J7" s="29">
-        <f>1+C25</f>
+        <f>1+C22</f>
         <v>1.02</v>
       </c>
       <c r="K7" s="2">
         <v>1</v>
       </c>
       <c r="L7" s="16">
-        <f>-D26</f>
+        <f>-D23</f>
         <v>0</v>
       </c>
       <c r="M7" s="2">
         <v>5</v>
       </c>
       <c r="N7" s="2" t="str">
-        <f>_xlfn.TEXTJOIN(" ",TRUE,A26, "maximum growth rate of",B26)</f>
+        <f>_xlfn.TEXTJOIN(" ",TRUE,A23, "maximum growth rate of",B23)</f>
         <v>RSD maximum growth rate of Biomass</v>
       </c>
     </row>
     <row r="8" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B8" s="2" t="str">
-        <f>_xlfn.TEXTJOIN("_",TRUE,"UC",A26,"MaxGrowth",B26)</f>
+        <f>_xlfn.TEXTJOIN("_",TRUE,"UC",A23,"MaxGrowth",B23)</f>
         <v>UC_RSD_MaxGrowth_Biomass</v>
       </c>
       <c r="C8" s="2" t="s">
@@ -6794,27 +6794,27 @@
         <v>15</v>
       </c>
       <c r="J8" s="29">
-        <f>1+C26</f>
+        <f>1+C23</f>
         <v>1.02</v>
       </c>
       <c r="K8" s="2">
         <v>1</v>
       </c>
       <c r="L8" s="16">
-        <f>-D26</f>
+        <f>-D23</f>
         <v>0</v>
       </c>
       <c r="M8" s="2">
         <v>5</v>
       </c>
       <c r="N8" s="2" t="str">
-        <f>_xlfn.TEXTJOIN(" ",TRUE,A26, "maximum growth rate of",B26)</f>
+        <f>_xlfn.TEXTJOIN(" ",TRUE,A23, "maximum growth rate of",B23)</f>
         <v>RSD maximum growth rate of Biomass</v>
       </c>
     </row>
     <row r="9" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B9" s="2" t="str">
-        <f>_xlfn.TEXTJOIN("_",TRUE,"UC",A27,"MaxGrowth",B27)</f>
+        <f>_xlfn.TEXTJOIN("_",TRUE,"UC",A24,"MaxGrowth",B24)</f>
         <v>UC_RSD_MaxGrowth_Coal</v>
       </c>
       <c r="C9" s="2" t="s">
@@ -6834,35 +6834,35 @@
         <v>15</v>
       </c>
       <c r="J9" s="29">
-        <f>1+C27</f>
+        <f>1+C24</f>
         <v>1.01</v>
       </c>
       <c r="K9" s="2">
         <v>1</v>
       </c>
       <c r="L9" s="16">
-        <f>-D27</f>
-        <v>-0.3</v>
+        <f>-D24</f>
+        <v>0</v>
       </c>
       <c r="M9" s="2">
         <v>5</v>
       </c>
       <c r="N9" s="2" t="str">
-        <f>_xlfn.TEXTJOIN(" ",TRUE,A27, "maximum growth rate of",B27)</f>
+        <f>_xlfn.TEXTJOIN(" ",TRUE,A24, "maximum growth rate of",B24)</f>
         <v>RSD maximum growth rate of Coal</v>
       </c>
     </row>
     <row r="10" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B10" s="2" t="str">
-        <f>_xlfn.TEXTJOIN("_",TRUE,"UC",A27,"MaxDeGrowth",B27)</f>
-        <v>UC_RSD_MaxDeGrowth_Coal</v>
+        <f>_xlfn.TEXTJOIN("_",TRUE,"UC",A25,"MaxGrowth",B25)</f>
+        <v>UC_RSD_MaxGrowth_Peat</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>144</v>
       </c>
       <c r="D10" s="2"/>
       <c r="F10" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="G10" s="2" t="s">
         <v>142</v>
@@ -6871,38 +6871,38 @@
         <v>2021</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>185</v>
+        <v>15</v>
       </c>
       <c r="J10" s="29">
-        <f>1-C27*30</f>
-        <v>0.7</v>
+        <f>1+C25</f>
+        <v>1.01</v>
       </c>
       <c r="K10" s="2">
         <v>1</v>
       </c>
       <c r="L10" s="16">
-        <f>-D28</f>
-        <v>-0.3</v>
+        <f>-D25</f>
+        <v>0</v>
       </c>
       <c r="M10" s="2">
         <v>5</v>
       </c>
       <c r="N10" s="2" t="str">
-        <f>_xlfn.TEXTJOIN(" ",TRUE,A28, "maximum degrowth rate of",B27)</f>
-        <v>RSD maximum degrowth rate of Coal</v>
+        <f>_xlfn.TEXTJOIN(" ",TRUE,A25, "maximum growth rate of",B25)</f>
+        <v>RSD maximum growth rate of Peat</v>
       </c>
     </row>
     <row r="11" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B11" s="2" t="str">
-        <f>_xlfn.TEXTJOIN("_",TRUE,"UC",A28,"MaxGrowth",B28)</f>
-        <v>UC_RSD_MaxGrowth_Peat</v>
+        <f>_xlfn.TEXTJOIN("_",TRUE,"UC",A26,"MaxGrowth",B26)</f>
+        <v>UC_RSD_MaxGrowth_Electricity</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>144</v>
       </c>
       <c r="D11" s="2"/>
       <c r="F11" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="G11" s="2" t="s">
         <v>142</v>
@@ -6914,35 +6914,35 @@
         <v>15</v>
       </c>
       <c r="J11" s="29">
-        <f>1+C28</f>
-        <v>1.01</v>
+        <f>1+C26</f>
+        <v>1.3</v>
       </c>
       <c r="K11" s="2">
         <v>1</v>
       </c>
       <c r="L11" s="16">
-        <f>-D28</f>
-        <v>-0.3</v>
+        <f>-D26</f>
+        <v>-0.1</v>
       </c>
       <c r="M11" s="2">
         <v>5</v>
       </c>
       <c r="N11" s="2" t="str">
-        <f>_xlfn.TEXTJOIN(" ",TRUE,A28, "maximum growth rate of",B28)</f>
-        <v>RSD maximum growth rate of Peat</v>
+        <f>_xlfn.TEXTJOIN(" ",TRUE,A26, "maximum growth rate of",B26)</f>
+        <v>RSD maximum growth rate of Electricity</v>
       </c>
     </row>
     <row r="12" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B12" s="2" t="str">
-        <f>_xlfn.TEXTJOIN("_",TRUE,"UC",A29,"MaxDeGrowth",B28)</f>
-        <v>UC_RSD_MaxDeGrowth_Peat</v>
+        <f>_xlfn.TEXTJOIN("_",TRUE,"UC",A27,"MaxGrowth",B27)</f>
+        <v>UC_RSD_MaxGrowth_Ethanol</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>144</v>
       </c>
       <c r="D12" s="2"/>
       <c r="F12" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="G12" s="2" t="s">
         <v>142</v>
@@ -6951,38 +6951,38 @@
         <v>2021</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>185</v>
+        <v>15</v>
       </c>
       <c r="J12" s="29">
-        <f>1-C28*30</f>
-        <v>0.7</v>
+        <f>1+C27</f>
+        <v>1.1000000000000001</v>
       </c>
       <c r="K12" s="2">
         <v>1</v>
       </c>
       <c r="L12" s="16">
-        <f>-D29</f>
-        <v>-0.1</v>
+        <f>-D27</f>
+        <v>0</v>
       </c>
       <c r="M12" s="2">
         <v>5</v>
       </c>
       <c r="N12" s="2" t="str">
-        <f>_xlfn.TEXTJOIN(" ",TRUE,A29, "maximum degrowth rate of",B28)</f>
-        <v>RSD maximum degrowth rate of Peat</v>
+        <f>_xlfn.TEXTJOIN(" ",TRUE,A27, "maximum growth rate of",B27)</f>
+        <v>RSD maximum growth rate of Ethanol</v>
       </c>
     </row>
     <row r="13" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B13" s="2" t="str">
-        <f>_xlfn.TEXTJOIN("_",TRUE,"UC",A29,"MaxGrowth",B29)</f>
-        <v>UC_RSD_MaxGrowth_Electricity</v>
+        <f>_xlfn.TEXTJOIN("_",TRUE,"UC",A28,"MaxGrowth",B28)</f>
+        <v>UC_RSD_MaxGrowth_Gas</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>144</v>
       </c>
       <c r="D13" s="2"/>
       <c r="F13" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="G13" s="2" t="s">
         <v>142</v>
@@ -6994,35 +6994,35 @@
         <v>15</v>
       </c>
       <c r="J13" s="29">
-        <f>1+C29</f>
-        <v>1.2</v>
+        <f>1+C28</f>
+        <v>1.0249999999999999</v>
       </c>
       <c r="K13" s="2">
         <v>1</v>
       </c>
       <c r="L13" s="16">
-        <f>-D29</f>
+        <f>-D28</f>
         <v>-0.1</v>
       </c>
       <c r="M13" s="2">
         <v>5</v>
       </c>
       <c r="N13" s="2" t="str">
-        <f>_xlfn.TEXTJOIN(" ",TRUE,A29, "maximum growth rate of",B29)</f>
-        <v>RSD maximum growth rate of Electricity</v>
+        <f>_xlfn.TEXTJOIN(" ",TRUE,A28, "maximum growth rate of",B28)</f>
+        <v>RSD maximum growth rate of Gas</v>
       </c>
     </row>
     <row r="14" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B14" s="2" t="str">
-        <f>_xlfn.TEXTJOIN("_",TRUE,"UC",A30,"MaxGrowth",B30)</f>
-        <v>UC_RSD_MaxGrowth_Ethanol</v>
+        <f>_xlfn.TEXTJOIN("_",TRUE,"UC",A29,"MinGrowth",B29)</f>
+        <v>UC_RSD_MinGrowth_DistrictHeat</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>144</v>
       </c>
       <c r="D14" s="2"/>
       <c r="F14" t="s">
-        <v>208</v>
+        <v>221</v>
       </c>
       <c r="G14" s="2" t="s">
         <v>142</v>
@@ -7031,11 +7031,11 @@
         <v>2021</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>15</v>
+        <v>185</v>
       </c>
       <c r="J14" s="29">
-        <f>1+C30</f>
-        <v>1.1000000000000001</v>
+        <f>1+C29</f>
+        <v>1.0900000000000001</v>
       </c>
       <c r="K14" s="2">
         <v>1</v>
@@ -7048,21 +7048,21 @@
         <v>5</v>
       </c>
       <c r="N14" s="2" t="str">
-        <f>_xlfn.TEXTJOIN(" ",TRUE,A30, "maximum growth rate of",B30)</f>
-        <v>RSD maximum growth rate of Ethanol</v>
+        <f>_xlfn.TEXTJOIN(" ",TRUE,A29, "minimum growth rate of",B29)</f>
+        <v>RSD minimum growth rate of DistrictHeat</v>
       </c>
     </row>
     <row r="15" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B15" s="2" t="str">
-        <f>_xlfn.TEXTJOIN("_",TRUE,"UC",A31,"MaxGrowth",B31)</f>
-        <v>UC_RSD_MaxGrowth_Gas</v>
+        <f t="shared" ref="B15:B16" si="0">_xlfn.TEXTJOIN("_",TRUE,"UC",A30,"MaxGrowth",B30)</f>
+        <v>UC_RSD_MaxGrowth_LPG</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>144</v>
       </c>
       <c r="D15" s="2"/>
       <c r="F15" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="G15" s="2" t="s">
         <v>142</v>
@@ -7074,35 +7074,35 @@
         <v>15</v>
       </c>
       <c r="J15" s="29">
-        <f>1+C31</f>
-        <v>1.0249999999999999</v>
+        <f t="shared" ref="J15:J16" si="1">1+C30</f>
+        <v>1.01</v>
       </c>
       <c r="K15" s="2">
         <v>1</v>
       </c>
       <c r="L15" s="16">
-        <f>-D31</f>
-        <v>-0.1</v>
+        <f t="shared" ref="L15:L16" si="2">-D30</f>
+        <v>0</v>
       </c>
       <c r="M15" s="2">
         <v>5</v>
       </c>
       <c r="N15" s="2" t="str">
-        <f>_xlfn.TEXTJOIN(" ",TRUE,A31, "maximum growth rate of",B31)</f>
-        <v>RSD maximum growth rate of Gas</v>
+        <f t="shared" ref="N15:N16" si="3">_xlfn.TEXTJOIN(" ",TRUE,A30, "maximum growth rate of",B30)</f>
+        <v>RSD maximum growth rate of LPG</v>
       </c>
     </row>
     <row r="16" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B16" s="2" t="str">
-        <f>_xlfn.TEXTJOIN("_",TRUE,"UC",A32,"MinGrowth",B32)</f>
-        <v>UC_RSD_MinGrowth_DistrictHeat</v>
+        <f t="shared" si="0"/>
+        <v>UC_RSD_MaxGrowth_Kerosene</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>144</v>
       </c>
       <c r="D16" s="2"/>
       <c r="F16" t="s">
-        <v>221</v>
+        <v>211</v>
       </c>
       <c r="G16" s="2" t="s">
         <v>142</v>
@@ -7111,38 +7111,38 @@
         <v>2021</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>185</v>
+        <v>15</v>
       </c>
       <c r="J16" s="29">
-        <f>1+C32</f>
-        <v>1.095</v>
+        <f t="shared" si="1"/>
+        <v>1.01</v>
       </c>
       <c r="K16" s="2">
         <v>1</v>
       </c>
       <c r="L16" s="16">
-        <f>-D33</f>
+        <f t="shared" si="2"/>
         <v>-0.1</v>
       </c>
       <c r="M16" s="2">
         <v>5</v>
       </c>
       <c r="N16" s="2" t="str">
-        <f>_xlfn.TEXTJOIN(" ",TRUE,A32, "minimum growth rate of",B32)</f>
-        <v>RSD minimum growth rate of DistrictHeat</v>
+        <f t="shared" si="3"/>
+        <v>RSD maximum growth rate of Kerosene</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B17" s="2" t="str">
-        <f t="shared" ref="B17:B18" si="0">_xlfn.TEXTJOIN("_",TRUE,"UC",A33,"MaxGrowth",B33)</f>
-        <v>UC_RSD_MaxGrowth_LPG</v>
+        <f>_xlfn.TEXTJOIN("_",TRUE,"UC",A32,"MaxGrowth",B32)</f>
+        <v>UC_RSD_MaxGrowth_Solar</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>144</v>
       </c>
       <c r="D17" s="2"/>
       <c r="F17" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="G17" s="2" t="s">
         <v>142</v>
@@ -7154,35 +7154,35 @@
         <v>15</v>
       </c>
       <c r="J17" s="29">
-        <f t="shared" ref="J17:J18" si="1">1+C33</f>
-        <v>1.0249999999999999</v>
+        <f>1+C32</f>
+        <v>1.1499999999999999</v>
       </c>
       <c r="K17" s="2">
         <v>1</v>
       </c>
       <c r="L17" s="16">
-        <f t="shared" ref="L17:L18" si="2">-D33</f>
-        <v>-0.1</v>
+        <f>-D32</f>
+        <v>-0.2</v>
       </c>
       <c r="M17" s="2">
         <v>5</v>
       </c>
       <c r="N17" s="2" t="str">
-        <f t="shared" ref="N17:N18" si="3">_xlfn.TEXTJOIN(" ",TRUE,A33, "maximum growth rate of",B33)</f>
-        <v>RSD maximum growth rate of LPG</v>
+        <f>_xlfn.TEXTJOIN(" ",TRUE,A32, "maximum growth rate of",B32)</f>
+        <v>RSD maximum growth rate of Solar</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B18" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>UC_RSD_MaxGrowth_Kerosene</v>
+        <f>_xlfn.TEXTJOIN("_",TRUE,"UC",A32,"MinGrowth",B32)</f>
+        <v>UC_RSD_MinGrowth_Solar</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>144</v>
       </c>
       <c r="D18" s="2"/>
       <c r="F18" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="G18" s="2" t="s">
         <v>142</v>
@@ -7191,153 +7191,75 @@
         <v>2021</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>15</v>
+        <v>185</v>
       </c>
       <c r="J18" s="29">
-        <f t="shared" si="1"/>
-        <v>1.01</v>
+        <f>1+C32/10</f>
+        <v>1.0149999999999999</v>
       </c>
       <c r="K18" s="2">
         <v>1</v>
       </c>
       <c r="L18" s="16">
-        <f t="shared" si="2"/>
-        <v>-0.1</v>
+        <f>-D32</f>
+        <v>-0.2</v>
       </c>
       <c r="M18" s="2">
         <v>5</v>
       </c>
       <c r="N18" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>RSD maximum growth rate of Kerosene</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B19" s="2" t="str">
-        <f>_xlfn.TEXTJOIN("_",TRUE,"UC",A34,"MaxDegrowth",B34)</f>
-        <v>UC_RSD_MaxDegrowth_Kerosene</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="D19" s="2"/>
-      <c r="F19" t="s">
-        <v>211</v>
-      </c>
-      <c r="G19" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="H19" s="2">
-        <v>2021</v>
-      </c>
-      <c r="I19" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="J19" s="29">
-        <f>1-C34*30</f>
-        <v>0.7</v>
-      </c>
-      <c r="K19" s="2">
-        <v>1</v>
-      </c>
-      <c r="L19" s="16">
-        <f>-D34</f>
-        <v>-0.1</v>
-      </c>
-      <c r="M19" s="2">
-        <v>5</v>
-      </c>
-      <c r="N19" s="2" t="str">
-        <f>_xlfn.TEXTJOIN(" ",TRUE,A34, "maximum degrowth rate of",B34)</f>
-        <v>RSD maximum degrowth rate of Kerosene</v>
+        <f>_xlfn.TEXTJOIN(" ",TRUE,A32, "minimum growth rate of",B32)</f>
+        <v>RSD minimum growth rate of Solar</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B20" s="2" t="str">
-        <f>_xlfn.TEXTJOIN("_",TRUE,"UC",A35,"MaxGrowth",B35)</f>
-        <v>UC_RSD_MaxGrowth_Solar</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="D20" s="2"/>
-      <c r="F20" t="s">
-        <v>212</v>
-      </c>
-      <c r="G20" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="H20" s="2">
-        <v>2021</v>
-      </c>
-      <c r="I20" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="J20" s="29">
-        <f>1+C35</f>
-        <v>1.1499999999999999</v>
-      </c>
-      <c r="K20" s="2">
-        <v>1</v>
-      </c>
-      <c r="L20" s="16">
-        <f>-D35</f>
-        <v>-0.2</v>
-      </c>
-      <c r="M20" s="2">
-        <v>5</v>
-      </c>
-      <c r="N20" s="2" t="str">
-        <f>_xlfn.TEXTJOIN(" ",TRUE,A35, "maximum growth rate of",B35)</f>
-        <v>RSD maximum growth rate of Solar</v>
+      <c r="C20" t="s">
+        <v>117</v>
+      </c>
+      <c r="D20" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B21" s="2" t="str">
-        <f>_xlfn.TEXTJOIN("_",TRUE,"UC",A35,"MinGrowth",B35)</f>
-        <v>UC_RSD_MinGrowth_Solar</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="D21" s="2"/>
-      <c r="F21" t="s">
-        <v>212</v>
-      </c>
-      <c r="G21" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="H21" s="2">
-        <v>2021</v>
-      </c>
-      <c r="I21" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="J21" s="29">
-        <f>1+C35/10</f>
-        <v>1.0149999999999999</v>
-      </c>
-      <c r="K21" s="2">
-        <v>1</v>
-      </c>
-      <c r="L21" s="16">
-        <f>-D35</f>
-        <v>-0.2</v>
-      </c>
-      <c r="M21" s="2">
-        <v>5</v>
-      </c>
-      <c r="N21" s="2" t="str">
-        <f>_xlfn.TEXTJOIN(" ",TRUE,A35, "minimum growth rate of",B35)</f>
-        <v>RSD minimum growth rate of Solar</v>
+      <c r="A21" t="s">
+        <v>194</v>
+      </c>
+      <c r="B21" t="s">
+        <v>190</v>
+      </c>
+      <c r="C21" s="50">
+        <v>0.5</v>
+      </c>
+      <c r="D21">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>194</v>
+      </c>
+      <c r="B22" t="s">
+        <v>196</v>
+      </c>
+      <c r="C22" s="50">
+        <v>0.02</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="C23" t="s">
-        <v>117</v>
-      </c>
-      <c r="D23" t="s">
-        <v>189</v>
+      <c r="A23" t="s">
+        <v>194</v>
+      </c>
+      <c r="B23" t="s">
+        <v>137</v>
+      </c>
+      <c r="C23" s="50">
+        <v>0.02</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
@@ -7345,13 +7267,13 @@
         <v>194</v>
       </c>
       <c r="B24" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="C24" s="50">
-        <v>0.25</v>
+        <v>0.01</v>
       </c>
       <c r="D24">
-        <v>0.3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
@@ -7359,10 +7281,10 @@
         <v>194</v>
       </c>
       <c r="B25" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="C25" s="50">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="D25">
         <v>0</v>
@@ -7373,13 +7295,13 @@
         <v>194</v>
       </c>
       <c r="B26" t="s">
-        <v>137</v>
+        <v>199</v>
       </c>
       <c r="C26" s="50">
-        <v>0.02</v>
+        <v>0.3</v>
       </c>
       <c r="D26">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
@@ -7387,13 +7309,13 @@
         <v>194</v>
       </c>
       <c r="B27" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="C27" s="50">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="D27">
-        <v>0.3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
@@ -7401,13 +7323,13 @@
         <v>194</v>
       </c>
       <c r="B28" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="C28" s="50">
-        <v>0.01</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="D28">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
@@ -7415,13 +7337,13 @@
         <v>194</v>
       </c>
       <c r="B29" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="C29" s="50">
-        <v>0.2</v>
+        <v>0.09</v>
       </c>
       <c r="D29">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
@@ -7429,10 +7351,10 @@
         <v>194</v>
       </c>
       <c r="B30" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C30" s="50">
-        <v>0.1</v>
+        <v>0.01</v>
       </c>
       <c r="D30">
         <v>0</v>
@@ -7443,10 +7365,10 @@
         <v>194</v>
       </c>
       <c r="B31" t="s">
-        <v>192</v>
+        <v>202</v>
       </c>
       <c r="C31" s="50">
-        <v>2.5000000000000001E-2</v>
+        <v>0.01</v>
       </c>
       <c r="D31">
         <v>0.1</v>
@@ -7457,105 +7379,63 @@
         <v>194</v>
       </c>
       <c r="B32" t="s">
-        <v>191</v>
+        <v>203</v>
       </c>
       <c r="C32" s="50">
-        <v>9.5000000000000001E-2</v>
+        <v>0.15</v>
       </c>
       <c r="D32">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>194</v>
-      </c>
-      <c r="B33" t="s">
-        <v>201</v>
-      </c>
-      <c r="C33" s="50">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="D33">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>194</v>
-      </c>
-      <c r="B34" t="s">
-        <v>202</v>
-      </c>
-      <c r="C34" s="50">
-        <v>0.01</v>
-      </c>
-      <c r="D34">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>194</v>
-      </c>
-      <c r="B35" t="s">
-        <v>203</v>
-      </c>
-      <c r="C35" s="50">
-        <v>0.15</v>
-      </c>
-      <c r="D35">
         <v>0.2</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B38" s="45" t="s">
+    <row r="35" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B35" s="45" t="s">
         <v>213</v>
       </c>
-      <c r="H38" s="46"/>
-    </row>
-    <row r="39" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B39" s="47" t="s">
+      <c r="H35" s="46"/>
+    </row>
+    <row r="36" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B36" s="47" t="s">
         <v>214</v>
       </c>
-      <c r="C39" s="47" t="s">
+      <c r="C36" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="D39" s="47" t="s">
+      <c r="D36" s="47" t="s">
         <v>215</v>
       </c>
-      <c r="E39" s="47" t="s">
+      <c r="E36" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="F39" s="48" t="str">
+      <c r="F36" s="48" t="str">
         <f>IF([1]Regions!C$3&lt;&gt;"",[1]Regions!C$3,"*")</f>
         <v>IE</v>
       </c>
-      <c r="G39" s="48" t="str">
+      <c r="G36" s="48" t="str">
         <f>IF([1]Regions!C$3&lt;&gt;"",[1]Regions!D$3,"*")</f>
         <v>National</v>
       </c>
-      <c r="H39" s="49" t="s">
+      <c r="H36" s="49" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D40" t="s">
+    <row r="37" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D37" t="s">
         <v>217</v>
       </c>
-      <c r="E40">
+      <c r="E37">
         <v>2018</v>
       </c>
-      <c r="F40">
+      <c r="F37">
         <v>2222</v>
       </c>
-      <c r="G40">
-        <f>F40</f>
+      <c r="G37">
+        <f>F37</f>
         <v>2222</v>
       </c>
-      <c r="H40" t="str">
-        <f xml:space="preserve"> _xlfn.TEXTJOIN(",",TRUE,F6:F21)</f>
-        <v>RSDAHT,RSDAHT2,RSDBDL,RSDWOO,RSDCOA,RSDCOA,RSDPEA,RSDPEA,RSDELC,RSDETH,RSDGAS,RSDHET*,RSDLPG,RSDKER,RSDKER,RSDSOL,RSDSOL</v>
+      <c r="H37" t="str">
+        <f xml:space="preserve"> _xlfn.TEXTJOIN(",",TRUE,F6:F18)</f>
+        <v>RSDAHT,RSDAHT2,RSDBDL,RSDWOO,RSDCOA,RSDPEA,RSDELC,RSDETH,RSDGAS,RSDHET*,RSDLPG,RSDKER,RSDSOL,RSDSOL</v>
       </c>
     </row>
   </sheetData>
@@ -7568,8 +7448,8 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A2:N26"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K22" sqref="K22"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7784,7 +7664,7 @@
       </c>
       <c r="J8" s="29">
         <f>1+C18</f>
-        <v>1.25</v>
+        <v>1.5</v>
       </c>
       <c r="K8" s="2">
         <v>1</v>
@@ -7824,14 +7704,14 @@
       </c>
       <c r="J9" s="29">
         <f t="shared" ref="J9:J11" si="1">1+C19</f>
-        <v>1.03</v>
+        <v>1.2</v>
       </c>
       <c r="K9" s="2">
         <v>1</v>
       </c>
       <c r="L9" s="16">
         <f t="shared" ref="L9:L10" si="2">-D19</f>
-        <v>0</v>
+        <v>-0.3</v>
       </c>
       <c r="M9" s="2">
         <v>5</v>
@@ -7864,14 +7744,14 @@
       </c>
       <c r="J10" s="29">
         <f t="shared" si="1"/>
-        <v>1.1499999999999999</v>
+        <v>1.03</v>
       </c>
       <c r="K10" s="2">
         <v>1</v>
       </c>
       <c r="L10" s="16">
         <f t="shared" si="2"/>
-        <v>-0.3</v>
+        <v>0</v>
       </c>
       <c r="M10" s="2">
         <v>5</v>
@@ -7904,14 +7784,14 @@
       </c>
       <c r="J11" s="29">
         <f t="shared" si="1"/>
-        <v>1.1499999999999999</v>
+        <v>1.3</v>
       </c>
       <c r="K11" s="2">
         <v>1</v>
       </c>
       <c r="L11" s="16">
         <f>-D21</f>
-        <v>-0.2</v>
+        <v>-0.3</v>
       </c>
       <c r="M11" s="2">
         <v>5</v>
@@ -7944,14 +7824,14 @@
       </c>
       <c r="J12" s="29">
         <f>1+C21/10</f>
-        <v>1.0149999999999999</v>
+        <v>1.03</v>
       </c>
       <c r="K12" s="2">
         <v>1</v>
       </c>
       <c r="L12" s="16">
         <f>-D21</f>
-        <v>-0.2</v>
+        <v>-0.3</v>
       </c>
       <c r="M12" s="2">
         <v>5</v>
@@ -7984,14 +7864,14 @@
       </c>
       <c r="J13" s="29">
         <f>1+C22</f>
-        <v>1.03</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="K13" s="2">
         <v>1</v>
       </c>
       <c r="L13" s="16">
         <f>-D22</f>
-        <v>-0.1</v>
+        <v>-0.2</v>
       </c>
       <c r="M13" s="2">
         <v>5</v>
@@ -8058,7 +7938,7 @@
         <v>190</v>
       </c>
       <c r="C18" s="50">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="D18">
         <v>0.3</v>
@@ -8072,10 +7952,10 @@
         <v>192</v>
       </c>
       <c r="C19" s="50">
-        <v>0.03</v>
+        <v>0.2</v>
       </c>
       <c r="D19">
-        <v>0</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
@@ -8086,10 +7966,10 @@
         <v>199</v>
       </c>
       <c r="C20" s="50">
-        <v>0.15</v>
+        <v>0.03</v>
       </c>
       <c r="D20">
-        <v>0.3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
@@ -8100,10 +7980,10 @@
         <v>203</v>
       </c>
       <c r="C21" s="50">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="D21">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
@@ -8114,10 +7994,18 @@
         <v>201</v>
       </c>
       <c r="C22" s="50">
-        <v>0.03</v>
+        <v>0.15</v>
       </c>
       <c r="D22">
-        <v>0.1</v>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C23" s="50">
+        <v>0.01</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
@@ -9840,6 +9728,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010087B74FDAF7A4FB4D876E5EA45926113E" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="7c45a71fd69a7f965f9452dfe567e395">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="3a32fc56-8470-4d77-ad86-bef2a7229878" xmlns:ns3="af10b6eb-1b35-481e-9f8a-8ff8d968e3bf" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e11456b9df302c9cdeb068d2abd9c51d" ns2:_="" ns3:_="">
     <xsd:import namespace="3a32fc56-8470-4d77-ad86-bef2a7229878"/>
@@ -10050,15 +9947,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -10066,6 +9954,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{62402F5C-4915-4658-8F60-3A11655231DF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{00FA9C21-6103-4373-B43A-A6097DCED766}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -10084,14 +9980,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{62402F5C-4915-4658-8F60-3A11655231DF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BB3709B4-63F5-4DFC-B992-07B9DE433FAB}">
   <ds:schemaRefs>

--- a/SuppXLS/Scen_B_SYS_MaxGrowthRates_DHPlus.xlsx
+++ b/SuppXLS/Scen_B_SYS_MaxGrowthRates_DHPlus.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git_TIMES Models\Irish-TIMES-model\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E0ECCE4-8775-441E-91D2-A2B92DCE0DA3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F844D561-4524-4D21-A780-33B34BDA28B5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{39DC52AD-7AD8-48BE-9D85-AA1C40791A2D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{39DC52AD-7AD8-48BE-9D85-AA1C40791A2D}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="6" r:id="rId1"/>
@@ -5935,7 +5935,7 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A2:N29"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
@@ -6581,7 +6581,7 @@
   <dimension ref="A2:N37"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
+      <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6694,7 +6694,7 @@
     </row>
     <row r="6" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="str">
-        <f>_xlfn.TEXTJOIN("_",TRUE,"UC",A21,"MaxGrowth",B21)</f>
+        <f t="shared" ref="B6:B13" si="0">_xlfn.TEXTJOIN("_",TRUE,"UC",A21,"MaxGrowth",B21)</f>
         <v>UC_RSD_MaxGrowth_AmbientHeat</v>
       </c>
       <c r="C6" s="2" t="s">
@@ -6714,7 +6714,7 @@
         <v>15</v>
       </c>
       <c r="J6" s="29">
-        <f>1+C21</f>
+        <f t="shared" ref="J6:J14" si="1">1+C21</f>
         <v>1.5</v>
       </c>
       <c r="K6" s="2">
@@ -6734,7 +6734,7 @@
     </row>
     <row r="7" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B7" s="2" t="str">
-        <f>_xlfn.TEXTJOIN("_",TRUE,"UC",A22,"MaxGrowth",B22)</f>
+        <f t="shared" si="0"/>
         <v>UC_RSD_MaxGrowth_Biodiesel</v>
       </c>
       <c r="C7" s="2" t="s">
@@ -6754,7 +6754,7 @@
         <v>15</v>
       </c>
       <c r="J7" s="29">
-        <f>1+C22</f>
+        <f t="shared" si="1"/>
         <v>1.02</v>
       </c>
       <c r="K7" s="2">
@@ -6774,7 +6774,7 @@
     </row>
     <row r="8" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B8" s="2" t="str">
-        <f>_xlfn.TEXTJOIN("_",TRUE,"UC",A23,"MaxGrowth",B23)</f>
+        <f t="shared" si="0"/>
         <v>UC_RSD_MaxGrowth_Biomass</v>
       </c>
       <c r="C8" s="2" t="s">
@@ -6794,27 +6794,27 @@
         <v>15</v>
       </c>
       <c r="J8" s="29">
-        <f>1+C23</f>
+        <f t="shared" si="1"/>
         <v>1.02</v>
       </c>
       <c r="K8" s="2">
         <v>1</v>
       </c>
       <c r="L8" s="16">
-        <f>-D23</f>
+        <f t="shared" ref="L8:L13" si="2">-D23</f>
         <v>0</v>
       </c>
       <c r="M8" s="2">
         <v>5</v>
       </c>
       <c r="N8" s="2" t="str">
-        <f>_xlfn.TEXTJOIN(" ",TRUE,A23, "maximum growth rate of",B23)</f>
+        <f t="shared" ref="N8:N13" si="3">_xlfn.TEXTJOIN(" ",TRUE,A23, "maximum growth rate of",B23)</f>
         <v>RSD maximum growth rate of Biomass</v>
       </c>
     </row>
     <row r="9" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B9" s="2" t="str">
-        <f>_xlfn.TEXTJOIN("_",TRUE,"UC",A24,"MaxGrowth",B24)</f>
+        <f t="shared" si="0"/>
         <v>UC_RSD_MaxGrowth_Coal</v>
       </c>
       <c r="C9" s="2" t="s">
@@ -6834,27 +6834,27 @@
         <v>15</v>
       </c>
       <c r="J9" s="29">
-        <f>1+C24</f>
+        <f t="shared" si="1"/>
         <v>1.01</v>
       </c>
       <c r="K9" s="2">
         <v>1</v>
       </c>
       <c r="L9" s="16">
-        <f>-D24</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M9" s="2">
         <v>5</v>
       </c>
       <c r="N9" s="2" t="str">
-        <f>_xlfn.TEXTJOIN(" ",TRUE,A24, "maximum growth rate of",B24)</f>
+        <f t="shared" si="3"/>
         <v>RSD maximum growth rate of Coal</v>
       </c>
     </row>
     <row r="10" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B10" s="2" t="str">
-        <f>_xlfn.TEXTJOIN("_",TRUE,"UC",A25,"MaxGrowth",B25)</f>
+        <f t="shared" si="0"/>
         <v>UC_RSD_MaxGrowth_Peat</v>
       </c>
       <c r="C10" s="2" t="s">
@@ -6874,27 +6874,27 @@
         <v>15</v>
       </c>
       <c r="J10" s="29">
-        <f>1+C25</f>
+        <f t="shared" si="1"/>
         <v>1.01</v>
       </c>
       <c r="K10" s="2">
         <v>1</v>
       </c>
       <c r="L10" s="16">
-        <f>-D25</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M10" s="2">
         <v>5</v>
       </c>
       <c r="N10" s="2" t="str">
-        <f>_xlfn.TEXTJOIN(" ",TRUE,A25, "maximum growth rate of",B25)</f>
+        <f t="shared" si="3"/>
         <v>RSD maximum growth rate of Peat</v>
       </c>
     </row>
     <row r="11" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B11" s="2" t="str">
-        <f>_xlfn.TEXTJOIN("_",TRUE,"UC",A26,"MaxGrowth",B26)</f>
+        <f t="shared" si="0"/>
         <v>UC_RSD_MaxGrowth_Electricity</v>
       </c>
       <c r="C11" s="2" t="s">
@@ -6914,27 +6914,27 @@
         <v>15</v>
       </c>
       <c r="J11" s="29">
-        <f>1+C26</f>
+        <f t="shared" si="1"/>
         <v>1.3</v>
       </c>
       <c r="K11" s="2">
         <v>1</v>
       </c>
       <c r="L11" s="16">
-        <f>-D26</f>
+        <f t="shared" si="2"/>
         <v>-0.1</v>
       </c>
       <c r="M11" s="2">
         <v>5</v>
       </c>
       <c r="N11" s="2" t="str">
-        <f>_xlfn.TEXTJOIN(" ",TRUE,A26, "maximum growth rate of",B26)</f>
+        <f t="shared" si="3"/>
         <v>RSD maximum growth rate of Electricity</v>
       </c>
     </row>
     <row r="12" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B12" s="2" t="str">
-        <f>_xlfn.TEXTJOIN("_",TRUE,"UC",A27,"MaxGrowth",B27)</f>
+        <f t="shared" si="0"/>
         <v>UC_RSD_MaxGrowth_Ethanol</v>
       </c>
       <c r="C12" s="2" t="s">
@@ -6954,27 +6954,27 @@
         <v>15</v>
       </c>
       <c r="J12" s="29">
-        <f>1+C27</f>
+        <f t="shared" si="1"/>
         <v>1.1000000000000001</v>
       </c>
       <c r="K12" s="2">
         <v>1</v>
       </c>
       <c r="L12" s="16">
-        <f>-D27</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M12" s="2">
         <v>5</v>
       </c>
       <c r="N12" s="2" t="str">
-        <f>_xlfn.TEXTJOIN(" ",TRUE,A27, "maximum growth rate of",B27)</f>
+        <f t="shared" si="3"/>
         <v>RSD maximum growth rate of Ethanol</v>
       </c>
     </row>
     <row r="13" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B13" s="2" t="str">
-        <f>_xlfn.TEXTJOIN("_",TRUE,"UC",A28,"MaxGrowth",B28)</f>
+        <f t="shared" si="0"/>
         <v>UC_RSD_MaxGrowth_Gas</v>
       </c>
       <c r="C13" s="2" t="s">
@@ -6994,21 +6994,21 @@
         <v>15</v>
       </c>
       <c r="J13" s="29">
-        <f>1+C28</f>
+        <f t="shared" si="1"/>
         <v>1.0249999999999999</v>
       </c>
       <c r="K13" s="2">
         <v>1</v>
       </c>
       <c r="L13" s="16">
-        <f>-D28</f>
+        <f t="shared" si="2"/>
         <v>-0.1</v>
       </c>
       <c r="M13" s="2">
         <v>5</v>
       </c>
       <c r="N13" s="2" t="str">
-        <f>_xlfn.TEXTJOIN(" ",TRUE,A28, "maximum growth rate of",B28)</f>
+        <f t="shared" si="3"/>
         <v>RSD maximum growth rate of Gas</v>
       </c>
     </row>
@@ -7034,15 +7034,15 @@
         <v>185</v>
       </c>
       <c r="J14" s="29">
-        <f>1+C29</f>
+        <f t="shared" si="1"/>
         <v>1.0900000000000001</v>
       </c>
       <c r="K14" s="2">
         <v>1</v>
       </c>
       <c r="L14" s="16">
-        <f>-D30</f>
-        <v>0</v>
+        <f>-D29</f>
+        <v>-0.3</v>
       </c>
       <c r="M14" s="2">
         <v>5</v>
@@ -7054,7 +7054,7 @@
     </row>
     <row r="15" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B15" s="2" t="str">
-        <f t="shared" ref="B15:B16" si="0">_xlfn.TEXTJOIN("_",TRUE,"UC",A30,"MaxGrowth",B30)</f>
+        <f t="shared" ref="B15:B16" si="4">_xlfn.TEXTJOIN("_",TRUE,"UC",A30,"MaxGrowth",B30)</f>
         <v>UC_RSD_MaxGrowth_LPG</v>
       </c>
       <c r="C15" s="2" t="s">
@@ -7074,27 +7074,27 @@
         <v>15</v>
       </c>
       <c r="J15" s="29">
-        <f t="shared" ref="J15:J16" si="1">1+C30</f>
+        <f t="shared" ref="J15:J16" si="5">1+C30</f>
         <v>1.01</v>
       </c>
       <c r="K15" s="2">
         <v>1</v>
       </c>
       <c r="L15" s="16">
-        <f t="shared" ref="L15:L16" si="2">-D30</f>
+        <f t="shared" ref="L15:L16" si="6">-D30</f>
         <v>0</v>
       </c>
       <c r="M15" s="2">
         <v>5</v>
       </c>
       <c r="N15" s="2" t="str">
-        <f t="shared" ref="N15:N16" si="3">_xlfn.TEXTJOIN(" ",TRUE,A30, "maximum growth rate of",B30)</f>
+        <f t="shared" ref="N15:N16" si="7">_xlfn.TEXTJOIN(" ",TRUE,A30, "maximum growth rate of",B30)</f>
         <v>RSD maximum growth rate of LPG</v>
       </c>
     </row>
     <row r="16" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B16" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>UC_RSD_MaxGrowth_Kerosene</v>
       </c>
       <c r="C16" s="2" t="s">
@@ -7114,21 +7114,21 @@
         <v>15</v>
       </c>
       <c r="J16" s="29">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>1.01</v>
       </c>
       <c r="K16" s="2">
         <v>1</v>
       </c>
       <c r="L16" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>-0.1</v>
       </c>
       <c r="M16" s="2">
         <v>5</v>
       </c>
       <c r="N16" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>RSD maximum growth rate of Kerosene</v>
       </c>
     </row>
@@ -7448,7 +7448,7 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A2:N26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
@@ -9728,12 +9728,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -9948,15 +9945,19 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{62402F5C-4915-4658-8F60-3A11655231DF}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BB3709B4-63F5-4DFC-B992-07B9DE433FAB}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -9981,10 +9982,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BB3709B4-63F5-4DFC-B992-07B9DE433FAB}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{62402F5C-4915-4658-8F60-3A11655231DF}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/SuppXLS/Scen_B_SYS_MaxGrowthRates_DHPlus.xlsx
+++ b/SuppXLS/Scen_B_SYS_MaxGrowthRates_DHPlus.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git_TIMES Models\Irish-TIMES-model\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F844D561-4524-4D21-A780-33B34BDA28B5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72CB9BFE-A3ED-4AE8-822F-D95678B1F041}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{39DC52AD-7AD8-48BE-9D85-AA1C40791A2D}"/>
+    <workbookView xWindow="-60" yWindow="-16320" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{39DC52AD-7AD8-48BE-9D85-AA1C40791A2D}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="6" r:id="rId1"/>
@@ -5933,10 +5933,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43B92B0C-7472-4C75-A119-CE0EE6C8A8E0}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A2:N29"/>
+  <dimension ref="A2:N30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6439,84 +6439,61 @@
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2" t="s">
+      <c r="C24" s="11"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G24" s="2"/>
-      <c r="H24" s="2"/>
-      <c r="I24" s="2"/>
-      <c r="J24" s="2"/>
-      <c r="K24" s="2"/>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B25" s="4" t="s">
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2"/>
+      <c r="J25" s="2"/>
+      <c r="K25" s="2"/>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B26" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C25" s="14" t="s">
+      <c r="C26" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="D25" s="14" t="s">
+      <c r="D26" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="E25" s="15" t="s">
+      <c r="E26" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="F25" s="15" t="s">
+      <c r="F26" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="G25" s="4" t="s">
+      <c r="G26" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="H25" s="4" t="s">
+      <c r="H26" s="4" t="s">
         <v>182</v>
       </c>
-      <c r="I25" s="4" t="s">
+      <c r="I26" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="J25" s="4" t="s">
+      <c r="J26" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B26" s="2" t="s">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B27" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="E26" s="2">
-        <v>2019</v>
-      </c>
-      <c r="F26" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="G26" s="26">
-        <f>1+$C31</f>
-        <v>1</v>
-      </c>
-      <c r="H26" s="16">
-        <v>0.6</v>
-      </c>
-      <c r="I26" s="2">
-        <v>3</v>
-      </c>
-      <c r="J26" s="2" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B27" s="2"/>
       <c r="C27" s="2"/>
       <c r="D27" s="2" t="s">
         <v>154</v>
       </c>
       <c r="E27" s="2">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>185</v>
@@ -6526,48 +6503,74 @@
         <v>1</v>
       </c>
       <c r="H27" s="16">
-        <v>0.5</v>
-      </c>
-      <c r="I27" s="2"/>
-      <c r="J27" s="2"/>
+        <v>0.6</v>
+      </c>
+      <c r="I27" s="2">
+        <v>3</v>
+      </c>
+      <c r="J27" s="2" t="s">
+        <v>183</v>
+      </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B28" s="2" t="s">
-        <v>180</v>
-      </c>
+      <c r="B28" s="2"/>
       <c r="C28" s="2"/>
       <c r="D28" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="E28">
-        <v>2026</v>
+        <v>154</v>
+      </c>
+      <c r="E28" s="2">
+        <v>2020</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>185</v>
       </c>
       <c r="G28" s="26">
-        <f>1+$C32</f>
+        <f>1+$C33</f>
         <v>1</v>
       </c>
       <c r="H28" s="16">
-        <v>1</v>
-      </c>
-      <c r="I28" s="2">
-        <v>3</v>
-      </c>
-      <c r="J28" s="2" t="s">
-        <v>184</v>
-      </c>
+        <v>0.5</v>
+      </c>
+      <c r="I28" s="2"/>
+      <c r="J28" s="2"/>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D29" s="2"/>
+      <c r="B29" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2" t="s">
+        <v>155</v>
+      </c>
       <c r="E29">
-        <v>2027</v>
+        <v>2026</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>185</v>
       </c>
+      <c r="G29" s="26">
+        <f>1+$C33</f>
+        <v>1</v>
+      </c>
       <c r="H29" s="16">
+        <v>1</v>
+      </c>
+      <c r="I29" s="2">
+        <v>3</v>
+      </c>
+      <c r="J29" s="2" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D30" s="2"/>
+      <c r="E30">
+        <v>2027</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="H30" s="16">
         <v>2</v>
       </c>
     </row>
@@ -7446,10 +7449,10 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F5F46D0-BFBE-459D-AD94-C3EBC85EC70F}">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A2:N26"/>
+  <dimension ref="A2:N27"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7704,14 +7707,14 @@
       </c>
       <c r="J9" s="29">
         <f t="shared" ref="J9:J11" si="1">1+C19</f>
-        <v>1.2</v>
+        <v>1.03</v>
       </c>
       <c r="K9" s="2">
         <v>1</v>
       </c>
       <c r="L9" s="16">
         <f t="shared" ref="L9:L10" si="2">-D19</f>
-        <v>-0.3</v>
+        <v>0</v>
       </c>
       <c r="M9" s="2">
         <v>5</v>
@@ -7744,14 +7747,14 @@
       </c>
       <c r="J10" s="29">
         <f t="shared" si="1"/>
-        <v>1.03</v>
+        <v>1.3</v>
       </c>
       <c r="K10" s="2">
         <v>1</v>
       </c>
       <c r="L10" s="16">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>-0.3</v>
       </c>
       <c r="M10" s="2">
         <v>5</v>
@@ -7784,14 +7787,14 @@
       </c>
       <c r="J11" s="29">
         <f t="shared" si="1"/>
-        <v>1.3</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="K11" s="2">
         <v>1</v>
       </c>
       <c r="L11" s="16">
         <f>-D21</f>
-        <v>-0.3</v>
+        <v>-0.2</v>
       </c>
       <c r="M11" s="2">
         <v>5</v>
@@ -7824,14 +7827,14 @@
       </c>
       <c r="J12" s="29">
         <f>1+C21/10</f>
-        <v>1.03</v>
+        <v>1.0149999999999999</v>
       </c>
       <c r="K12" s="2">
         <v>1</v>
       </c>
       <c r="L12" s="16">
         <f>-D21</f>
-        <v>-0.3</v>
+        <v>-0.2</v>
       </c>
       <c r="M12" s="2">
         <v>5</v>
@@ -7864,14 +7867,14 @@
       </c>
       <c r="J13" s="29">
         <f>1+C22</f>
-        <v>1.1499999999999999</v>
+        <v>1.01</v>
       </c>
       <c r="K13" s="2">
         <v>1</v>
       </c>
       <c r="L13" s="16">
         <f>-D22</f>
-        <v>-0.2</v>
+        <v>0</v>
       </c>
       <c r="M13" s="2">
         <v>5</v>
@@ -7952,10 +7955,10 @@
         <v>192</v>
       </c>
       <c r="C19" s="50">
-        <v>0.2</v>
+        <v>0.03</v>
       </c>
       <c r="D19">
-        <v>0.3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
@@ -7966,10 +7969,10 @@
         <v>199</v>
       </c>
       <c r="C20" s="50">
-        <v>0.03</v>
+        <v>0.3</v>
       </c>
       <c r="D20">
-        <v>0</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
@@ -7980,10 +7983,10 @@
         <v>203</v>
       </c>
       <c r="C21" s="50">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="D21">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
@@ -7994,66 +7997,61 @@
         <v>201</v>
       </c>
       <c r="C22" s="50">
-        <v>0.15</v>
+        <v>0.01</v>
       </c>
       <c r="D22">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C23" s="50">
-        <v>0.01</v>
-      </c>
-      <c r="D23">
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B24" s="45" t="s">
+      <c r="C24" s="50"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B25" s="45" t="s">
         <v>213</v>
       </c>
-      <c r="H24" s="46"/>
-    </row>
-    <row r="25" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="47" t="s">
+      <c r="H25" s="46"/>
+    </row>
+    <row r="26" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="47" t="s">
         <v>214</v>
       </c>
-      <c r="C25" s="47" t="s">
+      <c r="C26" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="D25" s="47" t="s">
+      <c r="D26" s="47" t="s">
         <v>215</v>
       </c>
-      <c r="E25" s="47" t="s">
+      <c r="E26" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="F25" s="48" t="str">
+      <c r="F26" s="48" t="str">
         <f>IF([1]Regions!C$3&lt;&gt;"",[1]Regions!C$3,"*")</f>
         <v>IE</v>
       </c>
-      <c r="G25" s="48" t="str">
+      <c r="G26" s="48" t="str">
         <f>IF([1]Regions!C$3&lt;&gt;"",[1]Regions!D$3,"*")</f>
         <v>National</v>
       </c>
-      <c r="H25" s="49" t="s">
+      <c r="H26" s="49" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D26" t="s">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D27" t="s">
         <v>217</v>
       </c>
-      <c r="E26">
+      <c r="E27">
         <v>2018</v>
       </c>
-      <c r="F26">
+      <c r="F27">
         <v>2222</v>
       </c>
-      <c r="G26">
-        <f>F26</f>
+      <c r="G27">
+        <f>F27</f>
         <v>2222</v>
       </c>
-      <c r="H26" t="str">
+      <c r="H27" t="str">
         <f xml:space="preserve"> _xlfn.TEXTJOIN(",",TRUE,F6:F9)</f>
         <v>SRVBIO,SRVBGS,SRVAHT,SRVAHT2,SRVGAS</v>
       </c>
@@ -9728,9 +9726,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -9945,19 +9946,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BB3709B4-63F5-4DFC-B992-07B9DE433FAB}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{62402F5C-4915-4658-8F60-3A11655231DF}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -9982,9 +9979,10 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{62402F5C-4915-4658-8F60-3A11655231DF}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BB3709B4-63F5-4DFC-B992-07B9DE433FAB}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/SuppXLS/Scen_B_SYS_MaxGrowthRates_DHPlus.xlsx
+++ b/SuppXLS/Scen_B_SYS_MaxGrowthRates_DHPlus.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git_TIMES Models\Irish-TIMES-model\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32024073-2F30-4A0C-8F92-59207D1A5881}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{002F669D-2C9D-439A-B87C-6CFDA981DAE9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-60" yWindow="-16320" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{39DC52AD-7AD8-48BE-9D85-AA1C40791A2D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{39DC52AD-7AD8-48BE-9D85-AA1C40791A2D}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="6" r:id="rId1"/>
@@ -6468,8 +6468,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9933FEB4-63EA-406B-A848-C3344FC12632}">
   <dimension ref="A2:N37"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M31" sqref="M31"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6923,7 +6923,7 @@
       </c>
       <c r="J14" s="29">
         <f t="shared" si="1"/>
-        <v>1.08</v>
+        <v>1.04</v>
       </c>
       <c r="K14" s="2">
         <v>1</v>
@@ -7228,7 +7228,7 @@
         <v>191</v>
       </c>
       <c r="C29" s="50">
-        <v>0.08</v>
+        <v>0.04</v>
       </c>
       <c r="D29">
         <v>0.3</v>
@@ -7336,7 +7336,7 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A2:N26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
@@ -7451,7 +7451,7 @@
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="str">
-        <f>_xlfn.TEXTJOIN("_",TRUE,"UC",A16,"MaxGrowth",B16)</f>
+        <f t="shared" ref="B6:B11" si="0">_xlfn.TEXTJOIN("_",TRUE,"UC",A16,"MaxGrowth",B16)</f>
         <v>UC_SRV_MaxGrowth_Biomass</v>
       </c>
       <c r="C6" s="2" t="s">
@@ -7471,27 +7471,27 @@
         <v>15</v>
       </c>
       <c r="J6" s="29">
-        <f>1+C16</f>
+        <f t="shared" ref="J6:J11" si="1">1+C16</f>
         <v>1.02</v>
       </c>
       <c r="K6" s="2">
         <v>1</v>
       </c>
       <c r="L6" s="16">
-        <f>-D16</f>
+        <f t="shared" ref="L6:L11" si="2">-D16</f>
         <v>-0.1</v>
       </c>
       <c r="M6" s="2">
         <v>5</v>
       </c>
       <c r="N6" s="2" t="str">
-        <f>_xlfn.TEXTJOIN(" ",TRUE,A16, "maximum growth rate of",B16)</f>
+        <f t="shared" ref="N6:N11" si="3">_xlfn.TEXTJOIN(" ",TRUE,A16, "maximum growth rate of",B16)</f>
         <v>SRV maximum growth rate of Biomass</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B7" s="2" t="str">
-        <f>_xlfn.TEXTJOIN("_",TRUE,"UC",A17,"MaxGrowth",B17)</f>
+        <f t="shared" si="0"/>
         <v>UC_SRV_MaxGrowth_Biogas</v>
       </c>
       <c r="C7" s="2" t="s">
@@ -7511,27 +7511,27 @@
         <v>15</v>
       </c>
       <c r="J7" s="29">
-        <f>1+C17</f>
+        <f t="shared" si="1"/>
         <v>1.02</v>
       </c>
       <c r="K7" s="2">
         <v>1</v>
       </c>
       <c r="L7" s="16">
-        <f>-D17</f>
+        <f t="shared" si="2"/>
         <v>-0.1</v>
       </c>
       <c r="M7" s="2">
         <v>5</v>
       </c>
       <c r="N7" s="2" t="str">
-        <f>_xlfn.TEXTJOIN(" ",TRUE,A17, "maximum growth rate of",B17)</f>
+        <f t="shared" si="3"/>
         <v>SRV maximum growth rate of Biogas</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B8" s="2" t="str">
-        <f>_xlfn.TEXTJOIN("_",TRUE,"UC",A18,"MaxGrowth",B18)</f>
+        <f t="shared" si="0"/>
         <v>UC_SRV_MaxGrowth_AmbientHeat</v>
       </c>
       <c r="C8" s="2" t="s">
@@ -7551,27 +7551,27 @@
         <v>15</v>
       </c>
       <c r="J8" s="29">
-        <f>1+C18</f>
+        <f t="shared" si="1"/>
         <v>1.5</v>
       </c>
       <c r="K8" s="2">
         <v>1</v>
       </c>
       <c r="L8" s="16">
-        <f>-D18</f>
+        <f t="shared" si="2"/>
         <v>-0.3</v>
       </c>
       <c r="M8" s="2">
         <v>5</v>
       </c>
       <c r="N8" s="2" t="str">
-        <f>_xlfn.TEXTJOIN(" ",TRUE,A18, "maximum growth rate of",B18)</f>
+        <f t="shared" si="3"/>
         <v>SRV maximum growth rate of AmbientHeat</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B9" s="2" t="str">
-        <f>_xlfn.TEXTJOIN("_",TRUE,"UC",A19,"MaxGrowth",B19)</f>
+        <f t="shared" si="0"/>
         <v>UC_SRV_MaxGrowth_Gas</v>
       </c>
       <c r="C9" s="2" t="s">
@@ -7591,27 +7591,27 @@
         <v>15</v>
       </c>
       <c r="J9" s="29">
-        <f>1+C19</f>
+        <f t="shared" si="1"/>
         <v>1.03</v>
       </c>
       <c r="K9" s="2">
         <v>1</v>
       </c>
       <c r="L9" s="16">
-        <f>-D19</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M9" s="2">
         <v>5</v>
       </c>
       <c r="N9" s="2" t="str">
-        <f>_xlfn.TEXTJOIN(" ",TRUE,A19, "maximum growth rate of",B19)</f>
+        <f t="shared" si="3"/>
         <v>SRV maximum growth rate of Gas</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B10" s="2" t="str">
-        <f>_xlfn.TEXTJOIN("_",TRUE,"UC",A20,"MaxGrowth",B20)</f>
+        <f t="shared" si="0"/>
         <v>UC_SRV_MaxGrowth_Electricity</v>
       </c>
       <c r="C10" s="2" t="s">
@@ -7631,27 +7631,27 @@
         <v>15</v>
       </c>
       <c r="J10" s="29">
-        <f>1+C20</f>
+        <f t="shared" si="1"/>
         <v>1.3</v>
       </c>
       <c r="K10" s="2">
         <v>1</v>
       </c>
       <c r="L10" s="16">
-        <f>-D20</f>
+        <f t="shared" si="2"/>
         <v>-0.3</v>
       </c>
       <c r="M10" s="2">
         <v>5</v>
       </c>
       <c r="N10" s="2" t="str">
-        <f>_xlfn.TEXTJOIN(" ",TRUE,A20, "maximum growth rate of",B20)</f>
+        <f t="shared" si="3"/>
         <v>SRV maximum growth rate of Electricity</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B11" s="2" t="str">
-        <f>_xlfn.TEXTJOIN("_",TRUE,"UC",A21,"MaxGrowth",B21)</f>
+        <f t="shared" si="0"/>
         <v>UC_SRV_MaxGrowth_Solar</v>
       </c>
       <c r="C11" s="2" t="s">
@@ -7671,21 +7671,21 @@
         <v>15</v>
       </c>
       <c r="J11" s="29">
-        <f>1+C21</f>
+        <f t="shared" si="1"/>
         <v>1.1499999999999999</v>
       </c>
       <c r="K11" s="2">
         <v>1</v>
       </c>
       <c r="L11" s="16">
-        <f>-D21</f>
+        <f t="shared" si="2"/>
         <v>-0.2</v>
       </c>
       <c r="M11" s="2">
         <v>5</v>
       </c>
       <c r="N11" s="2" t="str">
-        <f>_xlfn.TEXTJOIN(" ",TRUE,A21, "maximum growth rate of",B21)</f>
+        <f t="shared" si="3"/>
         <v>SRV maximum growth rate of Solar</v>
       </c>
     </row>
@@ -9608,6 +9608,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010087B74FDAF7A4FB4D876E5EA45926113E" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="7c45a71fd69a7f965f9452dfe567e395">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="3a32fc56-8470-4d77-ad86-bef2a7229878" xmlns:ns3="af10b6eb-1b35-481e-9f8a-8ff8d968e3bf" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e11456b9df302c9cdeb068d2abd9c51d" ns2:_="" ns3:_="">
     <xsd:import namespace="3a32fc56-8470-4d77-ad86-bef2a7229878"/>
@@ -9818,22 +9833,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{62402F5C-4915-4658-8F60-3A11655231DF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BB3709B4-63F5-4DFC-B992-07B9DE433FAB}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{00FA9C21-6103-4373-B43A-A6097DCED766}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -9850,21 +9867,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BB3709B4-63F5-4DFC-B992-07B9DE433FAB}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{62402F5C-4915-4658-8F60-3A11655231DF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/SuppXLS/Scen_B_SYS_MaxGrowthRates_DHPlus.xlsx
+++ b/SuppXLS/Scen_B_SYS_MaxGrowthRates_DHPlus.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git_TIMES Models\Irish-TIMES-model\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{002F669D-2C9D-439A-B87C-6CFDA981DAE9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80CAD987-1BF9-4D31-A138-65D738DFD5E3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{39DC52AD-7AD8-48BE-9D85-AA1C40791A2D}"/>
+    <workbookView xWindow="-60" yWindow="-16320" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{39DC52AD-7AD8-48BE-9D85-AA1C40791A2D}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="6" r:id="rId1"/>
@@ -6469,7 +6469,7 @@
   <dimension ref="A2:N37"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H27" sqref="H27"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7133,7 +7133,7 @@
         <v>0.02</v>
       </c>
       <c r="D22">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
@@ -9608,21 +9608,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010087B74FDAF7A4FB4D876E5EA45926113E" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="7c45a71fd69a7f965f9452dfe567e395">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="3a32fc56-8470-4d77-ad86-bef2a7229878" xmlns:ns3="af10b6eb-1b35-481e-9f8a-8ff8d968e3bf" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e11456b9df302c9cdeb068d2abd9c51d" ns2:_="" ns3:_="">
     <xsd:import namespace="3a32fc56-8470-4d77-ad86-bef2a7229878"/>
@@ -9833,24 +9818,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{62402F5C-4915-4658-8F60-3A11655231DF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BB3709B4-63F5-4DFC-B992-07B9DE433FAB}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{00FA9C21-6103-4373-B43A-A6097DCED766}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -9867,4 +9850,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BB3709B4-63F5-4DFC-B992-07B9DE433FAB}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{62402F5C-4915-4658-8F60-3A11655231DF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/SuppXLS/Scen_B_SYS_MaxGrowthRates_DHPlus.xlsx
+++ b/SuppXLS/Scen_B_SYS_MaxGrowthRates_DHPlus.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git_TIMES Models\Irish-TIMES-model\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80CAD987-1BF9-4D31-A138-65D738DFD5E3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C417E00-E477-44B2-8A66-F1FAB6D3B283}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-60" yWindow="-16320" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{39DC52AD-7AD8-48BE-9D85-AA1C40791A2D}"/>
+    <workbookView xWindow="3135" yWindow="-13125" windowWidth="21600" windowHeight="11385" activeTab="4" xr2:uid="{39DC52AD-7AD8-48BE-9D85-AA1C40791A2D}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="6" r:id="rId1"/>
@@ -6468,8 +6468,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9933FEB4-63EA-406B-A848-C3344FC12632}">
   <dimension ref="A2:N37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView tabSelected="1" topLeftCell="D3" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6643,14 +6643,14 @@
       </c>
       <c r="J7" s="29">
         <f>1+C22</f>
-        <v>1.02</v>
+        <v>1.0249999999999999</v>
       </c>
       <c r="K7" s="2">
         <v>1</v>
       </c>
       <c r="L7" s="16">
-        <f>-D23</f>
-        <v>0</v>
+        <f>-D22</f>
+        <v>-0.2</v>
       </c>
       <c r="M7" s="2">
         <v>5</v>
@@ -6683,7 +6683,7 @@
       </c>
       <c r="J8" s="29">
         <f>1+C23</f>
-        <v>1.02</v>
+        <v>1.0249999999999999</v>
       </c>
       <c r="K8" s="2">
         <v>1</v>
@@ -7130,10 +7130,10 @@
         <v>196</v>
       </c>
       <c r="C22" s="50">
-        <v>0.02</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="D22">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
@@ -7144,7 +7144,7 @@
         <v>137</v>
       </c>
       <c r="C23" s="50">
-        <v>0.02</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="D23">
         <v>0</v>
@@ -9608,6 +9608,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010087B74FDAF7A4FB4D876E5EA45926113E" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="7c45a71fd69a7f965f9452dfe567e395">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="3a32fc56-8470-4d77-ad86-bef2a7229878" xmlns:ns3="af10b6eb-1b35-481e-9f8a-8ff8d968e3bf" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e11456b9df302c9cdeb068d2abd9c51d" ns2:_="" ns3:_="">
     <xsd:import namespace="3a32fc56-8470-4d77-ad86-bef2a7229878"/>
@@ -9818,22 +9833,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{62402F5C-4915-4658-8F60-3A11655231DF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BB3709B4-63F5-4DFC-B992-07B9DE433FAB}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{00FA9C21-6103-4373-B43A-A6097DCED766}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -9850,21 +9867,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BB3709B4-63F5-4DFC-B992-07B9DE433FAB}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{62402F5C-4915-4658-8F60-3A11655231DF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/SuppXLS/Scen_B_SYS_MaxGrowthRates_DHPlus.xlsx
+++ b/SuppXLS/Scen_B_SYS_MaxGrowthRates_DHPlus.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git_TIMES Models\Irish-TIMES-model\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C417E00-E477-44B2-8A66-F1FAB6D3B283}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6E678D5-24D8-4E9F-8CA9-3C12758FB4CE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3135" yWindow="-13125" windowWidth="21600" windowHeight="11385" activeTab="4" xr2:uid="{39DC52AD-7AD8-48BE-9D85-AA1C40791A2D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{39DC52AD-7AD8-48BE-9D85-AA1C40791A2D}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="6" r:id="rId1"/>
@@ -171,7 +171,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="498" uniqueCount="227">
   <si>
     <t>~UC_Sets: T_E:</t>
   </si>
@@ -868,16 +868,10 @@
     <t>SRVLPG</t>
   </si>
   <si>
-    <t>DH_IND*</t>
-  </si>
-  <si>
     <t>DH_IND</t>
   </si>
   <si>
     <t>DH_SOL</t>
-  </si>
-  <si>
-    <t>DH_SOL*</t>
   </si>
 </sst>
 </file>
@@ -5818,10 +5812,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43B92B0C-7472-4C75-A119-CE0EE6C8A8E0}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A2:N30"/>
+  <dimension ref="A2:N28"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5917,7 +5911,7 @@
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="str">
-        <f t="shared" ref="B6:B9" si="0">_xlfn.TEXTJOIN("_",TRUE,"UC",A16,"MaxGrowth",B16)</f>
+        <f t="shared" ref="B6:B9" si="0">_xlfn.TEXTJOIN("_",TRUE,"UC",A14,"MaxGrowth",B14)</f>
         <v>UC_PWR_MaxGrowth_CCS</v>
       </c>
       <c r="C6" s="2" t="s">
@@ -5933,21 +5927,21 @@
         <v>15</v>
       </c>
       <c r="G6" s="26">
-        <f t="shared" ref="G6:G9" si="1">1+$C16</f>
+        <f t="shared" ref="G6:G9" si="1">1+$C14</f>
         <v>1.02</v>
       </c>
       <c r="H6" s="2">
         <v>1</v>
       </c>
       <c r="I6" s="16">
-        <f t="shared" ref="I6:I11" si="2">-D16</f>
+        <f t="shared" ref="I6:I11" si="2">-D14</f>
         <v>-0.1</v>
       </c>
       <c r="J6" s="2">
         <v>5</v>
       </c>
       <c r="K6" s="2" t="str">
-        <f t="shared" ref="K6:K11" si="3">_xlfn.TEXTJOIN(" ",TRUE,A16, "maximum growth rate of",B16)</f>
+        <f t="shared" ref="K6:K11" si="3">_xlfn.TEXTJOIN(" ",TRUE,A14, "maximum growth rate of",B14)</f>
         <v>PWR maximum growth rate of CCS</v>
       </c>
     </row>
@@ -6061,7 +6055,7 @@
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B10" s="2" t="str">
-        <f t="shared" ref="B10:B12" si="4">_xlfn.TEXTJOIN("_",TRUE,"UC",A20,"MaxGrowth",B20)</f>
+        <f>_xlfn.TEXTJOIN("_",TRUE,"UC",A18,"MaxGrowth",B18)</f>
         <v>UC_PWR_MaxGrowth_PV</v>
       </c>
       <c r="C10" s="2" t="s">
@@ -6077,7 +6071,7 @@
         <v>15</v>
       </c>
       <c r="G10" s="26">
-        <f t="shared" ref="G10:G13" si="5">1+$C20</f>
+        <f>1+$C18</f>
         <v>1.2</v>
       </c>
       <c r="H10" s="2">
@@ -6097,7 +6091,7 @@
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B11" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f>_xlfn.TEXTJOIN("_",TRUE,"UC",A19,"MaxGrowth",B19)</f>
         <v>UC_PWR_MaxGrowth_CSP</v>
       </c>
       <c r="C11" s="2" t="s">
@@ -6113,7 +6107,7 @@
         <v>15</v>
       </c>
       <c r="G11" s="26">
-        <f t="shared" si="5"/>
+        <f>1+$C19</f>
         <v>1.2</v>
       </c>
       <c r="H11" s="2">
@@ -6131,84 +6125,40 @@
         <v>PWR maximum growth rate of CSP</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B12" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>UC_PWR_MaxGrowth_DH_IND</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="E12">
-        <v>2018</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G12" s="26">
-        <f t="shared" si="5"/>
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="H12" s="2">
-        <v>1</v>
-      </c>
-      <c r="I12" s="16">
-        <f t="shared" ref="I12" si="6">-D22</f>
-        <v>-0.1</v>
-      </c>
-      <c r="J12" s="2">
-        <v>5</v>
-      </c>
-      <c r="K12" s="2" t="str">
-        <f t="shared" ref="K12" si="7">_xlfn.TEXTJOIN(" ",TRUE,A22, "maximum growth rate of",B22)</f>
-        <v>PWR maximum growth rate of DH_IND</v>
-      </c>
-    </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B13" s="2" t="str">
-        <f t="shared" ref="B13" si="8">_xlfn.TEXTJOIN("_",TRUE,"UC",A23,"MaxGrowth",B23)</f>
-        <v>UC_PWR_MaxGrowth_DH_SOL</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="E13">
-        <v>2018</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G13" s="26">
-        <f t="shared" si="5"/>
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="H13" s="2">
-        <v>1</v>
-      </c>
-      <c r="I13" s="16">
-        <f t="shared" ref="I13" si="9">-D23</f>
-        <v>-0.1</v>
-      </c>
-      <c r="J13" s="2">
-        <v>5</v>
-      </c>
-      <c r="K13" s="2" t="str">
-        <f t="shared" ref="K13" si="10">_xlfn.TEXTJOIN(" ",TRUE,A23, "maximum growth rate of",B23)</f>
-        <v>PWR maximum growth rate of DH_SOL</v>
+      <c r="C13" t="s">
+        <v>117</v>
+      </c>
+      <c r="D13" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>128</v>
+      </c>
+      <c r="B14" t="s">
+        <v>124</v>
+      </c>
+      <c r="C14" s="50">
+        <v>0.02</v>
+      </c>
+      <c r="D14">
+        <v>0.1</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="C15" t="s">
-        <v>117</v>
-      </c>
-      <c r="D15" t="s">
-        <v>119</v>
+      <c r="A15" t="s">
+        <v>128</v>
+      </c>
+      <c r="B15" t="s">
+        <v>125</v>
+      </c>
+      <c r="C15" s="11">
+        <v>0.2</v>
+      </c>
+      <c r="D15">
+        <v>0.4</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
@@ -6216,10 +6166,10 @@
         <v>128</v>
       </c>
       <c r="B16" t="s">
-        <v>124</v>
-      </c>
-      <c r="C16" s="50">
-        <v>0.02</v>
+        <v>126</v>
+      </c>
+      <c r="C16" s="11">
+        <v>0.2</v>
       </c>
       <c r="D16">
         <v>0.1</v>
@@ -6230,13 +6180,13 @@
         <v>128</v>
       </c>
       <c r="B17" t="s">
-        <v>125</v>
+        <v>160</v>
       </c>
       <c r="C17" s="11">
         <v>0.2</v>
       </c>
       <c r="D17">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
@@ -6244,13 +6194,13 @@
         <v>128</v>
       </c>
       <c r="B18" t="s">
-        <v>126</v>
+        <v>156</v>
       </c>
       <c r="C18" s="11">
         <v>0.2</v>
       </c>
       <c r="D18">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
@@ -6258,7 +6208,7 @@
         <v>128</v>
       </c>
       <c r="B19" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C19" s="11">
         <v>0.2</v>
@@ -6272,13 +6222,13 @@
         <v>128</v>
       </c>
       <c r="B20" t="s">
-        <v>156</v>
+        <v>225</v>
       </c>
       <c r="C20" s="11">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="D20">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
@@ -6286,176 +6236,148 @@
         <v>128</v>
       </c>
       <c r="B21" t="s">
-        <v>157</v>
+        <v>226</v>
       </c>
       <c r="C21" s="11">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="D21">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C22" s="11"/>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2"/>
+      <c r="K23" s="2"/>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B24" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C24" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="D24" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="E24" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="F24" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="G24" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="H24" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="I24" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="J24" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B25" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="E25" s="2">
+        <v>2019</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="G25" s="26">
+        <f>1+$C30</f>
+        <v>1</v>
+      </c>
+      <c r="H25" s="16">
+        <v>0.6</v>
+      </c>
+      <c r="I25" s="2">
+        <v>3</v>
+      </c>
+      <c r="J25" s="2" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="E26" s="2">
+        <v>2020</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="G26" s="26">
+        <f>1+$C31</f>
+        <v>1</v>
+      </c>
+      <c r="H26" s="16">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>128</v>
-      </c>
-      <c r="B22" t="s">
-        <v>226</v>
-      </c>
-      <c r="C22" s="11">
-        <v>0.1</v>
-      </c>
-      <c r="D22">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>128</v>
-      </c>
-      <c r="B23" t="s">
-        <v>227</v>
-      </c>
-      <c r="C23" s="11">
-        <v>0.1</v>
-      </c>
-      <c r="D23">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C24" s="11"/>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G25" s="2"/>
-      <c r="H25" s="2"/>
-      <c r="I25" s="2"/>
-      <c r="J25" s="2"/>
-      <c r="K25" s="2"/>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B26" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C26" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="D26" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="E26" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="F26" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="G26" s="4" t="s">
-        <v>181</v>
-      </c>
-      <c r="H26" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="I26" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="J26" s="4" t="s">
-        <v>12</v>
-      </c>
+      <c r="I26" s="2"/>
+      <c r="J26" s="2"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B27" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="E27" s="2">
-        <v>2019</v>
+        <v>155</v>
+      </c>
+      <c r="E27">
+        <v>2026</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>185</v>
       </c>
       <c r="G27" s="26">
-        <f>1+$C32</f>
+        <f>1+$C31</f>
         <v>1</v>
       </c>
       <c r="H27" s="16">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="I27" s="2">
         <v>3</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="E28" s="2">
-        <v>2020</v>
+      <c r="D28" s="2"/>
+      <c r="E28">
+        <v>2027</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="G28" s="26">
-        <f>1+$C33</f>
-        <v>1</v>
-      </c>
       <c r="H28" s="16">
-        <v>0.5</v>
-      </c>
-      <c r="I28" s="2"/>
-      <c r="J28" s="2"/>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B29" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="E29">
-        <v>2026</v>
-      </c>
-      <c r="F29" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="G29" s="26">
-        <f>1+$C33</f>
-        <v>1</v>
-      </c>
-      <c r="H29" s="16">
-        <v>1</v>
-      </c>
-      <c r="I29" s="2">
-        <v>3</v>
-      </c>
-      <c r="J29" s="2" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D30" s="2"/>
-      <c r="E30">
-        <v>2027</v>
-      </c>
-      <c r="F30" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="H30" s="16">
         <v>2</v>
       </c>
     </row>
@@ -6468,7 +6390,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9933FEB4-63EA-406B-A848-C3344FC12632}">
   <dimension ref="A2:N37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D3" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="D3" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
@@ -9608,21 +9530,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010087B74FDAF7A4FB4D876E5EA45926113E" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="7c45a71fd69a7f965f9452dfe567e395">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="3a32fc56-8470-4d77-ad86-bef2a7229878" xmlns:ns3="af10b6eb-1b35-481e-9f8a-8ff8d968e3bf" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e11456b9df302c9cdeb068d2abd9c51d" ns2:_="" ns3:_="">
     <xsd:import namespace="3a32fc56-8470-4d77-ad86-bef2a7229878"/>
@@ -9833,24 +9740,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{62402F5C-4915-4658-8F60-3A11655231DF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BB3709B4-63F5-4DFC-B992-07B9DE433FAB}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{00FA9C21-6103-4373-B43A-A6097DCED766}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -9867,4 +9772,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BB3709B4-63F5-4DFC-B992-07B9DE433FAB}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{62402F5C-4915-4658-8F60-3A11655231DF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/SuppXLS/Scen_B_SYS_MaxGrowthRates_DHPlus.xlsx
+++ b/SuppXLS/Scen_B_SYS_MaxGrowthRates_DHPlus.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git_TIMES Models\Irish-TIMES-model\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6E678D5-24D8-4E9F-8CA9-3C12758FB4CE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E718D19-6F02-46B9-B70B-DC1F376E6BBC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{39DC52AD-7AD8-48BE-9D85-AA1C40791A2D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{39DC52AD-7AD8-48BE-9D85-AA1C40791A2D}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="6" r:id="rId1"/>
@@ -171,7 +171,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="498" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="501" uniqueCount="228">
   <si>
     <t>~UC_Sets: T_E:</t>
   </si>
@@ -872,6 +872,9 @@
   </si>
   <si>
     <t>DH_SOL</t>
+  </si>
+  <si>
+    <t>DH_IND*</t>
   </si>
 </sst>
 </file>
@@ -5812,10 +5815,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43B92B0C-7472-4C75-A119-CE0EE6C8A8E0}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A2:N28"/>
+  <dimension ref="A2:N29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5911,7 +5914,7 @@
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="str">
-        <f t="shared" ref="B6:B9" si="0">_xlfn.TEXTJOIN("_",TRUE,"UC",A14,"MaxGrowth",B14)</f>
+        <f t="shared" ref="B6:B9" si="0">_xlfn.TEXTJOIN("_",TRUE,"UC",A15,"MaxGrowth",B15)</f>
         <v>UC_PWR_MaxGrowth_CCS</v>
       </c>
       <c r="C6" s="2" t="s">
@@ -5927,21 +5930,21 @@
         <v>15</v>
       </c>
       <c r="G6" s="26">
-        <f t="shared" ref="G6:G9" si="1">1+$C14</f>
+        <f t="shared" ref="G6:G9" si="1">1+$C15</f>
         <v>1.02</v>
       </c>
       <c r="H6" s="2">
         <v>1</v>
       </c>
       <c r="I6" s="16">
-        <f t="shared" ref="I6:I11" si="2">-D14</f>
+        <f t="shared" ref="I6:I11" si="2">-D15</f>
         <v>-0.1</v>
       </c>
       <c r="J6" s="2">
         <v>5</v>
       </c>
       <c r="K6" s="2" t="str">
-        <f t="shared" ref="K6:K11" si="3">_xlfn.TEXTJOIN(" ",TRUE,A14, "maximum growth rate of",B14)</f>
+        <f t="shared" ref="K6:K11" si="3">_xlfn.TEXTJOIN(" ",TRUE,A15, "maximum growth rate of",B15)</f>
         <v>PWR maximum growth rate of CCS</v>
       </c>
     </row>
@@ -6055,7 +6058,7 @@
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B10" s="2" t="str">
-        <f>_xlfn.TEXTJOIN("_",TRUE,"UC",A18,"MaxGrowth",B18)</f>
+        <f>_xlfn.TEXTJOIN("_",TRUE,"UC",A19,"MaxGrowth",B19)</f>
         <v>UC_PWR_MaxGrowth_PV</v>
       </c>
       <c r="C10" s="2" t="s">
@@ -6071,7 +6074,7 @@
         <v>15</v>
       </c>
       <c r="G10" s="26">
-        <f>1+$C18</f>
+        <f>1+$C19</f>
         <v>1.2</v>
       </c>
       <c r="H10" s="2">
@@ -6091,7 +6094,7 @@
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B11" s="2" t="str">
-        <f>_xlfn.TEXTJOIN("_",TRUE,"UC",A19,"MaxGrowth",B19)</f>
+        <f>_xlfn.TEXTJOIN("_",TRUE,"UC",A20,"MaxGrowth",B20)</f>
         <v>UC_PWR_MaxGrowth_CSP</v>
       </c>
       <c r="C11" s="2" t="s">
@@ -6107,7 +6110,7 @@
         <v>15</v>
       </c>
       <c r="G11" s="26">
-        <f>1+$C19</f>
+        <f>1+$C20</f>
         <v>1.2</v>
       </c>
       <c r="H11" s="2">
@@ -6125,26 +6128,48 @@
         <v>PWR maximum growth rate of CSP</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="C13" t="s">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B12" s="2" t="str">
+        <f>_xlfn.TEXTJOIN("_",TRUE,"UC",A21,"MaxGrowth",B21)</f>
+        <v>UC_PWR_MaxGrowth_DH_IND</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="E12">
+        <v>2019</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G12" s="26">
+        <f>1+$C21</f>
+        <v>1.05</v>
+      </c>
+      <c r="H12" s="2">
+        <v>1</v>
+      </c>
+      <c r="I12" s="16">
+        <f>-D21</f>
+        <v>-0.1</v>
+      </c>
+      <c r="J12" s="2">
+        <v>5</v>
+      </c>
+      <c r="K12" s="2" t="str">
+        <f>_xlfn.TEXTJOIN(" ",TRUE,A21, "maximum growth rate of",B21)</f>
+        <v>PWR maximum growth rate of DH_IND</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="C14" t="s">
         <v>117</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D14" t="s">
         <v>119</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>128</v>
-      </c>
-      <c r="B14" t="s">
-        <v>124</v>
-      </c>
-      <c r="C14" s="50">
-        <v>0.02</v>
-      </c>
-      <c r="D14">
-        <v>0.1</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
@@ -6152,13 +6177,13 @@
         <v>128</v>
       </c>
       <c r="B15" t="s">
-        <v>125</v>
-      </c>
-      <c r="C15" s="11">
-        <v>0.2</v>
+        <v>124</v>
+      </c>
+      <c r="C15" s="50">
+        <v>0.02</v>
       </c>
       <c r="D15">
-        <v>0.4</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
@@ -6166,13 +6191,13 @@
         <v>128</v>
       </c>
       <c r="B16" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C16" s="11">
         <v>0.2</v>
       </c>
       <c r="D16">
-        <v>0.1</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
@@ -6180,13 +6205,13 @@
         <v>128</v>
       </c>
       <c r="B17" t="s">
-        <v>160</v>
+        <v>126</v>
       </c>
       <c r="C17" s="11">
         <v>0.2</v>
       </c>
       <c r="D17">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
@@ -6194,7 +6219,7 @@
         <v>128</v>
       </c>
       <c r="B18" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="C18" s="11">
         <v>0.2</v>
@@ -6208,7 +6233,7 @@
         <v>128</v>
       </c>
       <c r="B19" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C19" s="11">
         <v>0.2</v>
@@ -6222,13 +6247,13 @@
         <v>128</v>
       </c>
       <c r="B20" t="s">
-        <v>225</v>
+        <v>157</v>
       </c>
       <c r="C20" s="11">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="D20">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
@@ -6236,97 +6261,85 @@
         <v>128</v>
       </c>
       <c r="B21" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C21" s="11">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="D21">
         <v>0.1</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C22" s="11"/>
+      <c r="A22" t="s">
+        <v>128</v>
+      </c>
+      <c r="B22" t="s">
+        <v>226</v>
+      </c>
+      <c r="C22" s="11">
+        <v>0.1</v>
+      </c>
+      <c r="D22">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2" t="s">
+      <c r="C23" s="11"/>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G23" s="2"/>
-      <c r="H23" s="2"/>
-      <c r="I23" s="2"/>
-      <c r="J23" s="2"/>
-      <c r="K23" s="2"/>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B24" s="4" t="s">
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
+      <c r="J24" s="2"/>
+      <c r="K24" s="2"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B25" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C24" s="14" t="s">
+      <c r="C25" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="D24" s="14" t="s">
+      <c r="D25" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="E24" s="15" t="s">
+      <c r="E25" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="F24" s="15" t="s">
+      <c r="F25" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="G24" s="4" t="s">
+      <c r="G25" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="H24" s="4" t="s">
+      <c r="H25" s="4" t="s">
         <v>182</v>
       </c>
-      <c r="I24" s="4" t="s">
+      <c r="I25" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="J24" s="4" t="s">
+      <c r="J25" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B25" s="2" t="s">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B26" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="E25" s="2">
-        <v>2019</v>
-      </c>
-      <c r="F25" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="G25" s="26">
-        <f>1+$C30</f>
-        <v>1</v>
-      </c>
-      <c r="H25" s="16">
-        <v>0.6</v>
-      </c>
-      <c r="I25" s="2">
-        <v>3</v>
-      </c>
-      <c r="J25" s="2" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B26" s="2"/>
       <c r="C26" s="2"/>
       <c r="D26" s="2" t="s">
         <v>154</v>
       </c>
       <c r="E26" s="2">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>185</v>
@@ -6336,48 +6349,74 @@
         <v>1</v>
       </c>
       <c r="H26" s="16">
-        <v>0.5</v>
-      </c>
-      <c r="I26" s="2"/>
-      <c r="J26" s="2"/>
+        <v>0.6</v>
+      </c>
+      <c r="I26" s="2">
+        <v>3</v>
+      </c>
+      <c r="J26" s="2" t="s">
+        <v>183</v>
+      </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B27" s="2" t="s">
-        <v>180</v>
-      </c>
+      <c r="B27" s="2"/>
       <c r="C27" s="2"/>
       <c r="D27" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="E27">
-        <v>2026</v>
+        <v>154</v>
+      </c>
+      <c r="E27" s="2">
+        <v>2020</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>185</v>
       </c>
       <c r="G27" s="26">
-        <f>1+$C31</f>
+        <f>1+$C32</f>
         <v>1</v>
       </c>
       <c r="H27" s="16">
-        <v>1</v>
-      </c>
-      <c r="I27" s="2">
-        <v>3</v>
-      </c>
-      <c r="J27" s="2" t="s">
-        <v>184</v>
-      </c>
+        <v>0.5</v>
+      </c>
+      <c r="I27" s="2"/>
+      <c r="J27" s="2"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D28" s="2"/>
+      <c r="B28" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2" t="s">
+        <v>155</v>
+      </c>
       <c r="E28">
-        <v>2027</v>
+        <v>2026</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>185</v>
       </c>
+      <c r="G28" s="26">
+        <f>1+$C32</f>
+        <v>1</v>
+      </c>
       <c r="H28" s="16">
+        <v>1</v>
+      </c>
+      <c r="I28" s="2">
+        <v>3</v>
+      </c>
+      <c r="J28" s="2" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D29" s="2"/>
+      <c r="E29">
+        <v>2027</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="H29" s="16">
         <v>2</v>
       </c>
     </row>
@@ -6390,8 +6429,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9933FEB4-63EA-406B-A848-C3344FC12632}">
   <dimension ref="A2:N37"/>
   <sheetViews>
-    <sheetView topLeftCell="D3" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+    <sheetView topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6904,8 +6943,8 @@
     </row>
     <row r="16" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B16" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>UC_RSD_MaxGrowth_Kerosene</v>
+        <f>_xlfn.TEXTJOIN("_",TRUE,"*UC",A31,"MaxGrowth",B31)</f>
+        <v>*UC_RSD_MaxGrowth_Kerosene</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>144</v>
@@ -7258,7 +7297,7 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A2:N26"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
@@ -9530,6 +9569,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010087B74FDAF7A4FB4D876E5EA45926113E" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="7c45a71fd69a7f965f9452dfe567e395">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="3a32fc56-8470-4d77-ad86-bef2a7229878" xmlns:ns3="af10b6eb-1b35-481e-9f8a-8ff8d968e3bf" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e11456b9df302c9cdeb068d2abd9c51d" ns2:_="" ns3:_="">
     <xsd:import namespace="3a32fc56-8470-4d77-ad86-bef2a7229878"/>
@@ -9740,22 +9794,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{62402F5C-4915-4658-8F60-3A11655231DF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BB3709B4-63F5-4DFC-B992-07B9DE433FAB}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{00FA9C21-6103-4373-B43A-A6097DCED766}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -9772,21 +9828,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BB3709B4-63F5-4DFC-B992-07B9DE433FAB}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{62402F5C-4915-4658-8F60-3A11655231DF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/SuppXLS/Scen_B_SYS_MaxGrowthRates_DHPlus.xlsx
+++ b/SuppXLS/Scen_B_SYS_MaxGrowthRates_DHPlus.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git_TIMES Models\Irish-TIMES-model\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E718D19-6F02-46B9-B70B-DC1F376E6BBC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{556EBEF9-B888-408F-A29F-957B4B213B82}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{39DC52AD-7AD8-48BE-9D85-AA1C40791A2D}"/>
   </bookViews>
@@ -171,7 +171,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="501" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="229">
   <si>
     <t>~UC_Sets: T_E:</t>
   </si>
@@ -875,6 +875,9 @@
   </si>
   <si>
     <t>DH_IND*</t>
+  </si>
+  <si>
+    <t>DH_SOL*</t>
   </si>
 </sst>
 </file>
@@ -5815,10 +5818,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43B92B0C-7472-4C75-A119-CE0EE6C8A8E0}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A2:N29"/>
+  <dimension ref="A2:N30"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5914,7 +5917,7 @@
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="str">
-        <f t="shared" ref="B6:B9" si="0">_xlfn.TEXTJOIN("_",TRUE,"UC",A15,"MaxGrowth",B15)</f>
+        <f t="shared" ref="B6:B9" si="0">_xlfn.TEXTJOIN("_",TRUE,"UC",A16,"MaxGrowth",B16)</f>
         <v>UC_PWR_MaxGrowth_CCS</v>
       </c>
       <c r="C6" s="2" t="s">
@@ -5930,21 +5933,21 @@
         <v>15</v>
       </c>
       <c r="G6" s="26">
-        <f t="shared" ref="G6:G9" si="1">1+$C15</f>
+        <f t="shared" ref="G6:G9" si="1">1+$C16</f>
         <v>1.02</v>
       </c>
       <c r="H6" s="2">
         <v>1</v>
       </c>
       <c r="I6" s="16">
-        <f t="shared" ref="I6:I11" si="2">-D15</f>
+        <f t="shared" ref="I6:I11" si="2">-D16</f>
         <v>-0.1</v>
       </c>
       <c r="J6" s="2">
         <v>5</v>
       </c>
       <c r="K6" s="2" t="str">
-        <f t="shared" ref="K6:K11" si="3">_xlfn.TEXTJOIN(" ",TRUE,A15, "maximum growth rate of",B15)</f>
+        <f t="shared" ref="K6:K11" si="3">_xlfn.TEXTJOIN(" ",TRUE,A16, "maximum growth rate of",B16)</f>
         <v>PWR maximum growth rate of CCS</v>
       </c>
     </row>
@@ -6058,7 +6061,7 @@
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B10" s="2" t="str">
-        <f>_xlfn.TEXTJOIN("_",TRUE,"UC",A19,"MaxGrowth",B19)</f>
+        <f>_xlfn.TEXTJOIN("_",TRUE,"UC",A20,"MaxGrowth",B20)</f>
         <v>UC_PWR_MaxGrowth_PV</v>
       </c>
       <c r="C10" s="2" t="s">
@@ -6074,7 +6077,7 @@
         <v>15</v>
       </c>
       <c r="G10" s="26">
-        <f>1+$C19</f>
+        <f>1+$C20</f>
         <v>1.2</v>
       </c>
       <c r="H10" s="2">
@@ -6094,7 +6097,7 @@
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B11" s="2" t="str">
-        <f>_xlfn.TEXTJOIN("_",TRUE,"UC",A20,"MaxGrowth",B20)</f>
+        <f>_xlfn.TEXTJOIN("_",TRUE,"UC",A21,"MaxGrowth",B21)</f>
         <v>UC_PWR_MaxGrowth_CSP</v>
       </c>
       <c r="C11" s="2" t="s">
@@ -6110,7 +6113,7 @@
         <v>15</v>
       </c>
       <c r="G11" s="26">
-        <f>1+$C20</f>
+        <f>1+$C21</f>
         <v>1.2</v>
       </c>
       <c r="H11" s="2">
@@ -6130,7 +6133,7 @@
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B12" s="2" t="str">
-        <f>_xlfn.TEXTJOIN("_",TRUE,"UC",A21,"MaxGrowth",B21)</f>
+        <f>_xlfn.TEXTJOIN("_",TRUE,"UC",A22,"MaxGrowth",B22)</f>
         <v>UC_PWR_MaxGrowth_DH_IND</v>
       </c>
       <c r="C12" s="2" t="s">
@@ -6146,44 +6149,66 @@
         <v>15</v>
       </c>
       <c r="G12" s="26">
-        <f>1+$C21</f>
+        <f>1+$C22</f>
         <v>1.05</v>
       </c>
       <c r="H12" s="2">
         <v>1</v>
       </c>
       <c r="I12" s="16">
-        <f>-D21</f>
-        <v>-0.1</v>
+        <f>-D22</f>
+        <v>-0.05</v>
       </c>
       <c r="J12" s="2">
         <v>5</v>
       </c>
       <c r="K12" s="2" t="str">
-        <f>_xlfn.TEXTJOIN(" ",TRUE,A21, "maximum growth rate of",B21)</f>
+        <f>_xlfn.TEXTJOIN(" ",TRUE,A22, "maximum growth rate of",B22)</f>
         <v>PWR maximum growth rate of DH_IND</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="C14" t="s">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B13" s="2" t="str">
+        <f>_xlfn.TEXTJOIN("_",TRUE,"UC",A23,"MaxGrowth",B23)</f>
+        <v>UC_PWR_MaxGrowth_DH_SOL</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="E13">
+        <v>2018</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G13" s="26">
+        <f>1+$C23</f>
+        <v>1.05</v>
+      </c>
+      <c r="H13" s="2">
+        <v>1</v>
+      </c>
+      <c r="I13" s="16">
+        <f>-D23</f>
+        <v>-0.05</v>
+      </c>
+      <c r="J13" s="2">
+        <v>5</v>
+      </c>
+      <c r="K13" s="2" t="str">
+        <f>_xlfn.TEXTJOIN(" ",TRUE,A23, "maximum growth rate of",B23)</f>
+        <v>PWR maximum growth rate of DH_SOL</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="C15" t="s">
         <v>117</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D15" t="s">
         <v>119</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>128</v>
-      </c>
-      <c r="B15" t="s">
-        <v>124</v>
-      </c>
-      <c r="C15" s="50">
-        <v>0.02</v>
-      </c>
-      <c r="D15">
-        <v>0.1</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
@@ -6191,13 +6216,13 @@
         <v>128</v>
       </c>
       <c r="B16" t="s">
-        <v>125</v>
-      </c>
-      <c r="C16" s="11">
-        <v>0.2</v>
+        <v>124</v>
+      </c>
+      <c r="C16" s="50">
+        <v>0.02</v>
       </c>
       <c r="D16">
-        <v>0.4</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
@@ -6205,13 +6230,13 @@
         <v>128</v>
       </c>
       <c r="B17" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C17" s="11">
         <v>0.2</v>
       </c>
       <c r="D17">
-        <v>0.1</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
@@ -6219,13 +6244,13 @@
         <v>128</v>
       </c>
       <c r="B18" t="s">
-        <v>160</v>
+        <v>126</v>
       </c>
       <c r="C18" s="11">
         <v>0.2</v>
       </c>
       <c r="D18">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
@@ -6233,7 +6258,7 @@
         <v>128</v>
       </c>
       <c r="B19" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="C19" s="11">
         <v>0.2</v>
@@ -6247,7 +6272,7 @@
         <v>128</v>
       </c>
       <c r="B20" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C20" s="11">
         <v>0.2</v>
@@ -6261,13 +6286,13 @@
         <v>128</v>
       </c>
       <c r="B21" t="s">
-        <v>225</v>
+        <v>157</v>
       </c>
       <c r="C21" s="11">
-        <v>0.05</v>
+        <v>0.2</v>
       </c>
       <c r="D21">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
@@ -6275,97 +6300,85 @@
         <v>128</v>
       </c>
       <c r="B22" t="s">
+        <v>225</v>
+      </c>
+      <c r="C22" s="11">
+        <v>0.05</v>
+      </c>
+      <c r="D22">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>128</v>
+      </c>
+      <c r="B23" t="s">
         <v>226</v>
       </c>
-      <c r="C22" s="11">
-        <v>0.1</v>
-      </c>
-      <c r="D22">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C23" s="11"/>
+      <c r="C23" s="11">
+        <v>0.05</v>
+      </c>
+      <c r="D23">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2" t="s">
+      <c r="C24" s="11"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G24" s="2"/>
-      <c r="H24" s="2"/>
-      <c r="I24" s="2"/>
-      <c r="J24" s="2"/>
-      <c r="K24" s="2"/>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B25" s="4" t="s">
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2"/>
+      <c r="J25" s="2"/>
+      <c r="K25" s="2"/>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B26" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C25" s="14" t="s">
+      <c r="C26" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="D25" s="14" t="s">
+      <c r="D26" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="E25" s="15" t="s">
+      <c r="E26" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="F25" s="15" t="s">
+      <c r="F26" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="G25" s="4" t="s">
+      <c r="G26" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="H25" s="4" t="s">
+      <c r="H26" s="4" t="s">
         <v>182</v>
       </c>
-      <c r="I25" s="4" t="s">
+      <c r="I26" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="J25" s="4" t="s">
+      <c r="J26" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B26" s="2" t="s">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B27" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="E26" s="2">
-        <v>2019</v>
-      </c>
-      <c r="F26" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="G26" s="26">
-        <f>1+$C31</f>
-        <v>1</v>
-      </c>
-      <c r="H26" s="16">
-        <v>0.6</v>
-      </c>
-      <c r="I26" s="2">
-        <v>3</v>
-      </c>
-      <c r="J26" s="2" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B27" s="2"/>
       <c r="C27" s="2"/>
       <c r="D27" s="2" t="s">
         <v>154</v>
       </c>
       <c r="E27" s="2">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>185</v>
@@ -6375,48 +6388,74 @@
         <v>1</v>
       </c>
       <c r="H27" s="16">
-        <v>0.5</v>
-      </c>
-      <c r="I27" s="2"/>
-      <c r="J27" s="2"/>
+        <v>0.6</v>
+      </c>
+      <c r="I27" s="2">
+        <v>3</v>
+      </c>
+      <c r="J27" s="2" t="s">
+        <v>183</v>
+      </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B28" s="2" t="s">
-        <v>180</v>
-      </c>
+      <c r="B28" s="2"/>
       <c r="C28" s="2"/>
       <c r="D28" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="E28">
-        <v>2026</v>
+        <v>154</v>
+      </c>
+      <c r="E28" s="2">
+        <v>2020</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>185</v>
       </c>
       <c r="G28" s="26">
-        <f>1+$C32</f>
+        <f>1+$C33</f>
         <v>1</v>
       </c>
       <c r="H28" s="16">
-        <v>1</v>
-      </c>
-      <c r="I28" s="2">
-        <v>3</v>
-      </c>
-      <c r="J28" s="2" t="s">
-        <v>184</v>
-      </c>
+        <v>0.5</v>
+      </c>
+      <c r="I28" s="2"/>
+      <c r="J28" s="2"/>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D29" s="2"/>
+      <c r="B29" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2" t="s">
+        <v>155</v>
+      </c>
       <c r="E29">
-        <v>2027</v>
+        <v>2026</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>185</v>
       </c>
+      <c r="G29" s="26">
+        <f>1+$C33</f>
+        <v>1</v>
+      </c>
       <c r="H29" s="16">
+        <v>1</v>
+      </c>
+      <c r="I29" s="2">
+        <v>3</v>
+      </c>
+      <c r="J29" s="2" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D30" s="2"/>
+      <c r="E30">
+        <v>2027</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="H30" s="16">
         <v>2</v>
       </c>
     </row>
@@ -6430,7 +6469,7 @@
   <dimension ref="A2:N37"/>
   <sheetViews>
     <sheetView topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="A14" sqref="A14:XFD14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6543,8 +6582,8 @@
     </row>
     <row r="6" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="str">
-        <f>_xlfn.TEXTJOIN("_",TRUE,"UC",A21,"MaxGrowth",B21)</f>
-        <v>UC_RSD_MaxGrowth_AmbientHeat</v>
+        <f>_xlfn.TEXTJOIN("_",TRUE,"*UC",A21,"MaxGrowth",B21)</f>
+        <v>*UC_RSD_MaxGrowth_AmbientHeat</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>144</v>
@@ -6743,8 +6782,8 @@
     </row>
     <row r="11" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B11" s="2" t="str">
-        <f t="shared" ref="B11:B16" si="0">_xlfn.TEXTJOIN("_",TRUE,"UC",A26,"MaxGrowth",B26)</f>
-        <v>UC_RSD_MaxGrowth_Electricity</v>
+        <f>_xlfn.TEXTJOIN("_",TRUE,"*UC",A26,"MaxGrowth",B26)</f>
+        <v>*UC_RSD_MaxGrowth_Electricity</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>144</v>
@@ -6763,27 +6802,27 @@
         <v>15</v>
       </c>
       <c r="J11" s="29">
-        <f t="shared" ref="J11:J16" si="1">1+C26</f>
+        <f t="shared" ref="J11:J16" si="0">1+C26</f>
         <v>1.3</v>
       </c>
       <c r="K11" s="2">
         <v>1</v>
       </c>
       <c r="L11" s="16">
-        <f t="shared" ref="L11:L16" si="2">-D26</f>
+        <f t="shared" ref="L11:L16" si="1">-D26</f>
         <v>-0.1</v>
       </c>
       <c r="M11" s="2">
         <v>5</v>
       </c>
       <c r="N11" s="2" t="str">
-        <f t="shared" ref="N11:N16" si="3">_xlfn.TEXTJOIN(" ",TRUE,A26, "maximum growth rate of",B26)</f>
+        <f t="shared" ref="N11:N16" si="2">_xlfn.TEXTJOIN(" ",TRUE,A26, "maximum growth rate of",B26)</f>
         <v>RSD maximum growth rate of Electricity</v>
       </c>
     </row>
     <row r="12" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B12" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="B11:B15" si="3">_xlfn.TEXTJOIN("_",TRUE,"UC",A27,"MaxGrowth",B27)</f>
         <v>UC_RSD_MaxGrowth_Ethanol</v>
       </c>
       <c r="C12" s="2" t="s">
@@ -6803,27 +6842,27 @@
         <v>15</v>
       </c>
       <c r="J12" s="29">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1.1000000000000001</v>
       </c>
       <c r="K12" s="2">
         <v>1</v>
       </c>
       <c r="L12" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="M12" s="2">
         <v>5</v>
       </c>
       <c r="N12" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>RSD maximum growth rate of Ethanol</v>
       </c>
     </row>
     <row r="13" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B13" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>UC_RSD_MaxGrowth_Gas</v>
       </c>
       <c r="C13" s="2" t="s">
@@ -6843,21 +6882,21 @@
         <v>15</v>
       </c>
       <c r="J13" s="29">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1.0249999999999999</v>
       </c>
       <c r="K13" s="2">
         <v>1</v>
       </c>
       <c r="L13" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>-0.1</v>
       </c>
       <c r="M13" s="2">
         <v>5</v>
       </c>
       <c r="N13" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>RSD maximum growth rate of Gas</v>
       </c>
     </row>
@@ -6883,14 +6922,14 @@
         <v>185</v>
       </c>
       <c r="J14" s="29">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1.04</v>
       </c>
       <c r="K14" s="2">
         <v>1</v>
       </c>
       <c r="L14" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>-0.3</v>
       </c>
       <c r="M14" s="2">
@@ -6903,7 +6942,7 @@
     </row>
     <row r="15" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B15" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>UC_RSD_MaxGrowth_LPG</v>
       </c>
       <c r="C15" s="2" t="s">
@@ -6923,21 +6962,21 @@
         <v>15</v>
       </c>
       <c r="J15" s="29">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1.01</v>
       </c>
       <c r="K15" s="2">
         <v>1</v>
       </c>
       <c r="L15" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="M15" s="2">
         <v>5</v>
       </c>
       <c r="N15" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>RSD maximum growth rate of LPG</v>
       </c>
     </row>
@@ -6963,28 +7002,28 @@
         <v>15</v>
       </c>
       <c r="J16" s="29">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1.01</v>
       </c>
       <c r="K16" s="2">
         <v>1</v>
       </c>
       <c r="L16" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>-0.1</v>
       </c>
       <c r="M16" s="2">
         <v>5</v>
       </c>
       <c r="N16" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>RSD maximum growth rate of Kerosene</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B17" s="2" t="str">
-        <f>_xlfn.TEXTJOIN("_",TRUE,"UC",A32,"MaxGrowth",B32)</f>
-        <v>UC_RSD_MaxGrowth_Solar</v>
+        <f>_xlfn.TEXTJOIN("_",TRUE,"*UC",A32,"MaxGrowth",B32)</f>
+        <v>*UC_RSD_MaxGrowth_Solar</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>144</v>
@@ -9578,12 +9617,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010087B74FDAF7A4FB4D876E5EA45926113E" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="7c45a71fd69a7f965f9452dfe567e395">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="3a32fc56-8470-4d77-ad86-bef2a7229878" xmlns:ns3="af10b6eb-1b35-481e-9f8a-8ff8d968e3bf" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e11456b9df302c9cdeb068d2abd9c51d" ns2:_="" ns3:_="">
     <xsd:import namespace="3a32fc56-8470-4d77-ad86-bef2a7229878"/>
@@ -9794,6 +9827,12 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{62402F5C-4915-4658-8F60-3A11655231DF}">
   <ds:schemaRefs>
@@ -9803,15 +9842,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BB3709B4-63F5-4DFC-B992-07B9DE433FAB}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{00FA9C21-6103-4373-B43A-A6097DCED766}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -9828,4 +9858,13 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BB3709B4-63F5-4DFC-B992-07B9DE433FAB}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/SuppXLS/Scen_B_SYS_MaxGrowthRates_DHPlus.xlsx
+++ b/SuppXLS/Scen_B_SYS_MaxGrowthRates_DHPlus.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git_TIMES Models\Irish-TIMES-model\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{556EBEF9-B888-408F-A29F-957B4B213B82}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32BA1D62-147B-4E12-86C1-1420FAF56A51}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{39DC52AD-7AD8-48BE-9D85-AA1C40791A2D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{39DC52AD-7AD8-48BE-9D85-AA1C40791A2D}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="6" r:id="rId1"/>
@@ -21,6 +21,9 @@
     <sheet name="SRV" sheetId="5" r:id="rId6"/>
     <sheet name="TRA" sheetId="1" r:id="rId7"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId8"/>
+  </externalReferences>
   <definedNames>
     <definedName name="__123Graph_AEUMILKPN" localSheetId="0" hidden="1">#REF!</definedName>
     <definedName name="__123Graph_AEUMILKPN" localSheetId="3" hidden="1">#REF!</definedName>
@@ -171,7 +174,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="520" uniqueCount="234">
   <si>
     <t>~UC_Sets: T_E:</t>
   </si>
@@ -878,6 +881,21 @@
   </si>
   <si>
     <t>DH_SOL*</t>
+  </si>
+  <si>
+    <t>DH_PWR*</t>
+  </si>
+  <si>
+    <t>DH_DC*</t>
+  </si>
+  <si>
+    <t>DH_PWR</t>
+  </si>
+  <si>
+    <t>DH_DC</t>
+  </si>
+  <si>
+    <t>SRVHET*</t>
   </si>
 </sst>
 </file>
@@ -1672,6 +1690,118 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Cover"/>
+      <sheetName val="Regions"/>
+      <sheetName val="SUP"/>
+      <sheetName val="PWR"/>
+      <sheetName val="RSD"/>
+      <sheetName val="SRV"/>
+      <sheetName val="TRA"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1">
+        <row r="3">
+          <cell r="C3" t="str">
+            <v>IE</v>
+          </cell>
+          <cell r="D3" t="str">
+            <v>National</v>
+          </cell>
+          <cell r="E3" t="str">
+            <v>IE-CW</v>
+          </cell>
+          <cell r="F3" t="str">
+            <v>IE-D</v>
+          </cell>
+          <cell r="G3" t="str">
+            <v>IE-KE</v>
+          </cell>
+          <cell r="H3" t="str">
+            <v>IE-KK</v>
+          </cell>
+          <cell r="I3" t="str">
+            <v>IE-LS</v>
+          </cell>
+          <cell r="J3" t="str">
+            <v>IE-LD</v>
+          </cell>
+          <cell r="K3" t="str">
+            <v>IE-LH</v>
+          </cell>
+          <cell r="L3" t="str">
+            <v>IE-MH</v>
+          </cell>
+          <cell r="M3" t="str">
+            <v>IE-OY</v>
+          </cell>
+          <cell r="N3" t="str">
+            <v>IE-WH</v>
+          </cell>
+          <cell r="O3" t="str">
+            <v>IE-WX</v>
+          </cell>
+          <cell r="P3" t="str">
+            <v>IE-WW</v>
+          </cell>
+          <cell r="Q3" t="str">
+            <v>IE-CE</v>
+          </cell>
+          <cell r="R3" t="str">
+            <v>IE-CO</v>
+          </cell>
+          <cell r="S3" t="str">
+            <v>IE-KY</v>
+          </cell>
+          <cell r="T3" t="str">
+            <v>IE-LK</v>
+          </cell>
+          <cell r="U3" t="str">
+            <v>IE-TA</v>
+          </cell>
+          <cell r="V3" t="str">
+            <v>IE-WD</v>
+          </cell>
+          <cell r="W3" t="str">
+            <v>IE-G</v>
+          </cell>
+          <cell r="X3" t="str">
+            <v>IE-LM</v>
+          </cell>
+          <cell r="Y3" t="str">
+            <v>IE-MO</v>
+          </cell>
+          <cell r="Z3" t="str">
+            <v>IE-RN</v>
+          </cell>
+          <cell r="AA3" t="str">
+            <v>IE-SO</v>
+          </cell>
+          <cell r="AB3" t="str">
+            <v>IE-CN</v>
+          </cell>
+          <cell r="AC3" t="str">
+            <v>IE-DL</v>
+          </cell>
+          <cell r="AD3" t="str">
+            <v>IE-MN</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -5818,10 +5948,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43B92B0C-7472-4C75-A119-CE0EE6C8A8E0}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A2:N30"/>
+  <dimension ref="A2:N35"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5834,9 +5964,9 @@
     <col min="14" max="14" width="39.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="str">
-        <f>"~UC_Sets: R_E: " &amp; _xlfn.TEXTJOIN(",",TRUE,Regions!C3:D3)</f>
+        <f>"~UC_Sets: R_E: " &amp; _xlfn.TEXTJOIN(",",TRUE,[1]Regions!C3:D3)</f>
         <v>~UC_Sets: R_E: IE,National</v>
       </c>
       <c r="C2" s="2"/>
@@ -5852,7 +5982,7 @@
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
@@ -5869,7 +5999,7 @@
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
@@ -5883,7 +6013,7 @@
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B5" s="4" t="s">
         <v>1</v>
       </c>
@@ -5915,9 +6045,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="str">
-        <f t="shared" ref="B6:B9" si="0">_xlfn.TEXTJOIN("_",TRUE,"UC",A16,"MaxGrowth",B16)</f>
+        <f t="shared" ref="B6:B9" si="0">_xlfn.TEXTJOIN("_",TRUE,"UC",A19,"MaxGrowth",B19)</f>
         <v>UC_PWR_MaxGrowth_CCS</v>
       </c>
       <c r="C6" s="2" t="s">
@@ -5933,25 +6063,25 @@
         <v>15</v>
       </c>
       <c r="G6" s="26">
-        <f t="shared" ref="G6:G9" si="1">1+$C16</f>
+        <f t="shared" ref="G6:G9" si="1">1+$C19</f>
         <v>1.02</v>
       </c>
       <c r="H6" s="2">
         <v>1</v>
       </c>
       <c r="I6" s="16">
-        <f t="shared" ref="I6:I11" si="2">-D16</f>
+        <f t="shared" ref="I6:I14" si="2">-D19</f>
         <v>-0.1</v>
       </c>
       <c r="J6" s="2">
         <v>5</v>
       </c>
       <c r="K6" s="2" t="str">
-        <f t="shared" ref="K6:K11" si="3">_xlfn.TEXTJOIN(" ",TRUE,A16, "maximum growth rate of",B16)</f>
+        <f t="shared" ref="K6:K15" si="3">_xlfn.TEXTJOIN(" ",TRUE,A19, "maximum growth rate of",B19)</f>
         <v>PWR maximum growth rate of CCS</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B7" s="2" t="str">
         <f t="shared" si="0"/>
         <v>UC_PWR_MaxGrowth_Wave</v>
@@ -5987,7 +6117,7 @@
         <v>PWR maximum growth rate of Wave</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B8" s="2" t="str">
         <f t="shared" si="0"/>
         <v>UC_PWR_MaxGrowth_Tidal</v>
@@ -6023,7 +6153,7 @@
         <v>PWR maximum growth rate of Tidal</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B9" s="2" t="str">
         <f t="shared" si="0"/>
         <v>UC_PWR_MaxGrowth_H2GT</v>
@@ -6059,9 +6189,9 @@
         <v>PWR maximum growth rate of H2GT</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B10" s="2" t="str">
-        <f>_xlfn.TEXTJOIN("_",TRUE,"UC",A20,"MaxGrowth",B20)</f>
+        <f>_xlfn.TEXTJOIN("_",TRUE,"UC",A23,"MaxGrowth",B23)</f>
         <v>UC_PWR_MaxGrowth_PV</v>
       </c>
       <c r="C10" s="2" t="s">
@@ -6077,7 +6207,7 @@
         <v>15</v>
       </c>
       <c r="G10" s="26">
-        <f>1+$C20</f>
+        <f>1+$C23</f>
         <v>1.2</v>
       </c>
       <c r="H10" s="2">
@@ -6095,9 +6225,9 @@
         <v>PWR maximum growth rate of PV</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B11" s="2" t="str">
-        <f>_xlfn.TEXTJOIN("_",TRUE,"UC",A21,"MaxGrowth",B21)</f>
+        <f>_xlfn.TEXTJOIN("_",TRUE,"UC",A24,"MaxGrowth",B24)</f>
         <v>UC_PWR_MaxGrowth_CSP</v>
       </c>
       <c r="C11" s="2" t="s">
@@ -6113,7 +6243,7 @@
         <v>15</v>
       </c>
       <c r="G11" s="26">
-        <f>1+$C21</f>
+        <f>1+$C24</f>
         <v>1.2</v>
       </c>
       <c r="H11" s="2">
@@ -6131,9 +6261,9 @@
         <v>PWR maximum growth rate of CSP</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B12" s="2" t="str">
-        <f>_xlfn.TEXTJOIN("_",TRUE,"UC",A22,"MaxGrowth",B22)</f>
+        <f>_xlfn.TEXTJOIN("_",TRUE,"UC",A25,"MaxGrowth",B25)</f>
         <v>UC_PWR_MaxGrowth_DH_IND</v>
       </c>
       <c r="C12" s="2" t="s">
@@ -6143,40 +6273,40 @@
         <v>227</v>
       </c>
       <c r="E12">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G12" s="26">
-        <f>1+$C22</f>
-        <v>1.05</v>
+        <f>1+$C25</f>
+        <v>1.1000000000000001</v>
       </c>
       <c r="H12" s="2">
         <v>1</v>
       </c>
       <c r="I12" s="16">
-        <f>-D22</f>
-        <v>-0.05</v>
+        <f t="shared" si="2"/>
+        <v>-0.1</v>
       </c>
       <c r="J12" s="2">
         <v>5</v>
       </c>
       <c r="K12" s="2" t="str">
-        <f>_xlfn.TEXTJOIN(" ",TRUE,A22, "maximum growth rate of",B22)</f>
+        <f t="shared" si="3"/>
         <v>PWR maximum growth rate of DH_IND</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B13" s="2" t="str">
-        <f>_xlfn.TEXTJOIN("_",TRUE,"UC",A23,"MaxGrowth",B23)</f>
-        <v>UC_PWR_MaxGrowth_DH_SOL</v>
+        <f t="shared" ref="B13:B14" si="4">_xlfn.TEXTJOIN("_",TRUE,"UC",A26,"MaxGrowth",B26)</f>
+        <v>UC_PWR_MaxGrowth_DH_PWR</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E13">
         <v>2018</v>
@@ -6185,72 +6315,113 @@
         <v>15</v>
       </c>
       <c r="G13" s="26">
-        <f>1+$C23</f>
+        <f t="shared" ref="G13:G14" si="5">1+$C26</f>
         <v>1.05</v>
       </c>
       <c r="H13" s="2">
         <v>1</v>
       </c>
       <c r="I13" s="16">
-        <f>-D23</f>
-        <v>-0.05</v>
+        <f t="shared" si="2"/>
+        <v>-0.1</v>
       </c>
       <c r="J13" s="2">
         <v>5</v>
       </c>
       <c r="K13" s="2" t="str">
-        <f>_xlfn.TEXTJOIN(" ",TRUE,A23, "maximum growth rate of",B23)</f>
+        <f t="shared" si="3"/>
+        <v>PWR maximum growth rate of DH_PWR</v>
+      </c>
+    </row>
+    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B14" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>UC_PWR_MaxGrowth_DH_DC</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="E14">
+        <v>2018</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G14" s="26">
+        <f t="shared" si="5"/>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="H14" s="2">
+        <v>1</v>
+      </c>
+      <c r="I14" s="16">
+        <f t="shared" si="2"/>
+        <v>-0.1</v>
+      </c>
+      <c r="J14" s="2">
+        <v>5</v>
+      </c>
+      <c r="K14" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>PWR maximum growth rate of DH_DC</v>
+      </c>
+    </row>
+    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B15" s="2" t="str">
+        <f>_xlfn.TEXTJOIN("_",TRUE,"UC",A28,"MaxGrowth",B28)</f>
+        <v>UC_PWR_MaxGrowth_DH_SOL</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="E15">
+        <v>2018</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G15" s="26">
+        <f>1+$C28</f>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="H15" s="2">
+        <v>1</v>
+      </c>
+      <c r="I15" s="16">
+        <f>-D28</f>
+        <v>-0.1</v>
+      </c>
+      <c r="J15" s="2">
+        <v>5</v>
+      </c>
+      <c r="K15" s="2" t="str">
+        <f t="shared" si="3"/>
         <v>PWR maximum growth rate of DH_SOL</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="C15" t="s">
+    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="26"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="16"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="2"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C18" t="s">
         <v>117</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D18" t="s">
         <v>119</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>128</v>
-      </c>
-      <c r="B16" t="s">
-        <v>124</v>
-      </c>
-      <c r="C16" s="50">
-        <v>0.02</v>
-      </c>
-      <c r="D16">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>128</v>
-      </c>
-      <c r="B17" t="s">
-        <v>125</v>
-      </c>
-      <c r="C17" s="11">
-        <v>0.2</v>
-      </c>
-      <c r="D17">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>128</v>
-      </c>
-      <c r="B18" t="s">
-        <v>126</v>
-      </c>
-      <c r="C18" s="11">
-        <v>0.2</v>
-      </c>
-      <c r="D18">
-        <v>0.1</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
@@ -6258,13 +6429,13 @@
         <v>128</v>
       </c>
       <c r="B19" t="s">
-        <v>160</v>
-      </c>
-      <c r="C19" s="11">
-        <v>0.2</v>
+        <v>124</v>
+      </c>
+      <c r="C19" s="50">
+        <v>0.02</v>
       </c>
       <c r="D19">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
@@ -6272,13 +6443,13 @@
         <v>128</v>
       </c>
       <c r="B20" t="s">
-        <v>156</v>
+        <v>125</v>
       </c>
       <c r="C20" s="11">
         <v>0.2</v>
       </c>
       <c r="D20">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
@@ -6286,13 +6457,13 @@
         <v>128</v>
       </c>
       <c r="B21" t="s">
-        <v>157</v>
+        <v>126</v>
       </c>
       <c r="C21" s="11">
         <v>0.2</v>
       </c>
       <c r="D21">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
@@ -6300,13 +6471,13 @@
         <v>128</v>
       </c>
       <c r="B22" t="s">
-        <v>225</v>
+        <v>160</v>
       </c>
       <c r="C22" s="11">
-        <v>0.05</v>
+        <v>0.2</v>
       </c>
       <c r="D22">
-        <v>0.05</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
@@ -6314,148 +6485,218 @@
         <v>128</v>
       </c>
       <c r="B23" t="s">
+        <v>156</v>
+      </c>
+      <c r="C23" s="11">
+        <v>0.2</v>
+      </c>
+      <c r="D23">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>128</v>
+      </c>
+      <c r="B24" t="s">
+        <v>157</v>
+      </c>
+      <c r="C24" s="11">
+        <v>0.2</v>
+      </c>
+      <c r="D24">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>128</v>
+      </c>
+      <c r="B25" t="s">
+        <v>225</v>
+      </c>
+      <c r="C25" s="11">
+        <v>0.1</v>
+      </c>
+      <c r="D25">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>128</v>
+      </c>
+      <c r="B26" t="s">
+        <v>231</v>
+      </c>
+      <c r="C26" s="11">
+        <v>0.05</v>
+      </c>
+      <c r="D26">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>128</v>
+      </c>
+      <c r="B27" t="s">
+        <v>232</v>
+      </c>
+      <c r="C27" s="11">
+        <v>0.1</v>
+      </c>
+      <c r="D27">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>128</v>
+      </c>
+      <c r="B28" t="s">
         <v>226</v>
       </c>
-      <c r="C23" s="11">
-        <v>0.05</v>
-      </c>
-      <c r="D23">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C24" s="11"/>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2" t="s">
+      <c r="C28" s="11">
+        <v>0.1</v>
+      </c>
+      <c r="D28">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C29" s="11"/>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G25" s="2"/>
-      <c r="H25" s="2"/>
-      <c r="I25" s="2"/>
-      <c r="J25" s="2"/>
-      <c r="K25" s="2"/>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B26" s="4" t="s">
+      <c r="G30" s="2"/>
+      <c r="H30" s="2"/>
+      <c r="I30" s="2"/>
+      <c r="J30" s="2"/>
+      <c r="K30" s="2"/>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B31" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C26" s="14" t="s">
+      <c r="C31" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="D26" s="14" t="s">
+      <c r="D31" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="E26" s="15" t="s">
+      <c r="E31" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="F26" s="15" t="s">
+      <c r="F31" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="G26" s="4" t="s">
+      <c r="G31" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="H26" s="4" t="s">
+      <c r="H31" s="4" t="s">
         <v>182</v>
       </c>
-      <c r="I26" s="4" t="s">
+      <c r="I31" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="J26" s="4" t="s">
+      <c r="J31" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B27" s="2" t="s">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B32" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2" t="s">
+      <c r="C32" s="2"/>
+      <c r="D32" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="E27" s="2">
+      <c r="E32" s="2">
         <v>2019</v>
       </c>
-      <c r="F27" s="2" t="s">
+      <c r="F32" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="G27" s="26">
-        <f>1+$C32</f>
+      <c r="G32" s="26">
+        <f>1+$C37</f>
         <v>1</v>
       </c>
-      <c r="H27" s="16">
+      <c r="H32" s="16">
         <v>0.6</v>
       </c>
-      <c r="I27" s="2">
+      <c r="I32" s="2">
         <v>3</v>
       </c>
-      <c r="J27" s="2" t="s">
+      <c r="J32" s="2" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2" t="s">
+    <row r="33" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="E28" s="2">
+      <c r="E33" s="2">
         <v>2020</v>
       </c>
-      <c r="F28" s="2" t="s">
+      <c r="F33" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="G28" s="26">
-        <f>1+$C33</f>
+      <c r="G33" s="26">
+        <f>1+$C38</f>
         <v>1</v>
       </c>
-      <c r="H28" s="16">
+      <c r="H33" s="16">
         <v>0.5</v>
       </c>
-      <c r="I28" s="2"/>
-      <c r="J28" s="2"/>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B29" s="2" t="s">
+      <c r="I33" s="2"/>
+      <c r="J33" s="2"/>
+    </row>
+    <row r="34" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B34" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2" t="s">
+      <c r="C34" s="2"/>
+      <c r="D34" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="E29">
+      <c r="E34">
         <v>2026</v>
       </c>
-      <c r="F29" s="2" t="s">
+      <c r="F34" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="G29" s="26">
-        <f>1+$C33</f>
+      <c r="G34" s="26">
+        <f>1+$C38</f>
         <v>1</v>
       </c>
-      <c r="H29" s="16">
+      <c r="H34" s="16">
         <v>1</v>
       </c>
-      <c r="I29" s="2">
+      <c r="I34" s="2">
         <v>3</v>
       </c>
-      <c r="J29" s="2" t="s">
+      <c r="J34" s="2" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D30" s="2"/>
-      <c r="E30">
+    <row r="35" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="D35" s="2"/>
+      <c r="E35">
         <v>2027</v>
       </c>
-      <c r="F30" s="2" t="s">
+      <c r="F35" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="H30" s="16">
+      <c r="H35" s="16">
         <v>2</v>
       </c>
     </row>
@@ -6468,8 +6709,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9933FEB4-63EA-406B-A848-C3344FC12632}">
   <dimension ref="A2:N37"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14:XFD14"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6489,7 +6730,7 @@
   <sheetData>
     <row r="2" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="str">
-        <f>"~UC_Sets: R_E: " &amp; _xlfn.TEXTJOIN(",",TRUE,Regions!C3,Regions!E3:AD3)</f>
+        <f>"~UC_Sets: R_E: " &amp; _xlfn.TEXTJOIN(",",TRUE,[1]Regions!C3,[1]Regions!E3:AD3)</f>
         <v>~UC_Sets: R_E: IE,IE-CW,IE-D,IE-KE,IE-KK,IE-LS,IE-LD,IE-LH,IE-MH,IE-OY,IE-WH,IE-WX,IE-WW,IE-CE,IE-CO,IE-KY,IE-LK,IE-TA,IE-WD,IE-G,IE-LM,IE-MO,IE-RN,IE-SO,IE-CN,IE-DL,IE-MN</v>
       </c>
       <c r="C2" s="2"/>
@@ -6643,7 +6884,7 @@
       </c>
       <c r="J7" s="29">
         <f>1+C22</f>
-        <v>1.0249999999999999</v>
+        <v>1.03</v>
       </c>
       <c r="K7" s="2">
         <v>1</v>
@@ -6802,7 +7043,7 @@
         <v>15</v>
       </c>
       <c r="J11" s="29">
-        <f t="shared" ref="J11:J16" si="0">1+C26</f>
+        <f t="shared" ref="J11:J15" si="0">1+C26</f>
         <v>1.3</v>
       </c>
       <c r="K11" s="2">
@@ -6816,13 +7057,13 @@
         <v>5</v>
       </c>
       <c r="N11" s="2" t="str">
-        <f t="shared" ref="N11:N16" si="2">_xlfn.TEXTJOIN(" ",TRUE,A26, "maximum growth rate of",B26)</f>
+        <f t="shared" ref="N11:N15" si="2">_xlfn.TEXTJOIN(" ",TRUE,A26, "maximum growth rate of",B26)</f>
         <v>RSD maximum growth rate of Electricity</v>
       </c>
     </row>
     <row r="12" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B12" s="2" t="str">
-        <f t="shared" ref="B11:B15" si="3">_xlfn.TEXTJOIN("_",TRUE,"UC",A27,"MaxGrowth",B27)</f>
+        <f t="shared" ref="B12:B15" si="3">_xlfn.TEXTJOIN("_",TRUE,"UC",A27,"MaxGrowth",B27)</f>
         <v>UC_RSD_MaxGrowth_Ethanol</v>
       </c>
       <c r="C12" s="2" t="s">
@@ -6883,7 +7124,7 @@
       </c>
       <c r="J13" s="29">
         <f t="shared" si="0"/>
-        <v>1.0249999999999999</v>
+        <v>1.01</v>
       </c>
       <c r="K13" s="2">
         <v>1</v>
@@ -6923,7 +7164,7 @@
       </c>
       <c r="J14" s="29">
         <f t="shared" si="0"/>
-        <v>1.04</v>
+        <v>1.08</v>
       </c>
       <c r="K14" s="2">
         <v>1</v>
@@ -6936,8 +7177,8 @@
         <v>5</v>
       </c>
       <c r="N14" s="2" t="str">
-        <f>_xlfn.TEXTJOIN(" ",TRUE,A29, "min growth rate of",B29)</f>
-        <v>RSD min growth rate of DistrictHeat</v>
+        <f>_xlfn.TEXTJOIN(" ",TRUE,A29, "minimum growth rate of",B29)</f>
+        <v>RSD minimum growth rate of DistrictHeat</v>
       </c>
     </row>
     <row r="15" spans="2:14" x14ac:dyDescent="0.25">
@@ -6982,8 +7223,8 @@
     </row>
     <row r="16" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B16" s="2" t="str">
-        <f>_xlfn.TEXTJOIN("_",TRUE,"*UC",A31,"MaxGrowth",B31)</f>
-        <v>*UC_RSD_MaxGrowth_Kerosene</v>
+        <f>_xlfn.TEXTJOIN("_",TRUE,"*UC",A31,"MaxDEGrowth",B31)</f>
+        <v>*UC_RSD_MaxDEGrowth_Kerosene</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>144</v>
@@ -6999,11 +7240,11 @@
         <v>2021</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>15</v>
+        <v>185</v>
       </c>
       <c r="J16" s="29">
-        <f t="shared" si="0"/>
-        <v>1.01</v>
+        <f>1-C31</f>
+        <v>0.95</v>
       </c>
       <c r="K16" s="2">
         <v>1</v>
@@ -7016,8 +7257,8 @@
         <v>5</v>
       </c>
       <c r="N16" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>RSD maximum growth rate of Kerosene</v>
+        <f>_xlfn.TEXTJOIN(" ",TRUE,A31, "maximum degrowth rate of",B31)</f>
+        <v>RSD maximum degrowth rate of Kerosene</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
@@ -7130,7 +7371,7 @@
         <v>196</v>
       </c>
       <c r="C22" s="50">
-        <v>2.5000000000000001E-2</v>
+        <v>0.03</v>
       </c>
       <c r="D22">
         <v>0.2</v>
@@ -7214,7 +7455,7 @@
         <v>192</v>
       </c>
       <c r="C28" s="50">
-        <v>2.5000000000000001E-2</v>
+        <v>0.01</v>
       </c>
       <c r="D28">
         <v>0.1</v>
@@ -7228,7 +7469,7 @@
         <v>191</v>
       </c>
       <c r="C29" s="50">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="D29">
         <v>0.3</v>
@@ -7256,7 +7497,7 @@
         <v>202</v>
       </c>
       <c r="C31" s="50">
-        <v>0.01</v>
+        <v>0.05</v>
       </c>
       <c r="D31">
         <v>0.1</v>
@@ -7296,11 +7537,11 @@
         <v>7</v>
       </c>
       <c r="F36" s="48" t="str">
-        <f>IF(Regions!C$3&lt;&gt;"",Regions!C$3,"*")</f>
+        <f>IF([1]Regions!C$3&lt;&gt;"",[1]Regions!C$3,"*")</f>
         <v>IE</v>
       </c>
       <c r="G36" s="48" t="str">
-        <f>IF(Regions!C$3&lt;&gt;"",Regions!D$3,"*")</f>
+        <f>IF([1]Regions!C$3&lt;&gt;"",[1]Regions!D$3,"*")</f>
         <v>National</v>
       </c>
       <c r="H36" s="49" t="s">
@@ -7315,11 +7556,10 @@
         <v>2018</v>
       </c>
       <c r="F37">
-        <v>2222</v>
+        <v>0</v>
       </c>
       <c r="G37">
-        <f>F37</f>
-        <v>2222</v>
+        <v>0</v>
       </c>
       <c r="H37" t="str">
         <f xml:space="preserve"> _xlfn.TEXTJOIN(",",TRUE,F6:F18)</f>
@@ -7334,10 +7574,10 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F5F46D0-BFBE-459D-AD94-C3EBC85EC70F}">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A2:N26"/>
+  <dimension ref="A2:N28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7356,9 +7596,9 @@
     <col min="14" max="14" width="40" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="str">
-        <f>"~UC_Sets: R_E: " &amp; _xlfn.TEXTJOIN(",",TRUE,Regions!C3:D3)</f>
+        <f>"~UC_Sets: R_E: " &amp; _xlfn.TEXTJOIN(",",TRUE,[1]Regions!C3:D3)</f>
         <v>~UC_Sets: R_E: IE,National</v>
       </c>
       <c r="C2" s="2"/>
@@ -7374,7 +7614,7 @@
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
@@ -7391,7 +7631,7 @@
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
@@ -7408,7 +7648,7 @@
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B5" s="4" t="s">
         <v>1</v>
       </c>
@@ -7449,9 +7689,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="str">
-        <f t="shared" ref="B6:B11" si="0">_xlfn.TEXTJOIN("_",TRUE,"UC",A16,"MaxGrowth",B16)</f>
+        <f t="shared" ref="B6:B10" si="0">_xlfn.TEXTJOIN("_",TRUE,"UC",A17,"MaxGrowth",B17)</f>
         <v>UC_SRV_MaxGrowth_Biomass</v>
       </c>
       <c r="C6" s="2" t="s">
@@ -7471,25 +7711,25 @@
         <v>15</v>
       </c>
       <c r="J6" s="29">
-        <f t="shared" ref="J6:J11" si="1">1+C16</f>
+        <f>1+C17</f>
         <v>1.02</v>
       </c>
       <c r="K6" s="2">
         <v>1</v>
       </c>
       <c r="L6" s="16">
-        <f t="shared" ref="L6:L11" si="2">-D16</f>
+        <f t="shared" ref="L6:L11" si="1">-D17</f>
         <v>-0.1</v>
       </c>
       <c r="M6" s="2">
         <v>5</v>
       </c>
       <c r="N6" s="2" t="str">
-        <f t="shared" ref="N6:N11" si="3">_xlfn.TEXTJOIN(" ",TRUE,A16, "maximum growth rate of",B16)</f>
+        <f t="shared" ref="N6:N11" si="2">_xlfn.TEXTJOIN(" ",TRUE,A17, "maximum growth rate of",B17)</f>
         <v>SRV maximum growth rate of Biomass</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B7" s="2" t="str">
         <f t="shared" si="0"/>
         <v>UC_SRV_MaxGrowth_Biogas</v>
@@ -7511,25 +7751,25 @@
         <v>15</v>
       </c>
       <c r="J7" s="29">
-        <f t="shared" si="1"/>
+        <f>1+C18</f>
         <v>1.02</v>
       </c>
       <c r="K7" s="2">
         <v>1</v>
       </c>
       <c r="L7" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>-0.1</v>
       </c>
       <c r="M7" s="2">
         <v>5</v>
       </c>
       <c r="N7" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>SRV maximum growth rate of Biogas</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B8" s="2" t="str">
         <f t="shared" si="0"/>
         <v>UC_SRV_MaxGrowth_AmbientHeat</v>
@@ -7551,75 +7791,74 @@
         <v>15</v>
       </c>
       <c r="J8" s="29">
-        <f t="shared" si="1"/>
+        <f>1+C19</f>
         <v>1.5</v>
       </c>
       <c r="K8" s="2">
         <v>1</v>
       </c>
       <c r="L8" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>-0.3</v>
       </c>
       <c r="M8" s="2">
         <v>5</v>
       </c>
       <c r="N8" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>SRV maximum growth rate of AmbientHeat</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B9" s="2" t="str">
+        <f>_xlfn.TEXTJOIN("_",TRUE,"*UC",A20,"MaxGrowth",B20)</f>
+        <v>*UC_SRV_MaxGrowth_DistrictHeat</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="D9" s="2"/>
+      <c r="F9" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="H9" s="2">
+        <v>2021</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J9" s="29">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="K9" s="2">
+        <v>1</v>
+      </c>
+      <c r="L9" s="16">
+        <f t="shared" si="1"/>
+        <v>-0.3</v>
+      </c>
+      <c r="M9" s="2">
+        <v>5</v>
+      </c>
+      <c r="N9" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>SRV maximum growth rate of DistrictHeat</v>
+      </c>
+    </row>
+    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B10" s="2" t="str">
         <f t="shared" si="0"/>
         <v>UC_SRV_MaxGrowth_Gas</v>
       </c>
-      <c r="C9" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="D9" s="2"/>
-      <c r="F9" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="H9" s="2">
-        <v>2021</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="J9" s="29">
-        <f t="shared" si="1"/>
-        <v>1.03</v>
-      </c>
-      <c r="K9" s="2">
-        <v>1</v>
-      </c>
-      <c r="L9" s="16">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="M9" s="2">
-        <v>5</v>
-      </c>
-      <c r="N9" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>SRV maximum growth rate of Gas</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B10" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>UC_SRV_MaxGrowth_Electricity</v>
-      </c>
       <c r="C10" s="2" t="s">
         <v>144</v>
       </c>
       <c r="D10" s="2"/>
       <c r="F10" s="2" t="s">
-        <v>222</v>
+        <v>193</v>
       </c>
       <c r="G10" s="2" t="s">
         <v>142</v>
@@ -7631,35 +7870,35 @@
         <v>15</v>
       </c>
       <c r="J10" s="29">
-        <f t="shared" si="1"/>
-        <v>1.3</v>
+        <f>1+C21</f>
+        <v>1.01</v>
       </c>
       <c r="K10" s="2">
         <v>1</v>
       </c>
       <c r="L10" s="16">
-        <f t="shared" si="2"/>
-        <v>-0.3</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="M10" s="2">
         <v>5</v>
       </c>
       <c r="N10" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>SRV maximum growth rate of Electricity</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>SRV maximum growth rate of Gas</v>
+      </c>
+    </row>
+    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B11" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>UC_SRV_MaxGrowth_Solar</v>
+        <f>_xlfn.TEXTJOIN("_",TRUE,"UC",A22,"MaxGrowth",B22)</f>
+        <v>UC_SRV_MaxGrowth_Electricity</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>144</v>
       </c>
       <c r="D11" s="2"/>
-      <c r="F11" t="s">
-        <v>223</v>
+      <c r="F11" s="2" t="s">
+        <v>222</v>
       </c>
       <c r="G11" s="2" t="s">
         <v>142</v>
@@ -7671,28 +7910,28 @@
         <v>15</v>
       </c>
       <c r="J11" s="29">
-        <f t="shared" si="1"/>
-        <v>1.1499999999999999</v>
+        <f>1+C22</f>
+        <v>1.3</v>
       </c>
       <c r="K11" s="2">
         <v>1</v>
       </c>
       <c r="L11" s="16">
-        <f t="shared" si="2"/>
-        <v>-0.2</v>
+        <f t="shared" si="1"/>
+        <v>-0.3</v>
       </c>
       <c r="M11" s="2">
         <v>5</v>
       </c>
       <c r="N11" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>SRV maximum growth rate of Solar</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>SRV maximum growth rate of Electricity</v>
+      </c>
+    </row>
+    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B12" s="2" t="str">
-        <f>_xlfn.TEXTJOIN("_",TRUE,"UC",A21,"MinGrowth",B21)</f>
-        <v>UC_SRV_MinGrowth_Solar</v>
+        <f>_xlfn.TEXTJOIN("_",TRUE,"UC",A23,"MaxGrowth",B23)</f>
+        <v>UC_SRV_MaxGrowth_Solar</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>144</v>
@@ -7708,38 +7947,38 @@
         <v>2021</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>185</v>
+        <v>15</v>
       </c>
       <c r="J12" s="29">
-        <f>1+C21/10</f>
-        <v>1.0149999999999999</v>
+        <f>1+C23</f>
+        <v>1.1499999999999999</v>
       </c>
       <c r="K12" s="2">
         <v>1</v>
       </c>
       <c r="L12" s="16">
-        <f>-D21</f>
+        <f>-D23</f>
         <v>-0.2</v>
       </c>
       <c r="M12" s="2">
         <v>5</v>
       </c>
       <c r="N12" s="2" t="str">
-        <f>_xlfn.TEXTJOIN(" ",TRUE,A21, "minimum growth rate of",B21)</f>
-        <v>SRV minimum growth rate of Solar</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+        <f>_xlfn.TEXTJOIN(" ",TRUE,A23, "maximum growth rate of",B23)</f>
+        <v>SRV maximum growth rate of Solar</v>
+      </c>
+    </row>
+    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B13" s="2" t="str">
-        <f>_xlfn.TEXTJOIN("_",TRUE,"UC",A22,"MinGrowth",B22)</f>
-        <v>UC_SRV_MinGrowth_LPG</v>
+        <f>_xlfn.TEXTJOIN("_",TRUE,"UC",A23,"MinGrowth",B23)</f>
+        <v>UC_SRV_MinGrowth_Solar</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>144</v>
       </c>
       <c r="D13" s="2"/>
       <c r="F13" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="G13" s="2" t="s">
         <v>142</v>
@@ -7748,60 +7987,86 @@
         <v>2021</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>15</v>
+        <v>185</v>
       </c>
       <c r="J13" s="29">
-        <f>1+C22</f>
-        <v>1.01</v>
+        <f>1+C23/10</f>
+        <v>1.0149999999999999</v>
       </c>
       <c r="K13" s="2">
         <v>1</v>
       </c>
       <c r="L13" s="16">
-        <f>-D22</f>
-        <v>0</v>
+        <f>-D23</f>
+        <v>-0.2</v>
       </c>
       <c r="M13" s="2">
         <v>5</v>
       </c>
       <c r="N13" s="2" t="str">
-        <f>_xlfn.TEXTJOIN(" ",TRUE,A22, "maximum growth rate of",B22)</f>
+        <f>_xlfn.TEXTJOIN(" ",TRUE,A23, "minimum growth rate of",B23)</f>
+        <v>SRV minimum growth rate of Solar</v>
+      </c>
+    </row>
+    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B14" s="2" t="str">
+        <f>_xlfn.TEXTJOIN("_",TRUE,"UC",A24,"MinGrowth",B24)</f>
+        <v>UC_SRV_MinGrowth_LPG</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="D14" s="2"/>
+      <c r="F14" t="s">
+        <v>224</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="H14" s="2">
+        <v>2021</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J14" s="29">
+        <f>1+C24</f>
+        <v>1.01</v>
+      </c>
+      <c r="K14" s="2">
+        <v>1</v>
+      </c>
+      <c r="L14" s="16">
+        <f>-D24</f>
+        <v>0</v>
+      </c>
+      <c r="M14" s="2">
+        <v>5</v>
+      </c>
+      <c r="N14" s="2" t="str">
+        <f>_xlfn.TEXTJOIN(" ",TRUE,A24, "maximum growth rate of",B24)</f>
         <v>SRV maximum growth rate of LPG</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
-      <c r="J14" s="29"/>
-      <c r="K14" s="2"/>
-      <c r="L14" s="16"/>
-      <c r="M14" s="2"/>
-      <c r="N14" s="2"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="C15" t="s">
+    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="29"/>
+      <c r="K15" s="2"/>
+      <c r="L15" s="16"/>
+      <c r="M15" s="2"/>
+      <c r="N15" s="2"/>
+    </row>
+    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="C16" t="s">
         <v>117</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D16" t="s">
         <v>189</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>139</v>
-      </c>
-      <c r="B16" t="s">
-        <v>137</v>
-      </c>
-      <c r="C16" s="50">
-        <v>0.02</v>
-      </c>
-      <c r="D16">
-        <v>0.1</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -7809,7 +8074,7 @@
         <v>139</v>
       </c>
       <c r="B17" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C17" s="50">
         <v>0.02</v>
@@ -7823,13 +8088,13 @@
         <v>139</v>
       </c>
       <c r="B18" t="s">
-        <v>190</v>
+        <v>138</v>
       </c>
       <c r="C18" s="50">
-        <v>0.5</v>
+        <v>0.02</v>
       </c>
       <c r="D18">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
@@ -7837,13 +8102,13 @@
         <v>139</v>
       </c>
       <c r="B19" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C19" s="50">
-        <v>0.03</v>
+        <v>0.5</v>
       </c>
       <c r="D19">
-        <v>0</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
@@ -7851,10 +8116,10 @@
         <v>139</v>
       </c>
       <c r="B20" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="C20" s="50">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="D20">
         <v>0.3</v>
@@ -7865,13 +8130,13 @@
         <v>139</v>
       </c>
       <c r="B21" t="s">
-        <v>203</v>
+        <v>192</v>
       </c>
       <c r="C21" s="50">
-        <v>0.15</v>
+        <v>0.01</v>
       </c>
       <c r="D21">
-        <v>0.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
@@ -7879,63 +8144,90 @@
         <v>139</v>
       </c>
       <c r="B22" t="s">
+        <v>199</v>
+      </c>
+      <c r="C22" s="50">
+        <v>0.3</v>
+      </c>
+      <c r="D22">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>139</v>
+      </c>
+      <c r="B23" t="s">
+        <v>203</v>
+      </c>
+      <c r="C23" s="50">
+        <v>0.15</v>
+      </c>
+      <c r="D23">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>139</v>
+      </c>
+      <c r="B24" t="s">
         <v>201</v>
       </c>
-      <c r="C22" s="50">
+      <c r="C24" s="50">
         <v>0.01</v>
       </c>
-      <c r="D22">
+      <c r="D24">
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B24" s="45" t="s">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B26" s="45" t="s">
         <v>213</v>
       </c>
-      <c r="H24" s="46"/>
-    </row>
-    <row r="25" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="47" t="s">
+      <c r="H26" s="46"/>
+    </row>
+    <row r="27" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="47" t="s">
         <v>214</v>
       </c>
-      <c r="C25" s="47" t="s">
+      <c r="C27" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="D25" s="47" t="s">
+      <c r="D27" s="47" t="s">
         <v>215</v>
       </c>
-      <c r="E25" s="47" t="s">
+      <c r="E27" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="F25" s="48" t="str">
-        <f>IF(Regions!C$3&lt;&gt;"",Regions!C$3,"*")</f>
+      <c r="F27" s="48" t="str">
+        <f>IF([1]Regions!C$3&lt;&gt;"",[1]Regions!C$3,"*")</f>
         <v>IE</v>
       </c>
-      <c r="G25" s="48" t="str">
-        <f>IF(Regions!C$3&lt;&gt;"",Regions!D$3,"*")</f>
+      <c r="G27" s="48" t="str">
+        <f>IF([1]Regions!C$3&lt;&gt;"",[1]Regions!D$3,"*")</f>
         <v>National</v>
       </c>
-      <c r="H25" s="49" t="s">
+      <c r="H27" s="49" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D26" t="s">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D28" t="s">
         <v>217</v>
       </c>
-      <c r="E26">
+      <c r="E28">
         <v>2018</v>
       </c>
-      <c r="F26">
-        <v>2222</v>
-      </c>
-      <c r="G26">
-        <f>F26</f>
-        <v>2222</v>
-      </c>
-      <c r="H26" t="str">
-        <f xml:space="preserve"> _xlfn.TEXTJOIN(",",TRUE,F6:F9)</f>
-        <v>SRVBIO,SRVBGS,SRVAHT,SRVAHT2,SRVGAS</v>
+      <c r="F28">
+        <v>0</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
+      <c r="H28" t="str">
+        <f xml:space="preserve"> _xlfn.TEXTJOIN(",",TRUE,F6:F10)</f>
+        <v>SRVBIO,SRVBGS,SRVAHT,SRVAHT2,SRVHET*,SRVGAS</v>
       </c>
     </row>
   </sheetData>
@@ -9608,12 +9900,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -9828,15 +10117,19 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{62402F5C-4915-4658-8F60-3A11655231DF}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BB3709B4-63F5-4DFC-B992-07B9DE433FAB}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -9861,10 +10154,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BB3709B4-63F5-4DFC-B992-07B9DE433FAB}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{62402F5C-4915-4658-8F60-3A11655231DF}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>